--- a/BackTest/2019-10-26 BackTest CMT.xlsx
+++ b/BackTest/2019-10-26 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="E2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="F2" t="n">
-        <v>9150</v>
+        <v>43328.2536</v>
       </c>
       <c r="G2" t="n">
-        <v>18.86000000000001</v>
+        <v>18.85500000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D3" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F3" t="n">
-        <v>131248.8218</v>
+        <v>9150</v>
       </c>
       <c r="G3" t="n">
-        <v>18.86000000000001</v>
+        <v>18.85833333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>4015</v>
+        <v>131248.8218</v>
       </c>
       <c r="G4" t="n">
-        <v>18.92000000000001</v>
+        <v>18.86000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>4015</v>
       </c>
       <c r="G5" t="n">
-        <v>18.98000000000001</v>
+        <v>18.87000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,28 +573,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="F6" t="n">
-        <v>68393.2632</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>19.02000000000001</v>
+        <v>18.88166666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -620,16 +620,16 @@
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>3290.9308</v>
+        <v>68393.2632</v>
       </c>
       <c r="G7" t="n">
-        <v>19.04000000000001</v>
+        <v>18.89166666666668</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -655,10 +655,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>8255.2577</v>
+        <v>3290.9308</v>
       </c>
       <c r="G8" t="n">
-        <v>19.04000000000001</v>
+        <v>18.90333333333335</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>2035.7068</v>
+        <v>8255.2577</v>
       </c>
       <c r="G9" t="n">
-        <v>19.06000000000001</v>
+        <v>18.91166666666668</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,28 +716,32 @@
         <v>19.1</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D10" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E10" t="n">
         <v>19.1</v>
       </c>
       <c r="F10" t="n">
-        <v>3882</v>
+        <v>2035.7068</v>
       </c>
       <c r="G10" t="n">
-        <v>19.06000000000001</v>
+        <v>18.92000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K10" t="n">
+        <v>19</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -748,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C11" t="n">
         <v>19.2</v>
@@ -757,23 +761,31 @@
         <v>19.2</v>
       </c>
       <c r="E11" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F11" t="n">
-        <v>520.8333333333334</v>
+        <v>3882</v>
       </c>
       <c r="G11" t="n">
-        <v>19.10000000000001</v>
+        <v>18.92833333333335</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -795,10 +807,10 @@
         <v>19.2</v>
       </c>
       <c r="F12" t="n">
-        <v>16365</v>
+        <v>520.8333333333334</v>
       </c>
       <c r="G12" t="n">
-        <v>19.14000000000001</v>
+        <v>18.93833333333335</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,8 +819,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>19</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -830,10 +848,10 @@
         <v>19.2</v>
       </c>
       <c r="F13" t="n">
-        <v>17902.99296666666</v>
+        <v>16365</v>
       </c>
       <c r="G13" t="n">
-        <v>19.18000000000001</v>
+        <v>18.94666666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +883,10 @@
         <v>19.2</v>
       </c>
       <c r="F14" t="n">
-        <v>21140.52283333333</v>
+        <v>17902.99296666666</v>
       </c>
       <c r="G14" t="n">
-        <v>19.20000000000001</v>
+        <v>18.95500000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +918,10 @@
         <v>19.2</v>
       </c>
       <c r="F15" t="n">
-        <v>4975</v>
+        <v>21140.52283333333</v>
       </c>
       <c r="G15" t="n">
-        <v>19.20000000000001</v>
+        <v>18.96166666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +953,10 @@
         <v>19.2</v>
       </c>
       <c r="F16" t="n">
-        <v>3559</v>
+        <v>4975</v>
       </c>
       <c r="G16" t="n">
-        <v>19.20000000000001</v>
+        <v>18.96666666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +988,10 @@
         <v>19.2</v>
       </c>
       <c r="F17" t="n">
-        <v>5232</v>
+        <v>3559</v>
       </c>
       <c r="G17" t="n">
-        <v>19.20000000000001</v>
+        <v>18.97666666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +1014,19 @@
         <v>19.2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D18" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E18" t="n">
         <v>19.2</v>
       </c>
       <c r="F18" t="n">
-        <v>21576.08376666667</v>
+        <v>5232</v>
       </c>
       <c r="G18" t="n">
-        <v>19.24000000000001</v>
+        <v>18.98166666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="C19" t="n">
         <v>19.4</v>
@@ -1037,13 +1055,13 @@
         <v>19.4</v>
       </c>
       <c r="E19" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="F19" t="n">
-        <v>25401.7744</v>
+        <v>21576.08376666667</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28000000000001</v>
+        <v>18.99166666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1093,10 @@
         <v>19.4</v>
       </c>
       <c r="F20" t="n">
-        <v>134997.6838</v>
+        <v>25401.7744</v>
       </c>
       <c r="G20" t="n">
-        <v>19.32000000000001</v>
+        <v>19.00166666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1128,10 @@
         <v>19.4</v>
       </c>
       <c r="F21" t="n">
-        <v>28669.768</v>
+        <v>134997.6838</v>
       </c>
       <c r="G21" t="n">
-        <v>19.36000000000001</v>
+        <v>19.01000000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1154,19 @@
         <v>19.4</v>
       </c>
       <c r="C22" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="D22" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="E22" t="n">
         <v>19.4</v>
       </c>
       <c r="F22" t="n">
-        <v>28082.8458</v>
+        <v>28669.768</v>
       </c>
       <c r="G22" t="n">
-        <v>19.46</v>
+        <v>19.01833333333336</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1186,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="C23" t="n">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="D23" t="n">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="E23" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>28082.8458</v>
       </c>
       <c r="G23" t="n">
-        <v>19.42000000000001</v>
+        <v>19.03500000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,28 +1221,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="C24" t="n">
         <v>19.2</v>
       </c>
       <c r="D24" t="n">
-        <v>19.7</v>
+        <v>19.2</v>
       </c>
       <c r="E24" t="n">
         <v>19.2</v>
       </c>
       <c r="F24" t="n">
-        <v>3035.641</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="n">
-        <v>19.38000000000001</v>
+        <v>19.04000000000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1238,22 +1256,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="C25" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D25" t="n">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="E25" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F25" t="n">
-        <v>12331</v>
+        <v>3035.641</v>
       </c>
       <c r="G25" t="n">
-        <v>19.32</v>
+        <v>19.04500000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,28 +1291,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D26" t="n">
-        <v>19.7</v>
+        <v>19.2</v>
       </c>
       <c r="E26" t="n">
         <v>19.1</v>
       </c>
       <c r="F26" t="n">
-        <v>114891.587051269</v>
+        <v>12331</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28000000000001</v>
+        <v>19.04833333333335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1308,22 +1326,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C27" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D27" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="E27" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>114891.587051269</v>
       </c>
       <c r="G27" t="n">
-        <v>19.22000000000001</v>
+        <v>19.05166666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1361,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C28" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="D28" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E28" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="F28" t="n">
-        <v>5786</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>19.22000000000001</v>
+        <v>19.06166666666669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1396,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="C29" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="D29" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="E29" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="F29" t="n">
-        <v>197.7948717948718</v>
+        <v>5786</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28000000000001</v>
+        <v>19.06666666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="C30" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="D30" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="E30" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="F30" t="n">
-        <v>117</v>
+        <v>197.7948717948718</v>
       </c>
       <c r="G30" t="n">
-        <v>19.32</v>
+        <v>19.07833333333335</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1478,10 @@
         <v>19.3</v>
       </c>
       <c r="F31" t="n">
-        <v>291.5059</v>
+        <v>117</v>
       </c>
       <c r="G31" t="n">
-        <v>19.34</v>
+        <v>19.08833333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1513,10 @@
         <v>19.3</v>
       </c>
       <c r="F32" t="n">
-        <v>131.6312</v>
+        <v>291.5059</v>
       </c>
       <c r="G32" t="n">
-        <v>19.32</v>
+        <v>19.10000000000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1548,10 @@
         <v>19.3</v>
       </c>
       <c r="F33" t="n">
-        <v>540</v>
+        <v>131.6312</v>
       </c>
       <c r="G33" t="n">
-        <v>19.34</v>
+        <v>19.11000000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1571,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C34" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="D34" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="E34" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F34" t="n">
-        <v>918</v>
+        <v>540</v>
       </c>
       <c r="G34" t="n">
-        <v>19.34</v>
+        <v>19.12000000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1606,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="C35" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="D35" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="E35" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="F35" t="n">
-        <v>3824.1351</v>
+        <v>918</v>
       </c>
       <c r="G35" t="n">
-        <v>19.3</v>
+        <v>19.13333333333335</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1641,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D36" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="E36" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F36" t="n">
-        <v>2039</v>
+        <v>3824.1351</v>
       </c>
       <c r="G36" t="n">
-        <v>19.24</v>
+        <v>19.14000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1676,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C37" t="n">
         <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E37" t="n">
         <v>19</v>
       </c>
       <c r="F37" t="n">
-        <v>58128.3053</v>
+        <v>2039</v>
       </c>
       <c r="G37" t="n">
-        <v>19.18</v>
+        <v>19.14500000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1723,10 @@
         <v>19</v>
       </c>
       <c r="F38" t="n">
-        <v>14598.3146</v>
+        <v>58128.3053</v>
       </c>
       <c r="G38" t="n">
-        <v>19.12</v>
+        <v>19.15000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1749,19 @@
         <v>19.1</v>
       </c>
       <c r="C39" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D39" t="n">
         <v>19.1</v>
       </c>
       <c r="E39" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F39" t="n">
-        <v>834</v>
+        <v>14598.3146</v>
       </c>
       <c r="G39" t="n">
-        <v>19.04</v>
+        <v>19.15500000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1784,19 @@
         <v>19.1</v>
       </c>
       <c r="C40" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D40" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E40" t="n">
         <v>19.1</v>
       </c>
       <c r="F40" t="n">
-        <v>11365.3623</v>
+        <v>834</v>
       </c>
       <c r="G40" t="n">
-        <v>19.06</v>
+        <v>19.16000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1816,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C41" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D41" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E41" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="F41" t="n">
-        <v>520.8333</v>
+        <v>11365.3623</v>
       </c>
       <c r="G41" t="n">
-        <v>19.12</v>
+        <v>19.16500000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C42" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D42" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E42" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F42" t="n">
-        <v>10237</v>
+        <v>520.8333</v>
       </c>
       <c r="G42" t="n">
-        <v>19.14</v>
+        <v>19.17000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1889,19 @@
         <v>19.1</v>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D43" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E43" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F43" t="n">
-        <v>181063.9994833333</v>
+        <v>10237</v>
       </c>
       <c r="G43" t="n">
-        <v>19.14</v>
+        <v>19.17166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1921,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C44" t="n">
         <v>19</v>
       </c>
       <c r="D44" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E44" t="n">
         <v>19</v>
       </c>
       <c r="F44" t="n">
-        <v>36558.0574</v>
+        <v>181063.9994833333</v>
       </c>
       <c r="G44" t="n">
-        <v>19.12</v>
+        <v>19.17000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1968,10 @@
         <v>19</v>
       </c>
       <c r="F45" t="n">
-        <v>219561.6842</v>
+        <v>36558.0574</v>
       </c>
       <c r="G45" t="n">
-        <v>19.08000000000001</v>
+        <v>19.16833333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1991,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="C46" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F46" t="n">
-        <v>11213</v>
+        <v>219561.6842</v>
       </c>
       <c r="G46" t="n">
-        <v>19</v>
+        <v>19.16500000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2038,10 @@
         <v>18.9</v>
       </c>
       <c r="F47" t="n">
-        <v>1992</v>
+        <v>11213</v>
       </c>
       <c r="G47" t="n">
-        <v>18.96</v>
+        <v>19.16000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2061,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D48" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E48" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F48" t="n">
-        <v>5263.157894736843</v>
+        <v>1992</v>
       </c>
       <c r="G48" t="n">
-        <v>18.96</v>
+        <v>19.15833333333335</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,31 +2096,35 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="C49" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="E49" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F49" t="n">
-        <v>78.5988</v>
+        <v>5263.157894736843</v>
       </c>
       <c r="G49" t="n">
-        <v>18.94</v>
+        <v>19.15500000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K49" t="n">
+        <v>18.9</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
@@ -2113,32 +2135,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="C50" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="D50" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="E50" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>78.5988</v>
       </c>
       <c r="G50" t="n">
-        <v>18.88</v>
+        <v>19.15000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>19</v>
+      </c>
+      <c r="K50" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2178,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="C51" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="D51" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="E51" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="F51" t="n">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="n">
-        <v>18.88</v>
+        <v>19.14166666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2202,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,32 +2219,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="C52" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="D52" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="E52" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="F52" t="n">
-        <v>1942.1658</v>
+        <v>30</v>
       </c>
       <c r="G52" t="n">
-        <v>18.86</v>
+        <v>19.13500000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K52" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,32 +2262,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="C53" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="D53" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="E53" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="F53" t="n">
-        <v>62</v>
+        <v>1942.1658</v>
       </c>
       <c r="G53" t="n">
-        <v>18.84</v>
+        <v>19.12333333333335</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K53" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2305,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="C54" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="D54" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="E54" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="F54" t="n">
-        <v>14015</v>
+        <v>62</v>
       </c>
       <c r="G54" t="n">
-        <v>18.8</v>
+        <v>19.11500000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2329,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,32 +2346,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C55" t="n">
         <v>18.7</v>
       </c>
-      <c r="C55" t="n">
-        <v>18.9</v>
-      </c>
       <c r="D55" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="E55" t="n">
         <v>18.7</v>
       </c>
       <c r="F55" t="n">
-        <v>142539.7363</v>
+        <v>14015</v>
       </c>
       <c r="G55" t="n">
-        <v>18.84000000000001</v>
+        <v>19.10333333333335</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K55" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2326,19 +2392,19 @@
         <v>18.7</v>
       </c>
       <c r="C56" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="D56" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="E56" t="n">
         <v>18.7</v>
       </c>
       <c r="F56" t="n">
-        <v>908.0145</v>
+        <v>142539.7363</v>
       </c>
       <c r="G56" t="n">
-        <v>18.8</v>
+        <v>19.10166666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2413,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2364,26 +2436,34 @@
         <v>18.7</v>
       </c>
       <c r="D57" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="E57" t="n">
         <v>18.7</v>
       </c>
       <c r="F57" t="n">
-        <v>26943.5929</v>
+        <v>908.0145</v>
       </c>
       <c r="G57" t="n">
-        <v>18.78000000000001</v>
+        <v>19.09666666666668</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K57" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2473,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D58" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="E58" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="F58" t="n">
-        <v>118835.3467052632</v>
+        <v>26943.5929</v>
       </c>
       <c r="G58" t="n">
-        <v>18.8</v>
+        <v>19.09666666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2497,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2514,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="C59" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D59" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E59" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>118835.3467052632</v>
       </c>
       <c r="G59" t="n">
-        <v>18.88</v>
+        <v>19.09666666666668</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2538,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2567,10 @@
         <v>19.1</v>
       </c>
       <c r="F60" t="n">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>18.92000000000001</v>
+        <v>19.10333333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2579,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2608,10 @@
         <v>19.1</v>
       </c>
       <c r="F61" t="n">
-        <v>788</v>
+        <v>102</v>
       </c>
       <c r="G61" t="n">
-        <v>19</v>
+        <v>19.10666666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2620,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2637,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="C62" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="D62" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="E62" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="F62" t="n">
-        <v>8472.057699999999</v>
+        <v>788</v>
       </c>
       <c r="G62" t="n">
-        <v>19.02</v>
+        <v>19.11166666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2661,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2690,10 @@
         <v>18.8</v>
       </c>
       <c r="F63" t="n">
-        <v>1025.1726</v>
+        <v>8472.057699999999</v>
       </c>
       <c r="G63" t="n">
-        <v>18.98</v>
+        <v>19.11000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2702,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2719,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="C64" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="D64" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="E64" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="F64" t="n">
-        <v>3844.7058</v>
+        <v>1025.1726</v>
       </c>
       <c r="G64" t="n">
-        <v>18.9</v>
+        <v>19.10666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2743,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2760,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="C65" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="D65" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="E65" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="F65" t="n">
-        <v>1875.753</v>
+        <v>3844.7058</v>
       </c>
       <c r="G65" t="n">
-        <v>18.86</v>
+        <v>19.10166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2784,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2801,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E66" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F66" t="n">
-        <v>5623.3371</v>
+        <v>1875.753</v>
       </c>
       <c r="G66" t="n">
-        <v>18.84</v>
+        <v>19.09666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2825,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +2854,10 @@
         <v>19</v>
       </c>
       <c r="F67" t="n">
-        <v>3784</v>
+        <v>5623.3371</v>
       </c>
       <c r="G67" t="n">
-        <v>18.88</v>
+        <v>19.09666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2895,10 @@
         <v>19</v>
       </c>
       <c r="F68" t="n">
-        <v>12796.8723</v>
+        <v>3784</v>
       </c>
       <c r="G68" t="n">
-        <v>18.92000000000001</v>
+        <v>19.09666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2907,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2924,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E69" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F69" t="n">
-        <v>14300</v>
+        <v>12796.8723</v>
       </c>
       <c r="G69" t="n">
-        <v>19.02</v>
+        <v>19.09666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2965,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C70" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D70" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E70" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F70" t="n">
-        <v>15</v>
+        <v>14300</v>
       </c>
       <c r="G70" t="n">
-        <v>19.1</v>
+        <v>19.09833333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2989,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3006,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C71" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D71" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E71" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F71" t="n">
-        <v>11753.0335</v>
+        <v>15</v>
       </c>
       <c r="G71" t="n">
-        <v>19.12</v>
+        <v>19.10000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3030,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,10 +3059,10 @@
         <v>19.1</v>
       </c>
       <c r="F72" t="n">
-        <v>11753.0336</v>
+        <v>11753.0335</v>
       </c>
       <c r="G72" t="n">
-        <v>19.14</v>
+        <v>19.09833333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3071,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3088,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C73" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="D73" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="E73" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="F73" t="n">
-        <v>593</v>
+        <v>11753.0336</v>
       </c>
       <c r="G73" t="n">
-        <v>19.2</v>
+        <v>19.09666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3112,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3129,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C74" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D74" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E74" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F74" t="n">
-        <v>27000</v>
+        <v>593</v>
       </c>
       <c r="G74" t="n">
-        <v>19.18</v>
+        <v>19.09833333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3153,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3170,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C75" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="D75" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="E75" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="F75" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="G75" t="n">
-        <v>19.18</v>
+        <v>19.09666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3194,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3211,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C76" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D76" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E76" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>16000</v>
       </c>
       <c r="G76" t="n">
-        <v>19.24</v>
+        <v>19.09833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3235,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3252,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C77" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D77" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E77" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F77" t="n">
-        <v>11200</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>19.28</v>
+        <v>19.10166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3276,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3105,10 +3305,10 @@
         <v>19.3</v>
       </c>
       <c r="F78" t="n">
-        <v>887.7976</v>
+        <v>11200</v>
       </c>
       <c r="G78" t="n">
-        <v>19.28</v>
+        <v>19.10333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3317,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3346,10 @@
         <v>19.3</v>
       </c>
       <c r="F79" t="n">
-        <v>51000</v>
+        <v>887.7976</v>
       </c>
       <c r="G79" t="n">
-        <v>19.32</v>
+        <v>19.10166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3358,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3175,10 +3387,10 @@
         <v>19.3</v>
       </c>
       <c r="F80" t="n">
-        <v>20200</v>
+        <v>51000</v>
       </c>
       <c r="G80" t="n">
-        <v>19.32</v>
+        <v>19.09999999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3399,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,10 +3428,10 @@
         <v>19.3</v>
       </c>
       <c r="F81" t="n">
-        <v>21513.1869</v>
+        <v>20200</v>
       </c>
       <c r="G81" t="n">
-        <v>19.3</v>
+        <v>19.09833333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3440,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3236,19 +3460,19 @@
         <v>19.3</v>
       </c>
       <c r="C82" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="D82" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="E82" t="n">
         <v>19.3</v>
       </c>
       <c r="F82" t="n">
-        <v>24994.0155</v>
+        <v>21513.1869</v>
       </c>
       <c r="G82" t="n">
-        <v>19.34</v>
+        <v>19.09666666666665</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3481,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,7 +3498,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="C83" t="n">
         <v>19.5</v>
@@ -3277,13 +3507,13 @@
         <v>19.5</v>
       </c>
       <c r="E83" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>24994.0155</v>
       </c>
       <c r="G83" t="n">
-        <v>19.38</v>
+        <v>19.09333333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3522,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3318,7 +3554,7 @@
         <v>2000</v>
       </c>
       <c r="G84" t="n">
-        <v>19.42</v>
+        <v>19.09833333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3563,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3350,10 +3592,10 @@
         <v>19.5</v>
       </c>
       <c r="F85" t="n">
-        <v>64326.9999</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="n">
-        <v>19.46</v>
+        <v>19.10333333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3604,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3385,10 +3633,10 @@
         <v>19.5</v>
       </c>
       <c r="F86" t="n">
-        <v>33372.7686</v>
+        <v>64326.9999</v>
       </c>
       <c r="G86" t="n">
-        <v>19.5</v>
+        <v>19.10999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3645,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3674,10 @@
         <v>19.5</v>
       </c>
       <c r="F87" t="n">
-        <v>115</v>
+        <v>33372.7686</v>
       </c>
       <c r="G87" t="n">
-        <v>19.5</v>
+        <v>19.11499999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3686,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3446,19 +3706,19 @@
         <v>19.5</v>
       </c>
       <c r="C88" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="D88" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="E88" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F88" t="n">
-        <v>110637.7619</v>
+        <v>115</v>
       </c>
       <c r="G88" t="n">
-        <v>19.54</v>
+        <v>19.11666666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3744,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C89" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D89" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E89" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="F89" t="n">
-        <v>15331.2195</v>
+        <v>110637.7619</v>
       </c>
       <c r="G89" t="n">
-        <v>19.56</v>
+        <v>19.12499999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3768,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3797,10 @@
         <v>19.6</v>
       </c>
       <c r="F90" t="n">
-        <v>1585.6172</v>
+        <v>15331.2195</v>
       </c>
       <c r="G90" t="n">
-        <v>19.58</v>
+        <v>19.12666666666665</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3809,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,34 +3826,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C91" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D91" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E91" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>1585.6172</v>
       </c>
       <c r="G91" t="n">
-        <v>19.62</v>
+        <v>19.13166666666665</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>1.032037037037037</v>
       </c>
     </row>
     <row r="92">
@@ -3583,22 +3867,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="C92" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="D92" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="E92" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="F92" t="n">
-        <v>7000</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>19.6</v>
+        <v>19.13833333333332</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3914,10 @@
         <v>19.4</v>
       </c>
       <c r="F93" t="n">
-        <v>472.5389</v>
+        <v>7000</v>
       </c>
       <c r="G93" t="n">
-        <v>19.54</v>
+        <v>19.13999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3937,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C94" t="n">
         <v>19.4</v>
       </c>
       <c r="D94" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E94" t="n">
         <v>19.4</v>
       </c>
       <c r="F94" t="n">
-        <v>16783.9397</v>
+        <v>472.5389</v>
       </c>
       <c r="G94" t="n">
-        <v>19.5</v>
+        <v>19.14166666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3972,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C95" t="n">
         <v>19.4</v>
       </c>
       <c r="D95" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E95" t="n">
         <v>19.4</v>
       </c>
       <c r="F95" t="n">
-        <v>30.5987</v>
+        <v>16783.9397</v>
       </c>
       <c r="G95" t="n">
-        <v>19.46</v>
+        <v>19.13999999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +4019,10 @@
         <v>19.4</v>
       </c>
       <c r="F96" t="n">
-        <v>26000</v>
+        <v>30.5987</v>
       </c>
       <c r="G96" t="n">
-        <v>19.4</v>
+        <v>19.14499999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +4042,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C97" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D97" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E97" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F97" t="n">
-        <v>13924.8549</v>
+        <v>26000</v>
       </c>
       <c r="G97" t="n">
-        <v>19.38</v>
+        <v>19.15166666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +4077,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C98" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D98" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E98" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F98" t="n">
-        <v>13931.7569</v>
+        <v>13924.8549</v>
       </c>
       <c r="G98" t="n">
-        <v>19.38</v>
+        <v>19.15666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +4112,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C99" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D99" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E99" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F99" t="n">
-        <v>402.5278</v>
+        <v>13931.7569</v>
       </c>
       <c r="G99" t="n">
-        <v>19.36</v>
+        <v>19.16333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +4147,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C100" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D100" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E100" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>402.5278</v>
       </c>
       <c r="G100" t="n">
-        <v>19.36</v>
+        <v>19.16666666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +4182,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="C101" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="D101" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="E101" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="F101" t="n">
-        <v>25639.1388</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>19.32</v>
+        <v>19.17</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +4229,10 @@
         <v>19.2</v>
       </c>
       <c r="F102" t="n">
-        <v>16800</v>
+        <v>25639.1388</v>
       </c>
       <c r="G102" t="n">
-        <v>19.3</v>
+        <v>19.16833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4252,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C103" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D103" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E103" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F103" t="n">
-        <v>20240.7198</v>
+        <v>16800</v>
       </c>
       <c r="G103" t="n">
-        <v>19.24</v>
+        <v>19.17</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4299,10 @@
         <v>19.1</v>
       </c>
       <c r="F104" t="n">
-        <v>909.2365</v>
+        <v>20240.7198</v>
       </c>
       <c r="G104" t="n">
-        <v>19.2</v>
+        <v>19.17166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4044,16 +4328,16 @@
         <v>19.1</v>
       </c>
       <c r="D105" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E105" t="n">
         <v>19.1</v>
       </c>
       <c r="F105" t="n">
-        <v>486.2063</v>
+        <v>909.2365</v>
       </c>
       <c r="G105" t="n">
-        <v>19.14</v>
+        <v>19.17333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4360,19 @@
         <v>19.1</v>
       </c>
       <c r="C106" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D106" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E106" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F106" t="n">
-        <v>167619.2631</v>
+        <v>486.2063</v>
       </c>
       <c r="G106" t="n">
-        <v>19.1</v>
+        <v>19.175</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4392,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C107" t="n">
         <v>19</v>
       </c>
       <c r="D107" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E107" t="n">
         <v>19</v>
       </c>
       <c r="F107" t="n">
-        <v>1630.5</v>
+        <v>167619.2631</v>
       </c>
       <c r="G107" t="n">
-        <v>19.06</v>
+        <v>19.17666666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4439,10 @@
         <v>19</v>
       </c>
       <c r="F108" t="n">
-        <v>33727.6717</v>
+        <v>1630.5</v>
       </c>
       <c r="G108" t="n">
-        <v>19.04</v>
+        <v>19.17833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4462,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C109" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D109" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E109" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F109" t="n">
-        <v>32.4201</v>
+        <v>33727.6717</v>
       </c>
       <c r="G109" t="n">
-        <v>19.00000000000001</v>
+        <v>19.17833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4500,19 @@
         <v>19.1</v>
       </c>
       <c r="C110" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D110" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E110" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="F110" t="n">
-        <v>25200</v>
+        <v>32.4201</v>
       </c>
       <c r="G110" t="n">
-        <v>19.02</v>
+        <v>19.17833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,7 +4532,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C111" t="n">
         <v>19.2</v>
@@ -4257,13 +4541,13 @@
         <v>19.2</v>
       </c>
       <c r="E111" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F111" t="n">
-        <v>15105</v>
+        <v>25200</v>
       </c>
       <c r="G111" t="n">
-        <v>19.06000000000001</v>
+        <v>19.18666666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4567,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C112" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D112" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E112" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F112" t="n">
-        <v>26000</v>
+        <v>15105</v>
       </c>
       <c r="G112" t="n">
-        <v>19.14</v>
+        <v>19.19166666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,7 +4602,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C113" t="n">
         <v>19.4</v>
@@ -4327,13 +4611,13 @@
         <v>19.4</v>
       </c>
       <c r="E113" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F113" t="n">
-        <v>35121</v>
+        <v>26000</v>
       </c>
       <c r="G113" t="n">
-        <v>19.22000000000001</v>
+        <v>19.20166666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4637,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C114" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D114" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E114" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F114" t="n">
-        <v>6177</v>
+        <v>35121</v>
       </c>
       <c r="G114" t="n">
-        <v>19.34</v>
+        <v>19.20999999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4672,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C115" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D115" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E115" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F115" t="n">
-        <v>52720.4138</v>
+        <v>6177</v>
       </c>
       <c r="G115" t="n">
-        <v>19.38</v>
+        <v>19.22333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4707,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="C116" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="D116" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="E116" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="F116" t="n">
-        <v>7328.5714</v>
+        <v>52720.4138</v>
       </c>
       <c r="G116" t="n">
-        <v>19.48</v>
+        <v>19.23166666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4742,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C117" t="n">
         <v>19.7</v>
       </c>
-      <c r="C117" t="n">
-        <v>19.8</v>
-      </c>
       <c r="D117" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="E117" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F117" t="n">
-        <v>73000</v>
+        <v>7328.5714</v>
       </c>
       <c r="G117" t="n">
-        <v>19.56</v>
+        <v>19.24833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4777,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="C118" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="D118" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="E118" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="F118" t="n">
-        <v>7178.1909</v>
+        <v>73000</v>
       </c>
       <c r="G118" t="n">
-        <v>19.66</v>
+        <v>19.26666666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4812,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="C119" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="D119" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="E119" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="F119" t="n">
-        <v>1851.1</v>
+        <v>7178.1909</v>
       </c>
       <c r="G119" t="n">
-        <v>19.76</v>
+        <v>19.28166666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4859,10 @@
         <v>20</v>
       </c>
       <c r="F120" t="n">
-        <v>33907.8674</v>
+        <v>1851.1</v>
       </c>
       <c r="G120" t="n">
-        <v>19.88</v>
+        <v>19.29666666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,28 +4882,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="C121" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="D121" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="E121" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="F121" t="n">
-        <v>71932.19620000001</v>
+        <v>33907.8674</v>
       </c>
       <c r="G121" t="n">
-        <v>19.92</v>
+        <v>19.31166666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4633,28 +4917,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C122" t="n">
         <v>19.9</v>
       </c>
-      <c r="C122" t="n">
-        <v>19.8</v>
-      </c>
       <c r="D122" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="E122" t="n">
         <v>19.8</v>
       </c>
       <c r="F122" t="n">
-        <v>146134.4284</v>
+        <v>71932.19620000001</v>
       </c>
       <c r="G122" t="n">
-        <v>19.92</v>
+        <v>19.325</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4668,28 +4952,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="C123" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="D123" t="n">
         <v>20</v>
       </c>
       <c r="E123" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>146134.4284</v>
       </c>
       <c r="G123" t="n">
-        <v>19.94</v>
+        <v>19.34166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4703,22 +4987,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="C124" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="E124" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="F124" t="n">
-        <v>25800</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>19.88</v>
+        <v>19.36166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4741,19 +5025,19 @@
         <v>19.8</v>
       </c>
       <c r="C125" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="D125" t="n">
         <v>19.8</v>
       </c>
       <c r="E125" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="F125" t="n">
-        <v>870.5657</v>
+        <v>25800</v>
       </c>
       <c r="G125" t="n">
-        <v>19.84</v>
+        <v>19.37833333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,28 +5057,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="C126" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="D126" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="E126" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="F126" t="n">
-        <v>41414.1903</v>
+        <v>870.5657</v>
       </c>
       <c r="G126" t="n">
-        <v>19.8</v>
+        <v>19.39333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4808,22 +5092,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="C127" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="D127" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="E127" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>41414.1903</v>
       </c>
       <c r="G127" t="n">
-        <v>19.82000000000001</v>
+        <v>19.405</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +5127,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="C128" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="D128" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="E128" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="F128" t="n">
-        <v>398.4721</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>19.74000000000001</v>
+        <v>19.42</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +5174,10 @@
         <v>19.6</v>
       </c>
       <c r="F129" t="n">
-        <v>9601.5278</v>
+        <v>398.4721</v>
       </c>
       <c r="G129" t="n">
-        <v>19.72000000000001</v>
+        <v>19.43</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +5209,10 @@
         <v>19.6</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0001</v>
+        <v>9601.5278</v>
       </c>
       <c r="G130" t="n">
-        <v>19.68000000000001</v>
+        <v>19.43666666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +5232,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C131" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D131" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E131" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F131" t="n">
-        <v>472.0937</v>
+        <v>0.0001</v>
       </c>
       <c r="G131" t="n">
-        <v>19.64000000000001</v>
+        <v>19.44166666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5267,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C132" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D132" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E132" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F132" t="n">
-        <v>572.0937</v>
+        <v>472.0937</v>
       </c>
       <c r="G132" t="n">
-        <v>19.58000000000001</v>
+        <v>19.44833333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,7 +5302,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="C133" t="n">
         <v>19.6</v>
@@ -5027,13 +5311,13 @@
         <v>19.6</v>
       </c>
       <c r="E133" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="F133" t="n">
-        <v>9153.469300000001</v>
+        <v>572.0937</v>
       </c>
       <c r="G133" t="n">
-        <v>19.58000000000001</v>
+        <v>19.45666666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5337,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="C134" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="D134" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="E134" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="F134" t="n">
-        <v>2414.3789</v>
+        <v>9153.469300000001</v>
       </c>
       <c r="G134" t="n">
-        <v>19.54000000000001</v>
+        <v>19.46166666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5372,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="C135" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="D135" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="E135" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="F135" t="n">
-        <v>461.5879</v>
+        <v>2414.3789</v>
       </c>
       <c r="G135" t="n">
-        <v>19.44000000000001</v>
+        <v>19.46666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5407,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C136" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D136" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E136" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F136" t="n">
-        <v>4066</v>
+        <v>461.5879</v>
       </c>
       <c r="G136" t="n">
-        <v>19.38000000000001</v>
+        <v>19.46333333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5442,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C137" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D137" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E137" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F137" t="n">
-        <v>2375.4504</v>
+        <v>4066</v>
       </c>
       <c r="G137" t="n">
-        <v>19.28000000000001</v>
+        <v>19.46</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5477,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C138" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D138" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E138" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>2375.4504</v>
       </c>
       <c r="G138" t="n">
-        <v>19.20000000000001</v>
+        <v>19.45666666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5512,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="C139" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D139" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E139" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="F139" t="n">
-        <v>398.7911</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>19.12000000000001</v>
+        <v>19.455</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5547,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C140" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D140" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E140" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F140" t="n">
-        <v>3013.8399</v>
+        <v>398.7911</v>
       </c>
       <c r="G140" t="n">
-        <v>19.16000000000001</v>
+        <v>19.45</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5582,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C141" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D141" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="E141" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F141" t="n">
-        <v>1000</v>
+        <v>3013.8399</v>
       </c>
       <c r="G141" t="n">
-        <v>19.12000000000001</v>
+        <v>19.45</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5617,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C142" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D142" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E142" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G142" t="n">
-        <v>19.16000000000001</v>
+        <v>19.445</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5652,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="C143" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D143" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="E143" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="F143" t="n">
-        <v>2269.5304</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>19.12000000000001</v>
+        <v>19.44166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5406,19 +5690,19 @@
         <v>19</v>
       </c>
       <c r="C144" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D144" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E144" t="n">
         <v>19</v>
       </c>
       <c r="F144" t="n">
-        <v>3491.6555</v>
+        <v>2269.5304</v>
       </c>
       <c r="G144" t="n">
-        <v>19.18000000000001</v>
+        <v>19.43333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5722,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="C145" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="D145" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="E145" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F145" t="n">
-        <v>1337.6697</v>
+        <v>3491.6555</v>
       </c>
       <c r="G145" t="n">
-        <v>19.10000000000001</v>
+        <v>19.43</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5757,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C146" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="D146" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E146" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>1337.6697</v>
       </c>
       <c r="G146" t="n">
-        <v>19.16000000000001</v>
+        <v>19.42</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5792,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="C147" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="D147" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="E147" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="F147" t="n">
-        <v>50482.6954</v>
+        <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>19.06000000000001</v>
+        <v>19.41666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5827,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="C148" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="D148" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="E148" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>50482.6954</v>
       </c>
       <c r="G148" t="n">
-        <v>19.08000000000001</v>
+        <v>19.405</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5862,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="C149" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="D149" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="E149" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="F149" t="n">
-        <v>1704.06</v>
+        <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>18.98000000000001</v>
+        <v>19.395</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,10 +5897,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C150" t="n">
         <v>18.8</v>
-      </c>
-      <c r="C150" t="n">
-        <v>18.9</v>
       </c>
       <c r="D150" t="n">
         <v>18.9</v>
@@ -5625,10 +5909,10 @@
         <v>18.8</v>
       </c>
       <c r="F150" t="n">
-        <v>202158.5762</v>
+        <v>1704.06</v>
       </c>
       <c r="G150" t="n">
-        <v>18.98000000000001</v>
+        <v>19.38166666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5651,19 +5935,19 @@
         <v>18.8</v>
       </c>
       <c r="C151" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="D151" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E151" t="n">
         <v>18.8</v>
       </c>
-      <c r="E151" t="n">
-        <v>18.7</v>
-      </c>
       <c r="F151" t="n">
-        <v>18249.1468</v>
+        <v>202158.5762</v>
       </c>
       <c r="G151" t="n">
-        <v>18.86000000000001</v>
+        <v>19.37</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5686,19 +5970,19 @@
         <v>18.8</v>
       </c>
       <c r="C152" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="D152" t="n">
         <v>18.8</v>
       </c>
       <c r="E152" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>18249.1468</v>
       </c>
       <c r="G152" t="n">
-        <v>18.86000000000001</v>
+        <v>19.35333333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,19 +6005,19 @@
         <v>18.8</v>
       </c>
       <c r="C153" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="D153" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="E153" t="n">
         <v>18.8</v>
       </c>
       <c r="F153" t="n">
-        <v>801</v>
+        <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>18.82000000000001</v>
+        <v>19.34333333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,7 +6037,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="C154" t="n">
         <v>18.9</v>
@@ -5762,13 +6046,13 @@
         <v>18.9</v>
       </c>
       <c r="E154" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="F154" t="n">
-        <v>8739.2063</v>
+        <v>801</v>
       </c>
       <c r="G154" t="n">
-        <v>18.84000000000001</v>
+        <v>19.335</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +6072,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="C155" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="D155" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="E155" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="F155" t="n">
-        <v>422.1784</v>
+        <v>8739.2063</v>
       </c>
       <c r="G155" t="n">
-        <v>18.82000000000001</v>
+        <v>19.32666666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +6107,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="C156" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="D156" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="E156" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="F156" t="n">
-        <v>3522.8859</v>
+        <v>422.1784</v>
       </c>
       <c r="G156" t="n">
-        <v>18.82000000000001</v>
+        <v>19.31666666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +6154,10 @@
         <v>18.7</v>
       </c>
       <c r="F157" t="n">
-        <v>3172</v>
+        <v>3522.8859</v>
       </c>
       <c r="G157" t="n">
-        <v>18.80000000000001</v>
+        <v>19.305</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +6189,10 @@
         <v>18.7</v>
       </c>
       <c r="F158" t="n">
-        <v>7253.7046</v>
+        <v>3172</v>
       </c>
       <c r="G158" t="n">
-        <v>18.76000000000001</v>
+        <v>19.295</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +6224,10 @@
         <v>18.7</v>
       </c>
       <c r="F159" t="n">
-        <v>2701.3978</v>
+        <v>7253.7046</v>
       </c>
       <c r="G159" t="n">
-        <v>18.72000000000002</v>
+        <v>19.28333333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,38 +6247,32 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="C160" t="n">
         <v>18.7</v>
       </c>
       <c r="D160" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="E160" t="n">
         <v>18.7</v>
       </c>
       <c r="F160" t="n">
-        <v>15468.1419</v>
+        <v>2701.3978</v>
       </c>
       <c r="G160" t="n">
-        <v>18.70000000000002</v>
+        <v>19.27333333333333</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6004,38 +6282,32 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="C161" t="n">
         <v>18.7</v>
       </c>
       <c r="D161" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="E161" t="n">
         <v>18.7</v>
       </c>
       <c r="F161" t="n">
-        <v>2354.1818</v>
+        <v>15468.1419</v>
       </c>
       <c r="G161" t="n">
-        <v>18.70000000000002</v>
+        <v>19.26166666666666</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6048,35 +6320,29 @@
         <v>18.7</v>
       </c>
       <c r="C162" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="D162" t="n">
         <v>18.7</v>
       </c>
       <c r="E162" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="F162" t="n">
-        <v>41600</v>
+        <v>2354.1818</v>
       </c>
       <c r="G162" t="n">
-        <v>18.68000000000001</v>
+        <v>19.25333333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6086,22 +6352,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="C163" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="D163" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="E163" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="F163" t="n">
-        <v>7160.2454</v>
+        <v>41600</v>
       </c>
       <c r="G163" t="n">
-        <v>18.64000000000001</v>
+        <v>19.24333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6111,11 +6377,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6125,22 +6387,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="C164" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="D164" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="E164" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="F164" t="n">
-        <v>10</v>
+        <v>7160.2454</v>
       </c>
       <c r="G164" t="n">
-        <v>18.64000000000001</v>
+        <v>19.23333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,12 +6412,43 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" t="n">
+        <v>19.22666666666667</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest CMT.xlsx
+++ b/BackTest/2019-10-26 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>43328.2536</v>
       </c>
       <c r="G2" t="n">
+        <v>19.08666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>18.85500000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>9150</v>
       </c>
       <c r="G3" t="n">
+        <v>19.07999999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>18.85833333333335</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>131248.8218</v>
       </c>
       <c r="G4" t="n">
+        <v>19.06666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>18.86000000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>4015</v>
       </c>
       <c r="G5" t="n">
+        <v>19.05333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>18.87000000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
+        <v>19.05333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>18.88166666666668</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +661,21 @@
         <v>68393.2632</v>
       </c>
       <c r="G7" t="n">
+        <v>19.03333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>18.89166666666668</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +699,21 @@
         <v>3290.9308</v>
       </c>
       <c r="G8" t="n">
+        <v>19</v>
+      </c>
+      <c r="H8" t="n">
         <v>18.90333333333335</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +737,21 @@
         <v>8255.2577</v>
       </c>
       <c r="G9" t="n">
+        <v>18.97333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>18.91166666666668</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,22 +775,21 @@
         <v>2035.7068</v>
       </c>
       <c r="G10" t="n">
+        <v>18.95333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>18.92000000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19</v>
-      </c>
-      <c r="K10" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -767,26 +813,21 @@
         <v>3882</v>
       </c>
       <c r="G11" t="n">
+        <v>18.96666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>18.92833333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>19</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -810,24 +851,21 @@
         <v>520.8333333333334</v>
       </c>
       <c r="G12" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="H12" t="n">
         <v>18.93833333333335</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>19</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -851,18 +889,21 @@
         <v>16365</v>
       </c>
       <c r="G13" t="n">
+        <v>19.01333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>18.94666666666668</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -886,18 +927,21 @@
         <v>17902.99296666666</v>
       </c>
       <c r="G14" t="n">
+        <v>19.02666666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>18.95500000000002</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -921,18 +965,21 @@
         <v>21140.52283333333</v>
       </c>
       <c r="G15" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="H15" t="n">
         <v>18.96166666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,18 +1003,21 @@
         <v>4975</v>
       </c>
       <c r="G16" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="H16" t="n">
         <v>18.96666666666668</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -991,18 +1041,21 @@
         <v>3559</v>
       </c>
       <c r="G17" t="n">
+        <v>19.10666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>18.97666666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,18 +1079,21 @@
         <v>5232</v>
       </c>
       <c r="G18" t="n">
+        <v>19.12666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>18.98166666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,18 +1117,21 @@
         <v>21576.08376666667</v>
       </c>
       <c r="G19" t="n">
+        <v>19.15333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>18.99166666666668</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,18 +1155,21 @@
         <v>25401.7744</v>
       </c>
       <c r="G20" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="H20" t="n">
         <v>19.00166666666669</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1131,18 +1193,21 @@
         <v>134997.6838</v>
       </c>
       <c r="G21" t="n">
+        <v>19.19333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>19.01000000000002</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,18 +1231,21 @@
         <v>28669.768</v>
       </c>
       <c r="G22" t="n">
+        <v>19.21999999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>19.01833333333336</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,18 +1269,21 @@
         <v>28082.8458</v>
       </c>
       <c r="G23" t="n">
+        <v>19.26666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>19.03500000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,18 +1307,21 @@
         <v>4000</v>
       </c>
       <c r="G24" t="n">
+        <v>19.27999999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>19.04000000000002</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1271,18 +1345,21 @@
         <v>3035.641</v>
       </c>
       <c r="G25" t="n">
+        <v>19.28666666666665</v>
+      </c>
+      <c r="H25" t="n">
         <v>19.04500000000002</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,18 +1383,21 @@
         <v>12331</v>
       </c>
       <c r="G26" t="n">
+        <v>19.27999999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>19.04833333333335</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1341,18 +1421,21 @@
         <v>114891.587051269</v>
       </c>
       <c r="G27" t="n">
+        <v>19.27999999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>19.05166666666668</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,18 +1459,21 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
+        <v>19.29333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>19.06166666666669</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,18 +1497,21 @@
         <v>5786</v>
       </c>
       <c r="G29" t="n">
+        <v>19.29333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>19.06666666666668</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,18 +1535,21 @@
         <v>197.7948717948718</v>
       </c>
       <c r="G30" t="n">
+        <v>19.31333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>19.07833333333335</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,18 +1573,21 @@
         <v>117</v>
       </c>
       <c r="G31" t="n">
+        <v>19.31999999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>19.08833333333335</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,18 +1611,21 @@
         <v>291.5059</v>
       </c>
       <c r="G32" t="n">
+        <v>19.32666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>19.10000000000002</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,18 +1649,21 @@
         <v>131.6312</v>
       </c>
       <c r="G33" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>19.11000000000002</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1687,21 @@
         <v>540</v>
       </c>
       <c r="G34" t="n">
+        <v>19.32666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>19.12000000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1725,21 @@
         <v>918</v>
       </c>
       <c r="G35" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>19.13333333333335</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1763,21 @@
         <v>3824.1351</v>
       </c>
       <c r="G36" t="n">
+        <v>19.31333333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>19.14000000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1801,21 @@
         <v>2039</v>
       </c>
       <c r="G37" t="n">
+        <v>19.28666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>19.14500000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +1839,21 @@
         <v>58128.3053</v>
       </c>
       <c r="G38" t="n">
+        <v>19.24000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>19.15000000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +1877,21 @@
         <v>14598.3146</v>
       </c>
       <c r="G39" t="n">
+        <v>19.22666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>19.15500000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +1915,21 @@
         <v>834</v>
       </c>
       <c r="G40" t="n">
+        <v>19.22000000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>19.16000000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +1953,21 @@
         <v>11365.3623</v>
       </c>
       <c r="G41" t="n">
+        <v>19.22666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>19.16500000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +1991,21 @@
         <v>520.8333</v>
       </c>
       <c r="G42" t="n">
+        <v>19.23333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>19.17000000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2029,21 @@
         <v>10237</v>
       </c>
       <c r="G43" t="n">
+        <v>19.21333333333335</v>
+      </c>
+      <c r="H43" t="n">
         <v>19.17166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2067,21 @@
         <v>181063.9994833333</v>
       </c>
       <c r="G44" t="n">
+        <v>19.20000000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>19.17000000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2105,21 @@
         <v>36558.0574</v>
       </c>
       <c r="G45" t="n">
+        <v>19.16666666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>19.16833333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2143,21 @@
         <v>219561.6842</v>
       </c>
       <c r="G46" t="n">
+        <v>19.14666666666668</v>
+      </c>
+      <c r="H46" t="n">
         <v>19.16500000000001</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2181,21 @@
         <v>11213</v>
       </c>
       <c r="G47" t="n">
+        <v>19.12000000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>19.16000000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2219,21 @@
         <v>1992</v>
       </c>
       <c r="G48" t="n">
+        <v>19.09333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>19.15833333333335</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,22 +2257,21 @@
         <v>5263.157894736843</v>
       </c>
       <c r="G49" t="n">
+        <v>19.07333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>19.15500000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K49" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2150,26 +2295,21 @@
         <v>78.5988</v>
       </c>
       <c r="G50" t="n">
+        <v>19.03333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>19.15000000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>19</v>
-      </c>
-      <c r="K50" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2193,24 +2333,21 @@
         <v>2000</v>
       </c>
       <c r="G51" t="n">
+        <v>19.00666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>19.14166666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2234,26 +2371,25 @@
         <v>30</v>
       </c>
       <c r="G52" t="n">
+        <v>19</v>
+      </c>
+      <c r="H52" t="n">
         <v>19.13500000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L52" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2277,26 +2413,29 @@
         <v>1942.1658</v>
       </c>
       <c r="G53" t="n">
+        <v>18.98666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>19.12333333333335</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>18.9</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2320,24 +2459,29 @@
         <v>62</v>
       </c>
       <c r="G54" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="H54" t="n">
         <v>19.11500000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2361,26 +2505,29 @@
         <v>14015</v>
       </c>
       <c r="G55" t="n">
+        <v>18.95333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>19.10333333333335</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>18.9</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2404,24 +2551,29 @@
         <v>142539.7363</v>
       </c>
       <c r="G56" t="n">
+        <v>18.93333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>19.10166666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="L56" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2445,26 +2597,29 @@
         <v>908.0145</v>
       </c>
       <c r="G57" t="n">
+        <v>18.89333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>19.09666666666668</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>18.9</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,24 +2643,29 @@
         <v>26943.5929</v>
       </c>
       <c r="G58" t="n">
+        <v>18.86666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>19.09666666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="L58" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,24 +2689,29 @@
         <v>118835.3467052632</v>
       </c>
       <c r="G59" t="n">
+        <v>18.86666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>19.09666666666668</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="L59" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2570,24 +2735,29 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
+        <v>18.87333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>19.10333333333335</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
+        <v>19</v>
+      </c>
+      <c r="L60" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2611,24 +2781,27 @@
         <v>102</v>
       </c>
       <c r="G61" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="H61" t="n">
         <v>19.10666666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,24 +2825,27 @@
         <v>788</v>
       </c>
       <c r="G62" t="n">
+        <v>18.89333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>19.11166666666668</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2693,24 +2869,27 @@
         <v>8472.057699999999</v>
       </c>
       <c r="G63" t="n">
+        <v>18.88666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>19.11000000000001</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,24 +2913,27 @@
         <v>1025.1726</v>
       </c>
       <c r="G64" t="n">
+        <v>18.87333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>19.10666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2775,24 +2957,27 @@
         <v>3844.7058</v>
       </c>
       <c r="G65" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="H65" t="n">
         <v>19.10166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,24 +3001,27 @@
         <v>1875.753</v>
       </c>
       <c r="G66" t="n">
+        <v>18.87333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>19.09666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2857,24 +3045,27 @@
         <v>5623.3371</v>
       </c>
       <c r="G67" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="H67" t="n">
         <v>19.09666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,24 +3089,27 @@
         <v>3784</v>
       </c>
       <c r="G68" t="n">
+        <v>18.89333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>19.09666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2939,24 +3133,27 @@
         <v>12796.8723</v>
       </c>
       <c r="G69" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H69" t="n">
         <v>19.09666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2980,24 +3177,27 @@
         <v>14300</v>
       </c>
       <c r="G70" t="n">
+        <v>18.93333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>19.09833333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,24 +3221,27 @@
         <v>15</v>
       </c>
       <c r="G71" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="H71" t="n">
         <v>19.10000000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3062,24 +3265,27 @@
         <v>11753.0335</v>
       </c>
       <c r="G72" t="n">
+        <v>18.98666666666668</v>
+      </c>
+      <c r="H72" t="n">
         <v>19.09833333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3103,24 +3309,27 @@
         <v>11753.0336</v>
       </c>
       <c r="G73" t="n">
+        <v>19.01333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>19.09666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,24 +3353,27 @@
         <v>593</v>
       </c>
       <c r="G74" t="n">
+        <v>19.03333333333335</v>
+      </c>
+      <c r="H74" t="n">
         <v>19.09833333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3185,24 +3397,27 @@
         <v>27000</v>
       </c>
       <c r="G75" t="n">
+        <v>19.03333333333335</v>
+      </c>
+      <c r="H75" t="n">
         <v>19.09666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,24 +3441,27 @@
         <v>16000</v>
       </c>
       <c r="G76" t="n">
+        <v>19.04666666666668</v>
+      </c>
+      <c r="H76" t="n">
         <v>19.09833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3267,24 +3485,27 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
+        <v>19.06666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>19.10166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,24 +3529,27 @@
         <v>11200</v>
       </c>
       <c r="G78" t="n">
+        <v>19.10000000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>19.10333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3349,24 +3573,27 @@
         <v>887.7976</v>
       </c>
       <c r="G79" t="n">
+        <v>19.13333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>19.10166666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3390,24 +3617,27 @@
         <v>51000</v>
       </c>
       <c r="G80" t="n">
+        <v>19.17333333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>19.09999999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3431,24 +3661,27 @@
         <v>20200</v>
       </c>
       <c r="G81" t="n">
+        <v>19.20000000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>19.09833333333332</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3472,24 +3705,27 @@
         <v>21513.1869</v>
       </c>
       <c r="G82" t="n">
+        <v>19.22000000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>19.09666666666665</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,24 +3749,27 @@
         <v>24994.0155</v>
       </c>
       <c r="G83" t="n">
+        <v>19.25333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>19.09333333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,24 +3793,27 @@
         <v>2000</v>
       </c>
       <c r="G84" t="n">
+        <v>19.28666666666668</v>
+      </c>
+      <c r="H84" t="n">
         <v>19.09833333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3595,24 +3837,27 @@
         <v>2000</v>
       </c>
       <c r="G85" t="n">
+        <v>19.30666666666668</v>
+      </c>
+      <c r="H85" t="n">
         <v>19.10333333333332</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,24 +3881,27 @@
         <v>64326.9999</v>
       </c>
       <c r="G86" t="n">
+        <v>19.32000000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>19.10999999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3677,24 +3925,27 @@
         <v>33372.7686</v>
       </c>
       <c r="G87" t="n">
+        <v>19.34666666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>19.11499999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,24 +3969,27 @@
         <v>115</v>
       </c>
       <c r="G88" t="n">
+        <v>19.37333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>19.11666666666665</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3759,24 +4013,27 @@
         <v>110637.7619</v>
       </c>
       <c r="G89" t="n">
+        <v>19.40000000000001</v>
+      </c>
+      <c r="H89" t="n">
         <v>19.12499999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,24 +4057,27 @@
         <v>15331.2195</v>
       </c>
       <c r="G90" t="n">
+        <v>19.43333333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>19.12666666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3841,25 +4101,28 @@
         <v>1585.6172</v>
       </c>
       <c r="G91" t="n">
+        <v>19.45333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>19.13166666666665</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1.032037037037037</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3882,18 +4145,27 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
+        <v>19.47333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>19.13833333333332</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3917,18 +4189,27 @@
         <v>7000</v>
       </c>
       <c r="G93" t="n">
+        <v>19.48000000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>19.13999999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,18 +4233,27 @@
         <v>472.5389</v>
       </c>
       <c r="G94" t="n">
+        <v>19.48666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>19.14166666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3987,18 +4277,27 @@
         <v>16783.9397</v>
       </c>
       <c r="G95" t="n">
+        <v>19.49333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>19.13999999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,18 +4321,27 @@
         <v>30.5987</v>
       </c>
       <c r="G96" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H96" t="n">
         <v>19.14499999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4057,18 +4365,27 @@
         <v>26000</v>
       </c>
       <c r="G97" t="n">
+        <v>19.50666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>19.15166666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4092,18 +4409,27 @@
         <v>13924.8549</v>
       </c>
       <c r="G98" t="n">
+        <v>19.49333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>19.15666666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4127,18 +4453,27 @@
         <v>13931.7569</v>
       </c>
       <c r="G99" t="n">
+        <v>19.48666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>19.16333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,18 +4497,27 @@
         <v>402.5278</v>
       </c>
       <c r="G100" t="n">
+        <v>19.47333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>19.16666666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4197,18 +4541,27 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
+        <v>19.46666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>19.17</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,18 +4585,27 @@
         <v>25639.1388</v>
       </c>
       <c r="G102" t="n">
+        <v>19.44666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>19.16833333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4267,18 +4629,27 @@
         <v>16800</v>
       </c>
       <c r="G103" t="n">
+        <v>19.42666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>19.17</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4302,18 +4673,27 @@
         <v>20240.7198</v>
       </c>
       <c r="G104" t="n">
+        <v>19.38666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>19.17166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,18 +4717,27 @@
         <v>909.2365</v>
       </c>
       <c r="G105" t="n">
+        <v>19.35333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>19.17333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,18 +4761,27 @@
         <v>486.2063</v>
       </c>
       <c r="G106" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="H106" t="n">
         <v>19.175</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4407,18 +4805,27 @@
         <v>167619.2631</v>
       </c>
       <c r="G107" t="n">
+        <v>19.27333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>19.17666666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,18 +4849,27 @@
         <v>1630.5</v>
       </c>
       <c r="G108" t="n">
+        <v>19.24666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>19.17833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,18 +4893,27 @@
         <v>33727.6717</v>
       </c>
       <c r="G109" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="H109" t="n">
         <v>19.17833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4512,18 +4937,27 @@
         <v>32.4201</v>
       </c>
       <c r="G110" t="n">
+        <v>19.18666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>19.17833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4547,18 +4981,27 @@
         <v>25200</v>
       </c>
       <c r="G111" t="n">
+        <v>19.17333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>19.18666666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,18 +5025,27 @@
         <v>15105</v>
       </c>
       <c r="G112" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="H112" t="n">
         <v>19.19166666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4617,18 +5069,27 @@
         <v>26000</v>
       </c>
       <c r="G113" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>19.20166666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,18 +5113,27 @@
         <v>35121</v>
       </c>
       <c r="G114" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>19.20999999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4687,18 +5157,27 @@
         <v>6177</v>
       </c>
       <c r="G115" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="H115" t="n">
         <v>19.22333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4722,18 +5201,27 @@
         <v>52720.4138</v>
       </c>
       <c r="G116" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="H116" t="n">
         <v>19.23166666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,18 +5245,27 @@
         <v>7328.5714</v>
       </c>
       <c r="G117" t="n">
+        <v>19.21333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>19.24833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4792,18 +5289,27 @@
         <v>73000</v>
       </c>
       <c r="G118" t="n">
+        <v>19.25333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>19.26666666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4827,18 +5333,27 @@
         <v>7178.1909</v>
       </c>
       <c r="G119" t="n">
+        <v>19.30666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>19.28166666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,18 +5377,27 @@
         <v>1851.1</v>
       </c>
       <c r="G120" t="n">
+        <v>19.36666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>19.29666666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4897,18 +5421,27 @@
         <v>33907.8674</v>
       </c>
       <c r="G121" t="n">
+        <v>19.42666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>19.31166666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,19 +5465,28 @@
         <v>71932.19620000001</v>
       </c>
       <c r="G122" t="n">
+        <v>19.48666666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>19.325</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
+      <c r="L122" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1.059171122994653</v>
       </c>
     </row>
     <row r="123">
@@ -4967,18 +5509,21 @@
         <v>146134.4284</v>
       </c>
       <c r="G123" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="H123" t="n">
         <v>19.34166666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5002,18 +5547,21 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
+        <v>19.60666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>19.36166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5037,18 +5585,21 @@
         <v>25800</v>
       </c>
       <c r="G125" t="n">
+        <v>19.65999999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>19.37833333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,18 +5623,21 @@
         <v>870.5657</v>
       </c>
       <c r="G126" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="H126" t="n">
         <v>19.39333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5107,18 +5661,21 @@
         <v>41414.1903</v>
       </c>
       <c r="G127" t="n">
+        <v>19.73333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>19.405</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,18 +5699,21 @@
         <v>10</v>
       </c>
       <c r="G128" t="n">
+        <v>19.76666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>19.42</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5177,18 +5737,21 @@
         <v>398.4721</v>
       </c>
       <c r="G129" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="H129" t="n">
         <v>19.43</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5212,18 +5775,21 @@
         <v>9601.5278</v>
       </c>
       <c r="G130" t="n">
+        <v>19.78666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>19.43666666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5247,18 +5813,21 @@
         <v>0.0001</v>
       </c>
       <c r="G131" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="H131" t="n">
         <v>19.44166666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,18 +5851,21 @@
         <v>472.0937</v>
       </c>
       <c r="G132" t="n">
+        <v>19.78666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>19.44833333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5317,18 +5889,21 @@
         <v>572.0937</v>
       </c>
       <c r="G133" t="n">
+        <v>19.77333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>19.45666666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5352,18 +5927,21 @@
         <v>9153.469300000001</v>
       </c>
       <c r="G134" t="n">
+        <v>19.75333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>19.46166666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5387,18 +5965,21 @@
         <v>2414.3789</v>
       </c>
       <c r="G135" t="n">
+        <v>19.71333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>19.46666666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5422,18 +6003,21 @@
         <v>461.5879</v>
       </c>
       <c r="G136" t="n">
+        <v>19.65333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>19.46333333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5457,18 +6041,21 @@
         <v>4066</v>
       </c>
       <c r="G137" t="n">
+        <v>19.60666666666668</v>
+      </c>
+      <c r="H137" t="n">
         <v>19.46</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,18 +6079,21 @@
         <v>2375.4504</v>
       </c>
       <c r="G138" t="n">
+        <v>19.56000000000001</v>
+      </c>
+      <c r="H138" t="n">
         <v>19.45666666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5527,18 +6117,21 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
+        <v>19.50666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>19.455</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5562,18 +6155,21 @@
         <v>398.7911</v>
       </c>
       <c r="G140" t="n">
+        <v>19.46000000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>19.45</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5597,18 +6193,21 @@
         <v>3013.8399</v>
       </c>
       <c r="G141" t="n">
+        <v>19.42666666666668</v>
+      </c>
+      <c r="H141" t="n">
         <v>19.45</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5632,18 +6231,21 @@
         <v>1000</v>
       </c>
       <c r="G142" t="n">
+        <v>19.38000000000001</v>
+      </c>
+      <c r="H142" t="n">
         <v>19.445</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5667,18 +6269,21 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
+        <v>19.34000000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>19.44166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5702,18 +6307,21 @@
         <v>2269.5304</v>
       </c>
       <c r="G144" t="n">
+        <v>19.30000000000001</v>
+      </c>
+      <c r="H144" t="n">
         <v>19.43333333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5737,18 +6345,21 @@
         <v>3491.6555</v>
       </c>
       <c r="G145" t="n">
+        <v>19.28000000000001</v>
+      </c>
+      <c r="H145" t="n">
         <v>19.43</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5772,18 +6383,21 @@
         <v>1337.6697</v>
       </c>
       <c r="G146" t="n">
+        <v>19.23333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>19.42</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5807,18 +6421,21 @@
         <v>10</v>
       </c>
       <c r="G147" t="n">
+        <v>19.22000000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>19.41666666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5842,18 +6459,21 @@
         <v>50482.6954</v>
       </c>
       <c r="G148" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>19.405</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5877,18 +6497,21 @@
         <v>10</v>
       </c>
       <c r="G149" t="n">
+        <v>19.13333333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>19.395</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5912,18 +6535,21 @@
         <v>1704.06</v>
       </c>
       <c r="G150" t="n">
+        <v>19.09333333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>19.38166666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5947,18 +6573,21 @@
         <v>202158.5762</v>
       </c>
       <c r="G151" t="n">
+        <v>19.08000000000001</v>
+      </c>
+      <c r="H151" t="n">
         <v>19.37</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5982,18 +6611,21 @@
         <v>18249.1468</v>
       </c>
       <c r="G152" t="n">
+        <v>19.04666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>19.35333333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6017,18 +6649,21 @@
         <v>10</v>
       </c>
       <c r="G153" t="n">
+        <v>19.02666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>19.34333333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6052,18 +6687,21 @@
         <v>801</v>
       </c>
       <c r="G154" t="n">
+        <v>19.00666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>19.335</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6087,18 +6725,21 @@
         <v>8739.2063</v>
       </c>
       <c r="G155" t="n">
+        <v>19</v>
+      </c>
+      <c r="H155" t="n">
         <v>19.32666666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6122,18 +6763,21 @@
         <v>422.1784</v>
       </c>
       <c r="G156" t="n">
+        <v>18.96666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>19.31666666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6157,18 +6801,21 @@
         <v>3522.8859</v>
       </c>
       <c r="G157" t="n">
+        <v>18.94666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>19.305</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6192,18 +6839,21 @@
         <v>3172</v>
       </c>
       <c r="G158" t="n">
+        <v>18.90666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>19.295</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6227,18 +6877,21 @@
         <v>7253.7046</v>
       </c>
       <c r="G159" t="n">
+        <v>18.88666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>19.28333333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,18 +6915,21 @@
         <v>2701.3978</v>
       </c>
       <c r="G160" t="n">
+        <v>18.84666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>19.27333333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6297,18 +6953,21 @@
         <v>15468.1419</v>
       </c>
       <c r="G161" t="n">
+        <v>18.83333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>19.26166666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6332,18 +6991,21 @@
         <v>2354.1818</v>
       </c>
       <c r="G162" t="n">
+        <v>18.79333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>19.25333333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6367,18 +7029,21 @@
         <v>41600</v>
       </c>
       <c r="G163" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="H163" t="n">
         <v>19.24333333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6402,18 +7067,21 @@
         <v>7160.2454</v>
       </c>
       <c r="G164" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="H164" t="n">
         <v>19.23333333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6437,18 +7105,401 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
+        <v>18.73333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>19.22666666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1846.4722</v>
+      </c>
+      <c r="G166" t="n">
+        <v>18.70666666666666</v>
+      </c>
+      <c r="H166" t="n">
+        <v>19.21666666666667</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10</v>
+      </c>
+      <c r="G167" t="n">
+        <v>18.70666666666666</v>
+      </c>
+      <c r="H167" t="n">
+        <v>19.21166666666667</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>5884.826</v>
+      </c>
+      <c r="G168" t="n">
+        <v>18.68666666666666</v>
+      </c>
+      <c r="H168" t="n">
+        <v>19.20333333333333</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D169" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>9316.303099999999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>18.65333333333333</v>
+      </c>
+      <c r="H169" t="n">
+        <v>19.19333333333334</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10</v>
+      </c>
+      <c r="G170" t="n">
+        <v>18.63333333333333</v>
+      </c>
+      <c r="H170" t="n">
+        <v>19.18833333333333</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D171" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>48338.3259</v>
+      </c>
+      <c r="G171" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H171" t="n">
+        <v>19.17333333333333</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E172" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>26144.2621</v>
+      </c>
+      <c r="G172" t="n">
+        <v>18.56666666666667</v>
+      </c>
+      <c r="H172" t="n">
+        <v>19.15666666666666</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1728.7692</v>
+      </c>
+      <c r="G173" t="n">
+        <v>18.53333333333333</v>
+      </c>
+      <c r="H173" t="n">
+        <v>19.13666666666666</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>24737.5376</v>
+      </c>
+      <c r="G174" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="H174" t="n">
+        <v>19.12166666666666</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C175" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3683.7667</v>
+      </c>
+      <c r="G175" t="n">
+        <v>18.50666666666667</v>
+      </c>
+      <c r="H175" t="n">
+        <v>19.105</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest CMT.xlsx
+++ b/BackTest/2019-10-26 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="F2" t="n">
-        <v>43328.2536</v>
+        <v>28816</v>
       </c>
       <c r="G2" t="n">
-        <v>19.08666666666666</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H2" t="n">
-        <v>18.85500000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="D3" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="E3" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="F3" t="n">
-        <v>9150</v>
+        <v>1941.6791</v>
       </c>
       <c r="G3" t="n">
-        <v>19.07999999999999</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H3" t="n">
-        <v>18.85833333333335</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D4" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F4" t="n">
-        <v>131248.8218</v>
+        <v>952</v>
       </c>
       <c r="G4" t="n">
-        <v>19.06666666666666</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H4" t="n">
-        <v>18.86000000000001</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F5" t="n">
-        <v>4015</v>
+        <v>735</v>
       </c>
       <c r="G5" t="n">
-        <v>19.05333333333333</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H5" t="n">
-        <v>18.87000000000001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D6" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="E6" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>143.7525</v>
       </c>
       <c r="G6" t="n">
-        <v>19.05333333333333</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H6" t="n">
-        <v>18.88166666666668</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -646,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F7" t="n">
-        <v>68393.2632</v>
+        <v>27582.8607</v>
       </c>
       <c r="G7" t="n">
-        <v>19.03333333333333</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H7" t="n">
-        <v>18.89166666666668</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -684,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F8" t="n">
-        <v>3290.9308</v>
+        <v>9688.350399999999</v>
       </c>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H8" t="n">
-        <v>18.90333333333335</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F9" t="n">
-        <v>8255.2577</v>
+        <v>28728</v>
       </c>
       <c r="G9" t="n">
-        <v>18.97333333333333</v>
+        <v>-116108.5336</v>
       </c>
       <c r="H9" t="n">
-        <v>18.91166666666668</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="D10" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="E10" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="F10" t="n">
-        <v>2035.7068</v>
+        <v>6175.3023</v>
       </c>
       <c r="G10" t="n">
-        <v>18.95333333333333</v>
+        <v>-109933.2313</v>
       </c>
       <c r="H10" t="n">
-        <v>18.92000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>3882</v>
+        <v>2552.8502</v>
       </c>
       <c r="G11" t="n">
-        <v>18.96666666666667</v>
+        <v>-107380.3811</v>
       </c>
       <c r="H11" t="n">
-        <v>18.92833333333335</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -836,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>520.8333333333334</v>
+        <v>5813.6158</v>
       </c>
       <c r="G12" t="n">
-        <v>18.98</v>
+        <v>-107380.3811</v>
       </c>
       <c r="H12" t="n">
-        <v>18.93833333333335</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C13" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D13" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E13" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F13" t="n">
-        <v>16365</v>
+        <v>15693.4323</v>
       </c>
       <c r="G13" t="n">
-        <v>19.01333333333333</v>
+        <v>-91686.94880000003</v>
       </c>
       <c r="H13" t="n">
-        <v>18.94666666666668</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C14" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D14" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E14" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F14" t="n">
-        <v>17902.99296666666</v>
+        <v>171.806</v>
       </c>
       <c r="G14" t="n">
-        <v>19.02666666666666</v>
+        <v>-91686.94880000003</v>
       </c>
       <c r="H14" t="n">
-        <v>18.95500000000002</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -950,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C15" t="n">
         <v>19.2</v>
@@ -959,27 +897,24 @@
         <v>19.2</v>
       </c>
       <c r="E15" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F15" t="n">
-        <v>21140.52283333333</v>
+        <v>1879</v>
       </c>
       <c r="G15" t="n">
-        <v>19.06</v>
+        <v>-89807.94880000003</v>
       </c>
       <c r="H15" t="n">
-        <v>18.96166666666668</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C16" t="n">
         <v>19.2</v>
@@ -997,27 +932,24 @@
         <v>19.2</v>
       </c>
       <c r="E16" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F16" t="n">
-        <v>4975</v>
+        <v>2055.2222</v>
       </c>
       <c r="G16" t="n">
-        <v>19.08</v>
+        <v>-89807.94880000003</v>
       </c>
       <c r="H16" t="n">
-        <v>18.96666666666668</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>3559</v>
+        <v>12457.8306</v>
       </c>
       <c r="G17" t="n">
-        <v>19.10666666666667</v>
+        <v>-102265.7794</v>
       </c>
       <c r="H17" t="n">
-        <v>18.97666666666668</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1076,24 +1005,21 @@
         <v>19.2</v>
       </c>
       <c r="F18" t="n">
-        <v>5232</v>
+        <v>12665</v>
       </c>
       <c r="G18" t="n">
-        <v>19.12666666666667</v>
+        <v>-89600.77940000003</v>
       </c>
       <c r="H18" t="n">
-        <v>18.98166666666668</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1105,33 +1031,30 @@
         <v>19.2</v>
       </c>
       <c r="C19" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D19" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E19" t="n">
         <v>19.2</v>
       </c>
       <c r="F19" t="n">
-        <v>21576.08376666667</v>
+        <v>13000</v>
       </c>
       <c r="G19" t="n">
-        <v>19.15333333333333</v>
+        <v>-89600.77940000003</v>
       </c>
       <c r="H19" t="n">
-        <v>18.99166666666668</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1140,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="C20" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D20" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E20" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="F20" t="n">
-        <v>25401.7744</v>
+        <v>4166.6666</v>
       </c>
       <c r="G20" t="n">
-        <v>19.18</v>
+        <v>-89600.77940000003</v>
       </c>
       <c r="H20" t="n">
-        <v>19.00166666666669</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1178,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F21" t="n">
-        <v>134997.6838</v>
+        <v>12735.1393</v>
       </c>
       <c r="G21" t="n">
-        <v>19.19333333333333</v>
+        <v>-76865.64010000003</v>
       </c>
       <c r="H21" t="n">
-        <v>19.01000000000002</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1216,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C22" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D22" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E22" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F22" t="n">
-        <v>28669.768</v>
+        <v>1202.3589</v>
       </c>
       <c r="G22" t="n">
-        <v>19.21999999999999</v>
+        <v>-75663.28120000003</v>
       </c>
       <c r="H22" t="n">
-        <v>19.01833333333336</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1257,33 +1171,30 @@
         <v>19.4</v>
       </c>
       <c r="C23" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="D23" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="E23" t="n">
         <v>19.4</v>
       </c>
       <c r="F23" t="n">
-        <v>28082.8458</v>
+        <v>1432.0618</v>
       </c>
       <c r="G23" t="n">
-        <v>19.26666666666666</v>
+        <v>-77095.34300000002</v>
       </c>
       <c r="H23" t="n">
-        <v>19.03500000000002</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C24" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="D24" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="E24" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G24" t="n">
-        <v>19.27999999999999</v>
+        <v>-77095.34300000002</v>
       </c>
       <c r="H24" t="n">
-        <v>19.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>19.7</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F25" t="n">
-        <v>3035.641</v>
+        <v>8600</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28666666666665</v>
+        <v>-85695.34300000002</v>
       </c>
       <c r="H25" t="n">
-        <v>19.04500000000002</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1368,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
         <v>19.2</v>
       </c>
       <c r="E26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>12331</v>
+        <v>4534.4892</v>
       </c>
       <c r="G26" t="n">
-        <v>19.27999999999999</v>
+        <v>-85695.34300000002</v>
       </c>
       <c r="H26" t="n">
-        <v>19.04833333333335</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C27" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D27" t="n">
-        <v>19.7</v>
+        <v>19.1</v>
       </c>
       <c r="E27" t="n">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="F27" t="n">
-        <v>114891.587051269</v>
+        <v>251525.791</v>
       </c>
       <c r="G27" t="n">
-        <v>19.27999999999999</v>
+        <v>-337221.134</v>
       </c>
       <c r="H27" t="n">
-        <v>19.05166666666668</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="C28" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>41402.7894</v>
       </c>
       <c r="G28" t="n">
-        <v>19.29333333333333</v>
+        <v>-295818.3446</v>
       </c>
       <c r="H28" t="n">
-        <v>19.06166666666669</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="C29" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D29" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="E29" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F29" t="n">
-        <v>5786</v>
+        <v>44646.1694</v>
       </c>
       <c r="G29" t="n">
-        <v>19.29333333333333</v>
+        <v>-340464.514</v>
       </c>
       <c r="H29" t="n">
-        <v>19.06666666666668</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1520,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="C30" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="D30" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="E30" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="F30" t="n">
-        <v>197.7948717948718</v>
+        <v>398.2842</v>
       </c>
       <c r="G30" t="n">
-        <v>19.31333333333333</v>
+        <v>-340066.2298</v>
       </c>
       <c r="H30" t="n">
-        <v>19.07833333333335</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C31" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="D31" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="E31" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="F31" t="n">
-        <v>117</v>
+        <v>43328.2536</v>
       </c>
       <c r="G31" t="n">
-        <v>19.31999999999999</v>
+        <v>-383394.4834</v>
       </c>
       <c r="H31" t="n">
-        <v>19.08833333333335</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1596,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C32" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="D32" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E32" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="F32" t="n">
-        <v>291.5059</v>
+        <v>9150</v>
       </c>
       <c r="G32" t="n">
-        <v>19.32666666666666</v>
+        <v>-374244.4834</v>
       </c>
       <c r="H32" t="n">
-        <v>19.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1634,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="E33" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F33" t="n">
-        <v>131.6312</v>
+        <v>131248.8218</v>
       </c>
       <c r="G33" t="n">
-        <v>19.33333333333333</v>
+        <v>-242995.6616</v>
       </c>
       <c r="H33" t="n">
-        <v>19.11000000000002</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D34" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E34" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F34" t="n">
-        <v>540</v>
+        <v>4015</v>
       </c>
       <c r="G34" t="n">
-        <v>19.32666666666666</v>
+        <v>-242995.6616</v>
       </c>
       <c r="H34" t="n">
-        <v>19.12000000000002</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="C35" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="D35" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E35" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="F35" t="n">
-        <v>918</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>19.33333333333333</v>
+        <v>-242985.6616</v>
       </c>
       <c r="H35" t="n">
-        <v>19.13333333333335</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1748,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F36" t="n">
-        <v>3824.1351</v>
+        <v>68393.2632</v>
       </c>
       <c r="G36" t="n">
-        <v>19.31333333333334</v>
+        <v>-311378.9248</v>
       </c>
       <c r="H36" t="n">
-        <v>19.14000000000001</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C37" t="n">
         <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E37" t="n">
         <v>19</v>
       </c>
       <c r="F37" t="n">
-        <v>2039</v>
+        <v>3290.9308</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28666666666667</v>
+        <v>-311378.9248</v>
       </c>
       <c r="H37" t="n">
-        <v>19.14500000000001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C38" t="n">
         <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E38" t="n">
         <v>19</v>
       </c>
       <c r="F38" t="n">
-        <v>58128.3053</v>
+        <v>8255.2577</v>
       </c>
       <c r="G38" t="n">
-        <v>19.24000000000001</v>
+        <v>-311378.9248</v>
       </c>
       <c r="H38" t="n">
-        <v>19.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1865,33 +1731,30 @@
         <v>19.1</v>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D39" t="n">
         <v>19.1</v>
       </c>
       <c r="E39" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F39" t="n">
-        <v>14598.3146</v>
+        <v>2035.7068</v>
       </c>
       <c r="G39" t="n">
-        <v>19.22666666666667</v>
+        <v>-309343.2180000001</v>
       </c>
       <c r="H39" t="n">
-        <v>19.15500000000001</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,33 +1766,30 @@
         <v>19.1</v>
       </c>
       <c r="C40" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D40" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E40" t="n">
         <v>19.1</v>
       </c>
       <c r="F40" t="n">
-        <v>834</v>
+        <v>3882</v>
       </c>
       <c r="G40" t="n">
-        <v>19.22000000000001</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H40" t="n">
-        <v>19.16000000000001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C41" t="n">
         <v>19.2</v>
@@ -1947,27 +1807,24 @@
         <v>19.2</v>
       </c>
       <c r="E41" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F41" t="n">
-        <v>11365.3623</v>
+        <v>520.8333333333334</v>
       </c>
       <c r="G41" t="n">
-        <v>19.22666666666667</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H41" t="n">
-        <v>19.16500000000001</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C42" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D42" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E42" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F42" t="n">
-        <v>520.8333</v>
+        <v>16365</v>
       </c>
       <c r="G42" t="n">
-        <v>19.23333333333334</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H42" t="n">
-        <v>19.17000000000001</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C43" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D43" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E43" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F43" t="n">
-        <v>10237</v>
+        <v>17902.99296666666</v>
       </c>
       <c r="G43" t="n">
-        <v>19.21333333333335</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H43" t="n">
-        <v>19.17166666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D44" t="n">
         <v>19.2</v>
       </c>
       <c r="E44" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="F44" t="n">
-        <v>181063.9994833333</v>
+        <v>21140.52283333333</v>
       </c>
       <c r="G44" t="n">
-        <v>19.20000000000001</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H44" t="n">
-        <v>19.17000000000001</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2090,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E45" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="F45" t="n">
-        <v>36558.0574</v>
+        <v>4975</v>
       </c>
       <c r="G45" t="n">
-        <v>19.16666666666668</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H45" t="n">
-        <v>19.16833333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="C46" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E46" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="F46" t="n">
-        <v>219561.6842</v>
+        <v>3559</v>
       </c>
       <c r="G46" t="n">
-        <v>19.14666666666668</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H46" t="n">
-        <v>19.16500000000001</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="C47" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="D47" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="E47" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="F47" t="n">
-        <v>11213</v>
+        <v>5232</v>
       </c>
       <c r="G47" t="n">
-        <v>19.12000000000001</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H47" t="n">
-        <v>19.16000000000001</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="C48" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="D48" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="E48" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="F48" t="n">
-        <v>1992</v>
+        <v>21576.08376666667</v>
       </c>
       <c r="G48" t="n">
-        <v>19.09333333333334</v>
+        <v>-283885.1342333334</v>
       </c>
       <c r="H48" t="n">
-        <v>19.15833333333335</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2242,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="D49" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="E49" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="F49" t="n">
-        <v>5263.157894736843</v>
+        <v>25401.7744</v>
       </c>
       <c r="G49" t="n">
-        <v>19.07333333333334</v>
+        <v>-283885.1342333334</v>
       </c>
       <c r="H49" t="n">
-        <v>19.15500000000001</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="C50" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="D50" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="E50" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="F50" t="n">
-        <v>78.5988</v>
+        <v>134997.6838</v>
       </c>
       <c r="G50" t="n">
-        <v>19.03333333333334</v>
+        <v>-283885.1342333334</v>
       </c>
       <c r="H50" t="n">
-        <v>19.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2318,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="C51" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D51" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="E51" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>28669.768</v>
       </c>
       <c r="G51" t="n">
-        <v>19.00666666666667</v>
+        <v>-283885.1342333334</v>
       </c>
       <c r="H51" t="n">
-        <v>19.14166666666668</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,40 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="C52" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="D52" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="E52" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="F52" t="n">
-        <v>30</v>
+        <v>28082.8458</v>
       </c>
       <c r="G52" t="n">
-        <v>19</v>
+        <v>-255802.2884333334</v>
       </c>
       <c r="H52" t="n">
-        <v>19.13500000000001</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L52" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2398,44 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="C53" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="D53" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="E53" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="F53" t="n">
-        <v>1942.1658</v>
+        <v>4000</v>
       </c>
       <c r="G53" t="n">
-        <v>18.98666666666667</v>
+        <v>-259802.2884333334</v>
       </c>
       <c r="H53" t="n">
-        <v>19.12333333333335</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L53" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,44 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="C54" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="D54" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="E54" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="F54" t="n">
-        <v>62</v>
+        <v>3035.641</v>
       </c>
       <c r="G54" t="n">
-        <v>18.98</v>
+        <v>-259802.2884333334</v>
       </c>
       <c r="H54" t="n">
-        <v>19.11500000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="L54" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,44 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="C55" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="D55" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="E55" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F55" t="n">
-        <v>14015</v>
+        <v>12331</v>
       </c>
       <c r="G55" t="n">
-        <v>18.95333333333333</v>
+        <v>-272133.2884333334</v>
       </c>
       <c r="H55" t="n">
-        <v>19.10333333333335</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L55" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,44 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="C56" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="D56" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="E56" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F56" t="n">
-        <v>142539.7363</v>
+        <v>114891.587051269</v>
       </c>
       <c r="G56" t="n">
-        <v>18.93333333333333</v>
+        <v>-157241.7013820644</v>
       </c>
       <c r="H56" t="n">
-        <v>19.10166666666668</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L56" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,44 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="C57" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D57" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="E57" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F57" t="n">
-        <v>908.0145</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>18.89333333333333</v>
+        <v>-157231.7013820644</v>
       </c>
       <c r="H57" t="n">
-        <v>19.09666666666668</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L57" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2628,44 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="C58" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="D58" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="E58" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="F58" t="n">
-        <v>26943.5929</v>
+        <v>5786</v>
       </c>
       <c r="G58" t="n">
-        <v>18.86666666666666</v>
+        <v>-163017.7013820644</v>
       </c>
       <c r="H58" t="n">
-        <v>19.09666666666668</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L58" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2674,44 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="D59" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="E59" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="F59" t="n">
-        <v>118835.3467052632</v>
+        <v>197.7948717948718</v>
       </c>
       <c r="G59" t="n">
-        <v>18.86666666666666</v>
+        <v>-162819.9065102695</v>
       </c>
       <c r="H59" t="n">
-        <v>19.09666666666668</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L59" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2720,44 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C60" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D60" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E60" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
-        <v>18.87333333333333</v>
+        <v>-162936.9065102695</v>
       </c>
       <c r="H60" t="n">
-        <v>19.10333333333335</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>19</v>
-      </c>
-      <c r="L60" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2766,42 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C61" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D61" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E61" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F61" t="n">
-        <v>102</v>
+        <v>291.5059</v>
       </c>
       <c r="G61" t="n">
-        <v>18.88</v>
+        <v>-162936.9065102695</v>
       </c>
       <c r="H61" t="n">
-        <v>19.10666666666668</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,42 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C62" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D62" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E62" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F62" t="n">
-        <v>788</v>
+        <v>131.6312</v>
       </c>
       <c r="G62" t="n">
-        <v>18.89333333333333</v>
+        <v>-162936.9065102695</v>
       </c>
       <c r="H62" t="n">
-        <v>19.11166666666668</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2854,42 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="C63" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="D63" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="E63" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="F63" t="n">
-        <v>8472.057699999999</v>
+        <v>540</v>
       </c>
       <c r="G63" t="n">
-        <v>18.88666666666667</v>
+        <v>-162936.9065102695</v>
       </c>
       <c r="H63" t="n">
-        <v>19.11000000000001</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,42 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="C64" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="D64" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="E64" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="F64" t="n">
-        <v>1025.1726</v>
+        <v>918</v>
       </c>
       <c r="G64" t="n">
-        <v>18.87333333333333</v>
+        <v>-162018.9065102695</v>
       </c>
       <c r="H64" t="n">
-        <v>19.10666666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2942,42 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="C65" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="D65" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="E65" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F65" t="n">
-        <v>3844.7058</v>
+        <v>3824.1351</v>
       </c>
       <c r="G65" t="n">
-        <v>18.86</v>
+        <v>-165843.0416102695</v>
       </c>
       <c r="H65" t="n">
-        <v>19.10166666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,42 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="C66" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="E66" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F66" t="n">
-        <v>1875.753</v>
+        <v>2039</v>
       </c>
       <c r="G66" t="n">
-        <v>18.87333333333333</v>
+        <v>-167882.0416102695</v>
       </c>
       <c r="H66" t="n">
-        <v>19.09666666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3030,42 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C67" t="n">
         <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E67" t="n">
         <v>19</v>
       </c>
       <c r="F67" t="n">
-        <v>5623.3371</v>
+        <v>58128.3053</v>
       </c>
       <c r="G67" t="n">
-        <v>18.88</v>
+        <v>-167882.0416102695</v>
       </c>
       <c r="H67" t="n">
-        <v>19.09666666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,42 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C68" t="n">
         <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E68" t="n">
         <v>19</v>
       </c>
       <c r="F68" t="n">
-        <v>3784</v>
+        <v>14598.3146</v>
       </c>
       <c r="G68" t="n">
-        <v>18.89333333333333</v>
+        <v>-167882.0416102695</v>
       </c>
       <c r="H68" t="n">
-        <v>19.09666666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,42 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D69" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E69" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F69" t="n">
-        <v>12796.8723</v>
+        <v>834</v>
       </c>
       <c r="G69" t="n">
-        <v>18.9</v>
+        <v>-167048.0416102695</v>
       </c>
       <c r="H69" t="n">
-        <v>19.09666666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,30 +2825,21 @@
         <v>19.1</v>
       </c>
       <c r="F70" t="n">
-        <v>14300</v>
+        <v>11365.3623</v>
       </c>
       <c r="G70" t="n">
-        <v>18.93333333333334</v>
+        <v>-155682.6793102695</v>
       </c>
       <c r="H70" t="n">
-        <v>19.09833333333334</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3206,7 +2848,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C71" t="n">
         <v>19.3</v>
@@ -3215,33 +2857,24 @@
         <v>19.3</v>
       </c>
       <c r="E71" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F71" t="n">
-        <v>15</v>
+        <v>520.8333</v>
       </c>
       <c r="G71" t="n">
-        <v>18.96</v>
+        <v>-155161.8460102695</v>
       </c>
       <c r="H71" t="n">
-        <v>19.10000000000001</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3262,30 +2895,21 @@
         <v>19.1</v>
       </c>
       <c r="F72" t="n">
-        <v>11753.0335</v>
+        <v>10237</v>
       </c>
       <c r="G72" t="n">
-        <v>18.98666666666668</v>
+        <v>-165398.8460102695</v>
       </c>
       <c r="H72" t="n">
-        <v>19.09833333333334</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3297,39 +2921,30 @@
         <v>19.1</v>
       </c>
       <c r="C73" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E73" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F73" t="n">
-        <v>11753.0336</v>
+        <v>181063.9994833333</v>
       </c>
       <c r="G73" t="n">
-        <v>19.01333333333334</v>
+        <v>-346462.8454936028</v>
       </c>
       <c r="H73" t="n">
-        <v>19.09666666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,42 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C74" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E74" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F74" t="n">
-        <v>593</v>
+        <v>36558.0574</v>
       </c>
       <c r="G74" t="n">
-        <v>19.03333333333335</v>
+        <v>-346462.8454936028</v>
       </c>
       <c r="H74" t="n">
-        <v>19.09833333333334</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,42 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C75" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E75" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F75" t="n">
-        <v>27000</v>
+        <v>219561.6842</v>
       </c>
       <c r="G75" t="n">
-        <v>19.03333333333335</v>
+        <v>-346462.8454936028</v>
       </c>
       <c r="H75" t="n">
-        <v>19.09666666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,42 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C76" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="D76" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E76" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="F76" t="n">
-        <v>16000</v>
+        <v>11213</v>
       </c>
       <c r="G76" t="n">
-        <v>19.04666666666668</v>
+        <v>-357675.8454936028</v>
       </c>
       <c r="H76" t="n">
-        <v>19.09833333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,42 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="C77" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="D77" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="E77" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>1992</v>
       </c>
       <c r="G77" t="n">
-        <v>19.06666666666667</v>
+        <v>-357675.8454936028</v>
       </c>
       <c r="H77" t="n">
-        <v>19.10166666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,42 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C78" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E78" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F78" t="n">
-        <v>11200</v>
+        <v>5263.157894736843</v>
       </c>
       <c r="G78" t="n">
-        <v>19.10000000000001</v>
+        <v>-352412.6875988659</v>
       </c>
       <c r="H78" t="n">
-        <v>19.10333333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,42 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C79" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="D79" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E79" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="F79" t="n">
-        <v>887.7976</v>
+        <v>78.5988</v>
       </c>
       <c r="G79" t="n">
-        <v>19.13333333333334</v>
+        <v>-352491.2863988659</v>
       </c>
       <c r="H79" t="n">
-        <v>19.10166666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,42 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="C80" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="D80" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="E80" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="F80" t="n">
-        <v>51000</v>
+        <v>2000</v>
       </c>
       <c r="G80" t="n">
-        <v>19.17333333333334</v>
+        <v>-354491.2863988659</v>
       </c>
       <c r="H80" t="n">
-        <v>19.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,42 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C81" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="D81" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E81" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="F81" t="n">
-        <v>20200</v>
+        <v>30</v>
       </c>
       <c r="G81" t="n">
-        <v>19.20000000000001</v>
+        <v>-354461.2863988659</v>
       </c>
       <c r="H81" t="n">
-        <v>19.09833333333332</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,42 +3233,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="C82" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="D82" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="E82" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="F82" t="n">
-        <v>21513.1869</v>
+        <v>1942.1658</v>
       </c>
       <c r="G82" t="n">
-        <v>19.22000000000001</v>
+        <v>-356403.4521988659</v>
       </c>
       <c r="H82" t="n">
-        <v>19.09666666666665</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K82" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,42 +3272,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C83" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="D83" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="E83" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="F83" t="n">
-        <v>24994.0155</v>
+        <v>62</v>
       </c>
       <c r="G83" t="n">
-        <v>19.25333333333334</v>
+        <v>-356341.4521988659</v>
       </c>
       <c r="H83" t="n">
-        <v>19.09333333333332</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K83" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3778,42 +3315,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19.5</v>
+        <v>18.8</v>
       </c>
       <c r="C84" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="D84" t="n">
-        <v>19.5</v>
+        <v>18.8</v>
       </c>
       <c r="E84" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="F84" t="n">
-        <v>2000</v>
+        <v>14015</v>
       </c>
       <c r="G84" t="n">
-        <v>19.28666666666668</v>
+        <v>-370356.4521988659</v>
       </c>
       <c r="H84" t="n">
-        <v>19.09833333333332</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K84" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3822,42 +3358,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="C85" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="D85" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="E85" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>142539.7363</v>
       </c>
       <c r="G85" t="n">
-        <v>19.30666666666668</v>
+        <v>-227816.715898866</v>
       </c>
       <c r="H85" t="n">
-        <v>19.10333333333332</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M85" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="K85" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3866,42 +3401,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="C86" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="D86" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="E86" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="F86" t="n">
-        <v>64326.9999</v>
+        <v>908.0145</v>
       </c>
       <c r="G86" t="n">
-        <v>19.32000000000001</v>
+        <v>-228724.7303988659</v>
       </c>
       <c r="H86" t="n">
-        <v>19.10999999999999</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M86" t="inlineStr">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3910,42 +3442,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="C87" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="D87" t="n">
-        <v>19.5</v>
+        <v>18.8</v>
       </c>
       <c r="E87" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="F87" t="n">
-        <v>33372.7686</v>
+        <v>26943.5929</v>
       </c>
       <c r="G87" t="n">
-        <v>19.34666666666668</v>
+        <v>-228724.7303988659</v>
       </c>
       <c r="H87" t="n">
-        <v>19.11499999999999</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M87" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="K87" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,42 +3485,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="C88" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="D88" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="E88" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="F88" t="n">
-        <v>115</v>
+        <v>118835.3467052632</v>
       </c>
       <c r="G88" t="n">
-        <v>19.37333333333334</v>
+        <v>-109889.3836936027</v>
       </c>
       <c r="H88" t="n">
-        <v>19.11666666666665</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M88" t="inlineStr">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,42 +3526,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="C89" t="n">
-        <v>19.7</v>
+        <v>19.1</v>
       </c>
       <c r="D89" t="n">
-        <v>19.7</v>
+        <v>19.1</v>
       </c>
       <c r="E89" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F89" t="n">
-        <v>110637.7619</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>19.40000000000001</v>
+        <v>-109879.3836936027</v>
       </c>
       <c r="H89" t="n">
-        <v>19.12499999999999</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M89" t="inlineStr">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,42 +3567,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="C90" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="D90" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="E90" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="F90" t="n">
-        <v>15331.2195</v>
+        <v>102</v>
       </c>
       <c r="G90" t="n">
-        <v>19.43333333333334</v>
+        <v>-109879.3836936027</v>
       </c>
       <c r="H90" t="n">
-        <v>19.12666666666665</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M90" t="inlineStr">
+        <v>19.1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,42 +3610,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="C91" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="D91" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="E91" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="F91" t="n">
-        <v>1585.6172</v>
+        <v>788</v>
       </c>
       <c r="G91" t="n">
-        <v>19.45333333333334</v>
+        <v>-109879.3836936027</v>
       </c>
       <c r="H91" t="n">
-        <v>19.13166666666665</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M91" t="inlineStr">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,42 +3651,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19.7</v>
+        <v>18.8</v>
       </c>
       <c r="C92" t="n">
-        <v>19.7</v>
+        <v>18.8</v>
       </c>
       <c r="D92" t="n">
-        <v>19.7</v>
+        <v>18.8</v>
       </c>
       <c r="E92" t="n">
-        <v>19.7</v>
+        <v>18.8</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>8472.057699999999</v>
       </c>
       <c r="G92" t="n">
-        <v>19.47333333333334</v>
+        <v>-118351.4413936027</v>
       </c>
       <c r="H92" t="n">
-        <v>19.13833333333332</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M92" t="inlineStr">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,42 +3692,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="C93" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="D93" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="E93" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="F93" t="n">
-        <v>7000</v>
+        <v>1025.1726</v>
       </c>
       <c r="G93" t="n">
-        <v>19.48000000000001</v>
+        <v>-118351.4413936027</v>
       </c>
       <c r="H93" t="n">
-        <v>19.13999999999999</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M93" t="inlineStr">
+        <v>18.8</v>
+      </c>
+      <c r="K93" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,42 +3735,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="C94" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="D94" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="E94" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="F94" t="n">
-        <v>472.5389</v>
+        <v>3844.7058</v>
       </c>
       <c r="G94" t="n">
-        <v>19.48666666666667</v>
+        <v>-122196.1471936027</v>
       </c>
       <c r="H94" t="n">
-        <v>19.14166666666666</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M94" t="inlineStr">
+        <v>18.8</v>
+      </c>
+      <c r="K94" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,42 +3778,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="C95" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="D95" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="E95" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="F95" t="n">
-        <v>16783.9397</v>
+        <v>1875.753</v>
       </c>
       <c r="G95" t="n">
-        <v>19.49333333333334</v>
+        <v>-120320.3941936027</v>
       </c>
       <c r="H95" t="n">
-        <v>19.13999999999999</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M95" t="inlineStr">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,42 +3819,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="C96" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="D96" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="E96" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="F96" t="n">
-        <v>30.5987</v>
+        <v>5623.3371</v>
       </c>
       <c r="G96" t="n">
-        <v>19.5</v>
+        <v>-114697.0570936027</v>
       </c>
       <c r="H96" t="n">
-        <v>19.14499999999999</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M96" t="inlineStr">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,42 +3860,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="C97" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="D97" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="E97" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="F97" t="n">
-        <v>26000</v>
+        <v>3784</v>
       </c>
       <c r="G97" t="n">
-        <v>19.50666666666666</v>
+        <v>-114697.0570936027</v>
       </c>
       <c r="H97" t="n">
-        <v>19.15166666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M97" t="inlineStr">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,42 +3901,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C98" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D98" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E98" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F98" t="n">
-        <v>13924.8549</v>
+        <v>12796.8723</v>
       </c>
       <c r="G98" t="n">
-        <v>19.49333333333333</v>
+        <v>-114697.0570936027</v>
       </c>
       <c r="H98" t="n">
-        <v>19.15666666666666</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M98" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,42 +3942,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C99" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D99" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E99" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F99" t="n">
-        <v>13931.7569</v>
+        <v>14300</v>
       </c>
       <c r="G99" t="n">
-        <v>19.48666666666666</v>
+        <v>-100397.0570936027</v>
       </c>
       <c r="H99" t="n">
-        <v>19.16333333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M99" t="inlineStr">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,7 +3983,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C100" t="n">
         <v>19.3</v>
@@ -4491,33 +3992,30 @@
         <v>19.3</v>
       </c>
       <c r="E100" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F100" t="n">
-        <v>402.5278</v>
+        <v>15</v>
       </c>
       <c r="G100" t="n">
-        <v>19.47333333333333</v>
+        <v>-100382.0570936027</v>
       </c>
       <c r="H100" t="n">
-        <v>19.16666666666666</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M100" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,42 +4024,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C101" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="D101" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="E101" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>11753.0335</v>
       </c>
       <c r="G101" t="n">
-        <v>19.46666666666666</v>
+        <v>-112135.0905936027</v>
       </c>
       <c r="H101" t="n">
-        <v>19.17</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M101" t="inlineStr">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,42 +4065,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C102" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D102" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E102" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F102" t="n">
-        <v>25639.1388</v>
+        <v>11753.0336</v>
       </c>
       <c r="G102" t="n">
-        <v>19.44666666666666</v>
+        <v>-112135.0905936027</v>
       </c>
       <c r="H102" t="n">
-        <v>19.16833333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,42 +4106,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C103" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D103" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E103" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F103" t="n">
-        <v>16800</v>
+        <v>593</v>
       </c>
       <c r="G103" t="n">
-        <v>19.42666666666666</v>
+        <v>-111542.0905936027</v>
       </c>
       <c r="H103" t="n">
-        <v>19.17</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M103" t="inlineStr">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,30 +4159,27 @@
         <v>19.1</v>
       </c>
       <c r="F104" t="n">
-        <v>20240.7198</v>
+        <v>27000</v>
       </c>
       <c r="G104" t="n">
-        <v>19.38666666666666</v>
+        <v>-138542.0905936027</v>
       </c>
       <c r="H104" t="n">
-        <v>19.17166666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M104" t="inlineStr">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,42 +4188,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C105" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D105" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E105" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F105" t="n">
-        <v>909.2365</v>
+        <v>16000</v>
       </c>
       <c r="G105" t="n">
-        <v>19.35333333333333</v>
+        <v>-122542.0905936027</v>
       </c>
       <c r="H105" t="n">
-        <v>19.17333333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M105" t="inlineStr">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4746,42 +4229,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="C106" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="D106" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="E106" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="F106" t="n">
-        <v>486.2063</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>19.32</v>
+        <v>-122532.0905936027</v>
       </c>
       <c r="H106" t="n">
-        <v>19.175</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M106" t="inlineStr">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,42 +4270,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C107" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D107" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E107" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="F107" t="n">
-        <v>167619.2631</v>
+        <v>11200</v>
       </c>
       <c r="G107" t="n">
-        <v>19.27333333333333</v>
+        <v>-133732.0905936027</v>
       </c>
       <c r="H107" t="n">
-        <v>19.17666666666666</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M107" t="inlineStr">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,42 +4311,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="C108" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D108" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="E108" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="F108" t="n">
-        <v>1630.5</v>
+        <v>887.7976</v>
       </c>
       <c r="G108" t="n">
-        <v>19.24666666666667</v>
+        <v>-133732.0905936027</v>
       </c>
       <c r="H108" t="n">
-        <v>19.17833333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M108" t="inlineStr">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,42 +4352,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="C109" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D109" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="F109" t="n">
-        <v>33727.6717</v>
+        <v>51000</v>
       </c>
       <c r="G109" t="n">
-        <v>19.22</v>
+        <v>-133732.0905936027</v>
       </c>
       <c r="H109" t="n">
-        <v>19.17833333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M109" t="inlineStr">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,42 +4393,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C110" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="D110" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E110" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="F110" t="n">
-        <v>32.4201</v>
+        <v>20200</v>
       </c>
       <c r="G110" t="n">
-        <v>19.18666666666667</v>
+        <v>-133732.0905936027</v>
       </c>
       <c r="H110" t="n">
-        <v>19.17833333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M110" t="inlineStr">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,42 +4434,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C111" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D111" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E111" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F111" t="n">
-        <v>25200</v>
+        <v>21513.1869</v>
       </c>
       <c r="G111" t="n">
-        <v>19.17333333333334</v>
+        <v>-133732.0905936027</v>
       </c>
       <c r="H111" t="n">
-        <v>19.18666666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M111" t="inlineStr">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5010,42 +4475,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C112" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="D112" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="E112" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F112" t="n">
-        <v>15105</v>
+        <v>24994.0155</v>
       </c>
       <c r="G112" t="n">
-        <v>19.16</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H112" t="n">
-        <v>19.19166666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M112" t="inlineStr">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,42 +4516,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="C113" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D113" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E113" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="F113" t="n">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="n">
-        <v>19.16666666666667</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H113" t="n">
-        <v>19.20166666666666</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M113" t="inlineStr">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5098,42 +4557,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C114" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D114" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E114" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F114" t="n">
-        <v>35121</v>
+        <v>2000</v>
       </c>
       <c r="G114" t="n">
-        <v>19.16666666666667</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H114" t="n">
-        <v>19.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M114" t="inlineStr">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,30 +4610,27 @@
         <v>19.5</v>
       </c>
       <c r="F115" t="n">
-        <v>6177</v>
+        <v>64326.9999</v>
       </c>
       <c r="G115" t="n">
-        <v>19.18</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H115" t="n">
-        <v>19.22333333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M115" t="inlineStr">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5186,42 +4639,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C116" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D116" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E116" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F116" t="n">
-        <v>52720.4138</v>
+        <v>33372.7686</v>
       </c>
       <c r="G116" t="n">
-        <v>19.18</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H116" t="n">
-        <v>19.23166666666666</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M116" t="inlineStr">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5230,42 +4680,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C117" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="D117" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="E117" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F117" t="n">
-        <v>7328.5714</v>
+        <v>115</v>
       </c>
       <c r="G117" t="n">
-        <v>19.21333333333333</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H117" t="n">
-        <v>19.24833333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M117" t="inlineStr">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5274,42 +4721,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C118" t="n">
         <v>19.7</v>
       </c>
-      <c r="C118" t="n">
-        <v>19.8</v>
-      </c>
       <c r="D118" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="E118" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="F118" t="n">
-        <v>73000</v>
+        <v>110637.7619</v>
       </c>
       <c r="G118" t="n">
-        <v>19.25333333333333</v>
+        <v>1899.686806397265</v>
       </c>
       <c r="H118" t="n">
-        <v>19.26666666666666</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M118" t="inlineStr">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,42 +4762,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="C119" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="D119" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="E119" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="F119" t="n">
-        <v>7178.1909</v>
+        <v>15331.2195</v>
       </c>
       <c r="G119" t="n">
-        <v>19.30666666666666</v>
+        <v>-13431.53269360273</v>
       </c>
       <c r="H119" t="n">
-        <v>19.28166666666666</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M119" t="inlineStr">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5362,42 +4803,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="C120" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="D120" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="E120" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="F120" t="n">
-        <v>1851.1</v>
+        <v>1585.6172</v>
       </c>
       <c r="G120" t="n">
-        <v>19.36666666666666</v>
+        <v>-13431.53269360273</v>
       </c>
       <c r="H120" t="n">
-        <v>19.29666666666666</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M120" t="inlineStr">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5406,42 +4844,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="C121" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="D121" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="E121" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="F121" t="n">
-        <v>33907.8674</v>
+        <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>19.42666666666666</v>
+        <v>-13421.53269360273</v>
       </c>
       <c r="H121" t="n">
-        <v>19.31166666666666</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M121" t="inlineStr">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5450,43 +4885,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="C122" t="n">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="D122" t="n">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="E122" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="F122" t="n">
-        <v>71932.19620000001</v>
+        <v>7000</v>
       </c>
       <c r="G122" t="n">
-        <v>19.48666666666666</v>
+        <v>-20421.53269360273</v>
       </c>
       <c r="H122" t="n">
-        <v>19.325</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
-        <v>1.059171122994653</v>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5494,36 +4926,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="C123" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="D123" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="E123" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="F123" t="n">
-        <v>146134.4284</v>
+        <v>472.5389</v>
       </c>
       <c r="G123" t="n">
-        <v>19.54</v>
+        <v>-20421.53269360273</v>
       </c>
       <c r="H123" t="n">
-        <v>19.34166666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,36 +4967,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="C124" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="D124" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="E124" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>16783.9397</v>
       </c>
       <c r="G124" t="n">
-        <v>19.60666666666666</v>
+        <v>-20421.53269360273</v>
       </c>
       <c r="H124" t="n">
-        <v>19.36166666666667</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5570,36 +5008,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="C125" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="D125" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="E125" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="F125" t="n">
-        <v>25800</v>
+        <v>30.5987</v>
       </c>
       <c r="G125" t="n">
-        <v>19.65999999999999</v>
+        <v>-20421.53269360273</v>
       </c>
       <c r="H125" t="n">
-        <v>19.37833333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,36 +5049,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="C126" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="D126" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="E126" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="F126" t="n">
-        <v>870.5657</v>
+        <v>26000</v>
       </c>
       <c r="G126" t="n">
-        <v>19.7</v>
+        <v>-20421.53269360273</v>
       </c>
       <c r="H126" t="n">
-        <v>19.39333333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,36 +5090,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="C127" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="D127" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="E127" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="F127" t="n">
-        <v>41414.1903</v>
+        <v>13924.8549</v>
       </c>
       <c r="G127" t="n">
-        <v>19.73333333333333</v>
+        <v>-34346.38759360273</v>
       </c>
       <c r="H127" t="n">
-        <v>19.405</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,36 +5131,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="C128" t="n">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="D128" t="n">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="E128" t="n">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>13931.7569</v>
       </c>
       <c r="G128" t="n">
-        <v>19.76666666666666</v>
+        <v>-20414.63069360273</v>
       </c>
       <c r="H128" t="n">
-        <v>19.42</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5722,36 +5172,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="C129" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="D129" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="E129" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="F129" t="n">
-        <v>398.4721</v>
+        <v>402.5278</v>
       </c>
       <c r="G129" t="n">
-        <v>19.78</v>
+        <v>-20817.15849360273</v>
       </c>
       <c r="H129" t="n">
-        <v>19.43</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5760,36 +5213,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="C130" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="D130" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="E130" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="F130" t="n">
-        <v>9601.5278</v>
+        <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>19.78666666666667</v>
+        <v>-20807.15849360273</v>
       </c>
       <c r="H130" t="n">
-        <v>19.43666666666666</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5798,36 +5254,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="C131" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="D131" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="E131" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0001</v>
+        <v>25639.1388</v>
       </c>
       <c r="G131" t="n">
-        <v>19.8</v>
+        <v>-46446.29729360274</v>
       </c>
       <c r="H131" t="n">
-        <v>19.44166666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5836,36 +5295,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="C132" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="D132" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E132" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="F132" t="n">
-        <v>472.0937</v>
+        <v>16800</v>
       </c>
       <c r="G132" t="n">
-        <v>19.78666666666667</v>
+        <v>-46446.29729360274</v>
       </c>
       <c r="H132" t="n">
-        <v>19.44833333333333</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,36 +5336,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C133" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="D133" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="E133" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F133" t="n">
-        <v>572.0937</v>
+        <v>20240.7198</v>
       </c>
       <c r="G133" t="n">
-        <v>19.77333333333334</v>
+        <v>-66687.01709360274</v>
       </c>
       <c r="H133" t="n">
-        <v>19.45666666666666</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5912,36 +5377,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="C134" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="D134" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="E134" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="F134" t="n">
-        <v>9153.469300000001</v>
+        <v>909.2365</v>
       </c>
       <c r="G134" t="n">
-        <v>19.75333333333334</v>
+        <v>-66687.01709360274</v>
       </c>
       <c r="H134" t="n">
-        <v>19.46166666666666</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,36 +5418,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C135" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="D135" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E135" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F135" t="n">
-        <v>2414.3789</v>
+        <v>486.2063</v>
       </c>
       <c r="G135" t="n">
-        <v>19.71333333333334</v>
+        <v>-66687.01709360274</v>
       </c>
       <c r="H135" t="n">
-        <v>19.46666666666667</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5991,33 +5462,36 @@
         <v>19.1</v>
       </c>
       <c r="C136" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D136" t="n">
         <v>19.1</v>
       </c>
       <c r="E136" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F136" t="n">
-        <v>461.5879</v>
+        <v>167619.2631</v>
       </c>
       <c r="G136" t="n">
-        <v>19.65333333333334</v>
+        <v>-234306.2801936028</v>
       </c>
       <c r="H136" t="n">
-        <v>19.46333333333333</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>1</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6026,36 +5500,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="C137" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D137" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E137" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F137" t="n">
-        <v>4066</v>
+        <v>1630.5</v>
       </c>
       <c r="G137" t="n">
-        <v>19.60666666666668</v>
+        <v>-234306.2801936028</v>
       </c>
       <c r="H137" t="n">
-        <v>19.46</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,36 +5541,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C138" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D138" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E138" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F138" t="n">
-        <v>2375.4504</v>
+        <v>33727.6717</v>
       </c>
       <c r="G138" t="n">
-        <v>19.56000000000001</v>
+        <v>-234306.2801936028</v>
       </c>
       <c r="H138" t="n">
-        <v>19.45666666666666</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,36 +5582,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C139" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D139" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E139" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>32.4201</v>
       </c>
       <c r="G139" t="n">
-        <v>19.50666666666667</v>
+        <v>-234338.7002936027</v>
       </c>
       <c r="H139" t="n">
-        <v>19.455</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6140,36 +5623,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C140" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D140" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E140" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F140" t="n">
-        <v>398.7911</v>
+        <v>25200</v>
       </c>
       <c r="G140" t="n">
-        <v>19.46000000000001</v>
+        <v>-209138.7002936027</v>
       </c>
       <c r="H140" t="n">
-        <v>19.45</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6178,36 +5664,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C141" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D141" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E141" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F141" t="n">
-        <v>3013.8399</v>
+        <v>15105</v>
       </c>
       <c r="G141" t="n">
-        <v>19.42666666666668</v>
+        <v>-209138.7002936027</v>
       </c>
       <c r="H141" t="n">
-        <v>19.45</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6216,36 +5705,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="C142" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="D142" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="E142" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="F142" t="n">
-        <v>1000</v>
+        <v>26000</v>
       </c>
       <c r="G142" t="n">
-        <v>19.38000000000001</v>
+        <v>-183138.7002936027</v>
       </c>
       <c r="H142" t="n">
-        <v>19.445</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6254,36 +5746,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C143" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D143" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E143" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>35121</v>
       </c>
       <c r="G143" t="n">
-        <v>19.34000000000001</v>
+        <v>-183138.7002936027</v>
       </c>
       <c r="H143" t="n">
-        <v>19.44166666666667</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,36 +5787,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="C144" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="D144" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="E144" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="F144" t="n">
-        <v>2269.5304</v>
+        <v>6177</v>
       </c>
       <c r="G144" t="n">
-        <v>19.30000000000001</v>
+        <v>-176961.7002936027</v>
       </c>
       <c r="H144" t="n">
-        <v>19.43333333333333</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6330,36 +5828,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="C145" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D145" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E145" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="F145" t="n">
-        <v>3491.6555</v>
+        <v>52720.4138</v>
       </c>
       <c r="G145" t="n">
-        <v>19.28000000000001</v>
+        <v>-229682.1140936028</v>
       </c>
       <c r="H145" t="n">
-        <v>19.43</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6368,36 +5869,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="C146" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="D146" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="E146" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="F146" t="n">
-        <v>1337.6697</v>
+        <v>7328.5714</v>
       </c>
       <c r="G146" t="n">
-        <v>19.23333333333334</v>
+        <v>-222353.5426936028</v>
       </c>
       <c r="H146" t="n">
-        <v>19.42</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6406,36 +5910,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="C147" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="D147" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="E147" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>73000</v>
       </c>
       <c r="G147" t="n">
-        <v>19.22000000000001</v>
+        <v>-149353.5426936028</v>
       </c>
       <c r="H147" t="n">
-        <v>19.41666666666667</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6444,36 +5951,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>18.9</v>
+        <v>19.9</v>
       </c>
       <c r="C148" t="n">
-        <v>18.8</v>
+        <v>19.9</v>
       </c>
       <c r="D148" t="n">
-        <v>18.9</v>
+        <v>19.9</v>
       </c>
       <c r="E148" t="n">
-        <v>18.8</v>
+        <v>19.9</v>
       </c>
       <c r="F148" t="n">
-        <v>50482.6954</v>
+        <v>7178.1909</v>
       </c>
       <c r="G148" t="n">
-        <v>19.16666666666667</v>
+        <v>-142175.3517936028</v>
       </c>
       <c r="H148" t="n">
-        <v>19.405</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6482,37 +5992,40 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>19.1</v>
+        <v>20</v>
       </c>
       <c r="C149" t="n">
-        <v>19.1</v>
+        <v>20</v>
       </c>
       <c r="D149" t="n">
-        <v>19.1</v>
+        <v>20</v>
       </c>
       <c r="E149" t="n">
-        <v>19.1</v>
+        <v>20</v>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>1851.1</v>
       </c>
       <c r="G149" t="n">
-        <v>19.13333333333334</v>
+        <v>-140324.2517936028</v>
       </c>
       <c r="H149" t="n">
-        <v>19.395</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1.053201058201058</v>
       </c>
     </row>
     <row r="150">
@@ -6520,36 +6033,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>18.9</v>
+        <v>20</v>
       </c>
       <c r="C150" t="n">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="D150" t="n">
-        <v>18.9</v>
+        <v>20</v>
       </c>
       <c r="E150" t="n">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="F150" t="n">
-        <v>1704.06</v>
+        <v>33907.8674</v>
       </c>
       <c r="G150" t="n">
-        <v>19.09333333333334</v>
+        <v>-140324.2517936028</v>
       </c>
       <c r="H150" t="n">
-        <v>19.38166666666666</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,36 +6068,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="C151" t="n">
-        <v>18.9</v>
+        <v>19.9</v>
       </c>
       <c r="D151" t="n">
-        <v>18.9</v>
+        <v>19.9</v>
       </c>
       <c r="E151" t="n">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="F151" t="n">
-        <v>202158.5762</v>
+        <v>71932.19620000001</v>
       </c>
       <c r="G151" t="n">
-        <v>19.08000000000001</v>
+        <v>-212256.4479936028</v>
       </c>
       <c r="H151" t="n">
-        <v>19.37</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6596,36 +6103,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>18.8</v>
+        <v>19.9</v>
       </c>
       <c r="C152" t="n">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="D152" t="n">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="E152" t="n">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="F152" t="n">
-        <v>18249.1468</v>
+        <v>146134.4284</v>
       </c>
       <c r="G152" t="n">
-        <v>19.04666666666667</v>
+        <v>-358390.8763936028</v>
       </c>
       <c r="H152" t="n">
-        <v>19.35333333333334</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6634,36 +6138,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="C153" t="n">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="D153" t="n">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="E153" t="n">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="F153" t="n">
         <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>19.02666666666667</v>
+        <v>-358380.8763936028</v>
       </c>
       <c r="H153" t="n">
-        <v>19.34333333333333</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6672,36 +6173,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="C154" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="D154" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="E154" t="n">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="F154" t="n">
-        <v>801</v>
+        <v>25800</v>
       </c>
       <c r="G154" t="n">
-        <v>19.00666666666667</v>
+        <v>-384180.8763936028</v>
       </c>
       <c r="H154" t="n">
-        <v>19.335</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6710,36 +6208,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="C155" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="D155" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="E155" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="F155" t="n">
-        <v>8739.2063</v>
+        <v>870.5657</v>
       </c>
       <c r="G155" t="n">
-        <v>19</v>
+        <v>-383310.3106936028</v>
       </c>
       <c r="H155" t="n">
-        <v>19.32666666666666</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,36 +6243,33 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="C156" t="n">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="D156" t="n">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="E156" t="n">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="F156" t="n">
-        <v>422.1784</v>
+        <v>41414.1903</v>
       </c>
       <c r="G156" t="n">
-        <v>18.96666666666667</v>
+        <v>-424724.5009936029</v>
       </c>
       <c r="H156" t="n">
-        <v>19.31666666666666</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6786,36 +6278,33 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>18.7</v>
+        <v>19.9</v>
       </c>
       <c r="C157" t="n">
-        <v>18.7</v>
+        <v>19.9</v>
       </c>
       <c r="D157" t="n">
-        <v>18.7</v>
+        <v>19.9</v>
       </c>
       <c r="E157" t="n">
-        <v>18.7</v>
+        <v>19.9</v>
       </c>
       <c r="F157" t="n">
-        <v>3522.8859</v>
+        <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>18.94666666666667</v>
+        <v>-424714.5009936029</v>
       </c>
       <c r="H157" t="n">
-        <v>19.305</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6824,36 +6313,33 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="C158" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="D158" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="E158" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="F158" t="n">
-        <v>3172</v>
+        <v>398.4721</v>
       </c>
       <c r="G158" t="n">
-        <v>18.90666666666667</v>
+        <v>-425112.9730936029</v>
       </c>
       <c r="H158" t="n">
-        <v>19.295</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6862,36 +6348,33 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="C159" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="D159" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="E159" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="F159" t="n">
-        <v>7253.7046</v>
+        <v>9601.5278</v>
       </c>
       <c r="G159" t="n">
-        <v>18.88666666666667</v>
+        <v>-425112.9730936029</v>
       </c>
       <c r="H159" t="n">
-        <v>19.28333333333333</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6900,36 +6383,33 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="C160" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="D160" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="E160" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="F160" t="n">
-        <v>2701.3978</v>
+        <v>0.0001</v>
       </c>
       <c r="G160" t="n">
-        <v>18.84666666666667</v>
+        <v>-425112.9730936029</v>
       </c>
       <c r="H160" t="n">
-        <v>19.27333333333333</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6938,36 +6418,33 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="C161" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="D161" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="E161" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="F161" t="n">
-        <v>15468.1419</v>
+        <v>472.0937</v>
       </c>
       <c r="G161" t="n">
-        <v>18.83333333333333</v>
+        <v>-425585.0667936029</v>
       </c>
       <c r="H161" t="n">
-        <v>19.26166666666666</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,36 +6453,33 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="C162" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="D162" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="E162" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F162" t="n">
-        <v>2354.1818</v>
+        <v>572.0937</v>
       </c>
       <c r="G162" t="n">
-        <v>18.79333333333333</v>
+        <v>-425012.9730936029</v>
       </c>
       <c r="H162" t="n">
-        <v>19.25333333333333</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7014,36 +6488,33 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="C163" t="n">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="D163" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="E163" t="n">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="F163" t="n">
-        <v>41600</v>
+        <v>9153.469300000001</v>
       </c>
       <c r="G163" t="n">
-        <v>18.78</v>
+        <v>-425012.9730936029</v>
       </c>
       <c r="H163" t="n">
-        <v>19.24333333333333</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7052,36 +6523,33 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="C164" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="D164" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="E164" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="F164" t="n">
-        <v>7160.2454</v>
+        <v>2414.3789</v>
       </c>
       <c r="G164" t="n">
-        <v>18.74</v>
+        <v>-427427.3519936029</v>
       </c>
       <c r="H164" t="n">
-        <v>19.23333333333333</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7090,36 +6558,33 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="C165" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="D165" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="E165" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F165" t="n">
-        <v>10</v>
+        <v>461.5879</v>
       </c>
       <c r="G165" t="n">
-        <v>18.73333333333333</v>
+        <v>-427888.9398936029</v>
       </c>
       <c r="H165" t="n">
-        <v>19.22666666666667</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="n">
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7128,36 +6593,33 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="C166" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="D166" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="E166" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="F166" t="n">
-        <v>1846.4722</v>
+        <v>4066</v>
       </c>
       <c r="G166" t="n">
-        <v>18.70666666666666</v>
+        <v>-423822.9398936029</v>
       </c>
       <c r="H166" t="n">
-        <v>19.21666666666667</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="n">
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7166,36 +6628,33 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="C167" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="D167" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="E167" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F167" t="n">
-        <v>10</v>
+        <v>2375.4504</v>
       </c>
       <c r="G167" t="n">
-        <v>18.70666666666666</v>
+        <v>-426198.3902936028</v>
       </c>
       <c r="H167" t="n">
-        <v>19.21166666666667</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="n">
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7204,36 +6663,33 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="C168" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="D168" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="E168" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="F168" t="n">
-        <v>5884.826</v>
+        <v>10</v>
       </c>
       <c r="G168" t="n">
-        <v>18.68666666666666</v>
+        <v>-426188.3902936028</v>
       </c>
       <c r="H168" t="n">
-        <v>19.20333333333333</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="n">
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7242,36 +6698,33 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>18.4</v>
+        <v>19</v>
       </c>
       <c r="C169" t="n">
-        <v>18.4</v>
+        <v>19</v>
       </c>
       <c r="D169" t="n">
-        <v>18.4</v>
+        <v>19</v>
       </c>
       <c r="E169" t="n">
-        <v>18.4</v>
+        <v>19</v>
       </c>
       <c r="F169" t="n">
-        <v>9316.303099999999</v>
+        <v>398.7911</v>
       </c>
       <c r="G169" t="n">
-        <v>18.65333333333333</v>
+        <v>-426587.1813936028</v>
       </c>
       <c r="H169" t="n">
-        <v>19.19333333333334</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="n">
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7280,36 +6733,33 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="C170" t="n">
-        <v>18.6</v>
+        <v>19.3</v>
       </c>
       <c r="D170" t="n">
-        <v>18.6</v>
+        <v>19.3</v>
       </c>
       <c r="E170" t="n">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>3013.8399</v>
       </c>
       <c r="G170" t="n">
-        <v>18.63333333333333</v>
+        <v>-423573.3414936028</v>
       </c>
       <c r="H170" t="n">
-        <v>19.18833333333333</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="n">
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7318,36 +6768,33 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="C171" t="n">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="D171" t="n">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="E171" t="n">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="F171" t="n">
-        <v>48338.3259</v>
+        <v>1000</v>
       </c>
       <c r="G171" t="n">
-        <v>18.6</v>
+        <v>-424573.3414936028</v>
       </c>
       <c r="H171" t="n">
-        <v>19.17333333333333</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="n">
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7356,36 +6803,33 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="C172" t="n">
-        <v>18.2</v>
+        <v>19.3</v>
       </c>
       <c r="D172" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="E172" t="n">
-        <v>18.2</v>
+        <v>19.3</v>
       </c>
       <c r="F172" t="n">
-        <v>26144.2621</v>
+        <v>10</v>
       </c>
       <c r="G172" t="n">
-        <v>18.56666666666667</v>
+        <v>-424563.3414936028</v>
       </c>
       <c r="H172" t="n">
-        <v>19.15666666666666</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="n">
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,36 +6838,33 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="C173" t="n">
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="D173" t="n">
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="E173" t="n">
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="F173" t="n">
-        <v>1728.7692</v>
+        <v>2269.5304</v>
       </c>
       <c r="G173" t="n">
-        <v>18.53333333333333</v>
+        <v>-426832.8718936028</v>
       </c>
       <c r="H173" t="n">
-        <v>19.13666666666666</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="n">
+      <c r="M173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7432,36 +6873,33 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="C174" t="n">
-        <v>18.5</v>
+        <v>19.3</v>
       </c>
       <c r="D174" t="n">
-        <v>18.5</v>
+        <v>19.3</v>
       </c>
       <c r="E174" t="n">
-        <v>18.4</v>
+        <v>19</v>
       </c>
       <c r="F174" t="n">
-        <v>24737.5376</v>
+        <v>3491.6555</v>
       </c>
       <c r="G174" t="n">
-        <v>18.52</v>
+        <v>-423341.2163936028</v>
       </c>
       <c r="H174" t="n">
-        <v>19.12166666666666</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="n">
+      <c r="M174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7470,36 +6908,1138 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="C175" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="D175" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="E175" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="F175" t="n">
-        <v>3683.7667</v>
+        <v>1337.6697</v>
       </c>
       <c r="G175" t="n">
-        <v>18.50666666666667</v>
+        <v>-424678.8860936028</v>
       </c>
       <c r="H175" t="n">
-        <v>19.105</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="n">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>10</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-424668.8860936028</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>50482.6954</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-475151.5814936028</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>10</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-475141.5814936028</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C179" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D179" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1704.06</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-476845.6414936028</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>202158.5762</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-274687.0652936028</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18249.1468</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-292936.2120936028</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-292926.2120936028</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D183" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>801</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-292125.2120936028</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C184" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D184" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F184" t="n">
+        <v>8739.2063</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-292125.2120936028</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>422.1784</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-292547.3904936028</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D186" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3522.8859</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C187" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D187" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E187" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3172</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C188" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E188" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F188" t="n">
+        <v>7253.7046</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C189" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D189" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2701.3978</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C190" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D190" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F190" t="n">
+        <v>15468.1419</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C191" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D191" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E191" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2354.1818</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K191" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C192" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E192" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F192" t="n">
+        <v>41600</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-337670.2763936028</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K192" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>7160.2454</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-344830.5217936028</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K193" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C194" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D194" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F194" t="n">
+        <v>10</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-344820.5217936028</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K194" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1846.4722</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-346666.9939936028</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K195" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C196" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D196" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E196" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F196" t="n">
+        <v>10</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-346656.9939936028</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C197" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>5884.826</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-352541.8199936028</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C198" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D198" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="E198" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F198" t="n">
+        <v>9316.303099999999</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-361858.1230936028</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C199" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D199" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F199" t="n">
+        <v>10</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-361848.1230936028</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C200" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D200" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E200" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>48338.3259</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-410186.4489936028</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C201" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E201" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>26144.2621</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-436330.7110936028</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1728.7692</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-436330.7110936028</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C203" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F203" t="n">
+        <v>24737.5376</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-411593.1734936028</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C204" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3683.7667</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-411593.1734936028</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest CMT.xlsx
+++ b/BackTest/2019-10-26 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="E2" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="F2" t="n">
-        <v>28816</v>
+        <v>21140.52283333333</v>
       </c>
       <c r="G2" t="n">
-        <v>-144836.5336</v>
+        <v>19.20000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="D3" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="E3" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="F3" t="n">
-        <v>1941.6791</v>
+        <v>4975</v>
       </c>
       <c r="G3" t="n">
-        <v>-144836.5336</v>
+        <v>19.20000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="C4" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="D4" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="E4" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="F4" t="n">
-        <v>952</v>
+        <v>3559</v>
       </c>
       <c r="G4" t="n">
-        <v>-144836.5336</v>
+        <v>19.20000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="C5" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="D5" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="E5" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="F5" t="n">
-        <v>735</v>
+        <v>5232</v>
       </c>
       <c r="G5" t="n">
-        <v>-144836.5336</v>
+        <v>19.20000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D6" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="E6" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="F6" t="n">
-        <v>143.7525</v>
+        <v>21576.08376666667</v>
       </c>
       <c r="G6" t="n">
-        <v>-144836.5336</v>
+        <v>19.24000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="C7" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D7" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="E7" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F7" t="n">
-        <v>27582.8607</v>
+        <v>25401.7744</v>
       </c>
       <c r="G7" t="n">
-        <v>-144836.5336</v>
+        <v>19.28000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="C8" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D8" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="E8" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F8" t="n">
-        <v>9688.350399999999</v>
+        <v>134997.6838</v>
       </c>
       <c r="G8" t="n">
-        <v>-144836.5336</v>
+        <v>19.32000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="C9" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="D9" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="E9" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F9" t="n">
-        <v>28728</v>
+        <v>28669.768</v>
       </c>
       <c r="G9" t="n">
-        <v>-116108.5336</v>
+        <v>19.36000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="C10" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="D10" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="E10" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="F10" t="n">
-        <v>6175.3023</v>
+        <v>28082.8458</v>
       </c>
       <c r="G10" t="n">
-        <v>-109933.2313</v>
+        <v>19.46</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="F11" t="n">
-        <v>2552.8502</v>
+        <v>4000</v>
       </c>
       <c r="G11" t="n">
-        <v>-107380.3811</v>
+        <v>19.42000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>19.7</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="F12" t="n">
-        <v>5813.6158</v>
+        <v>3035.641</v>
       </c>
       <c r="G12" t="n">
-        <v>-107380.3811</v>
+        <v>19.38000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C13" t="n">
         <v>19.1</v>
       </c>
       <c r="D13" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E13" t="n">
         <v>19.1</v>
       </c>
       <c r="F13" t="n">
-        <v>15693.4323</v>
+        <v>12331</v>
       </c>
       <c r="G13" t="n">
-        <v>-91686.94880000003</v>
+        <v>19.32</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C14" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D14" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="E14" t="n">
         <v>19.1</v>
       </c>
       <c r="F14" t="n">
-        <v>171.806</v>
+        <v>114891.587051269</v>
       </c>
       <c r="G14" t="n">
-        <v>-91686.94880000003</v>
+        <v>19.28000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="C15" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="D15" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="E15" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="F15" t="n">
-        <v>1879</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-89807.94880000003</v>
+        <v>19.22000000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C16" t="n">
         <v>19.2</v>
       </c>
       <c r="D16" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E16" t="n">
         <v>19.2</v>
       </c>
-      <c r="E16" t="n">
-        <v>19.1</v>
-      </c>
       <c r="F16" t="n">
-        <v>2055.2222</v>
+        <v>5786</v>
       </c>
       <c r="G16" t="n">
-        <v>-89807.94880000003</v>
+        <v>19.22000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="F17" t="n">
-        <v>12457.8306</v>
+        <v>197.7948717948718</v>
       </c>
       <c r="G17" t="n">
-        <v>-102265.7794</v>
+        <v>19.28000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F18" t="n">
-        <v>12665</v>
+        <v>117</v>
       </c>
       <c r="G18" t="n">
-        <v>-89600.77940000003</v>
+        <v>19.32</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F19" t="n">
-        <v>13000</v>
+        <v>291.5059</v>
       </c>
       <c r="G19" t="n">
-        <v>-89600.77940000003</v>
+        <v>19.34</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F20" t="n">
-        <v>4166.6666</v>
+        <v>131.6312</v>
       </c>
       <c r="G20" t="n">
-        <v>-89600.77940000003</v>
+        <v>19.32</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1110,10 +1134,10 @@
         <v>19.3</v>
       </c>
       <c r="F21" t="n">
-        <v>12735.1393</v>
+        <v>540</v>
       </c>
       <c r="G21" t="n">
-        <v>-76865.64010000003</v>
+        <v>19.34</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,13 +1151,14 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C22" t="n">
         <v>19.5</v>
@@ -1142,13 +1167,13 @@
         <v>19.5</v>
       </c>
       <c r="E22" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F22" t="n">
-        <v>1202.3589</v>
+        <v>918</v>
       </c>
       <c r="G22" t="n">
-        <v>-75663.28120000003</v>
+        <v>19.34</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C23" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="D23" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="E23" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F23" t="n">
-        <v>1432.0618</v>
+        <v>3824.1351</v>
       </c>
       <c r="G23" t="n">
-        <v>-77095.34300000002</v>
+        <v>19.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C24" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E24" t="n">
         <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>9000</v>
+        <v>2039</v>
       </c>
       <c r="G24" t="n">
-        <v>-77095.34300000002</v>
+        <v>19.24</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C25" t="n">
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E25" t="n">
         <v>19</v>
       </c>
       <c r="F25" t="n">
-        <v>8600</v>
+        <v>58128.3053</v>
       </c>
       <c r="G25" t="n">
-        <v>-85695.34300000002</v>
+        <v>19.18</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1279,16 +1308,16 @@
         <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E26" t="n">
         <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>4534.4892</v>
+        <v>14598.3146</v>
       </c>
       <c r="G26" t="n">
-        <v>-85695.34300000002</v>
+        <v>19.12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1311,19 +1341,19 @@
         <v>19.1</v>
       </c>
       <c r="C27" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="D27" t="n">
         <v>19.1</v>
       </c>
       <c r="E27" t="n">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="F27" t="n">
-        <v>251525.791</v>
+        <v>834</v>
       </c>
       <c r="G27" t="n">
-        <v>-337221.134</v>
+        <v>19.04</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E28" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="F28" t="n">
-        <v>41402.7894</v>
+        <v>11365.3623</v>
       </c>
       <c r="G28" t="n">
-        <v>-295818.3446</v>
+        <v>19.06</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="C29" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="D29" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="E29" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="F29" t="n">
-        <v>44646.1694</v>
+        <v>520.8333</v>
       </c>
       <c r="G29" t="n">
-        <v>-340464.514</v>
+        <v>19.12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="C30" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="D30" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="E30" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="F30" t="n">
-        <v>398.2842</v>
+        <v>10237</v>
       </c>
       <c r="G30" t="n">
-        <v>-340066.2298</v>
+        <v>19.14</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1451,19 +1485,19 @@
         <v>19.1</v>
       </c>
       <c r="C31" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E31" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>43328.2536</v>
+        <v>181063.9994833333</v>
       </c>
       <c r="G31" t="n">
-        <v>-383394.4834</v>
+        <v>19.14</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="E32" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F32" t="n">
-        <v>9150</v>
+        <v>36558.0574</v>
       </c>
       <c r="G32" t="n">
-        <v>-374244.4834</v>
+        <v>19.12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1524,16 +1560,16 @@
         <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E33" t="n">
         <v>19</v>
       </c>
       <c r="F33" t="n">
-        <v>131248.8218</v>
+        <v>219561.6842</v>
       </c>
       <c r="G33" t="n">
-        <v>-242995.6616</v>
+        <v>19.08000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11213</v>
+      </c>
+      <c r="G34" t="n">
         <v>19</v>
-      </c>
-      <c r="C34" t="n">
-        <v>19</v>
-      </c>
-      <c r="D34" t="n">
-        <v>19</v>
-      </c>
-      <c r="E34" t="n">
-        <v>19</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4015</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-242995.6616</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="C35" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D35" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="E35" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>1992</v>
       </c>
       <c r="G35" t="n">
-        <v>-242985.6616</v>
+        <v>18.96</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1635,10 +1674,10 @@
         <v>19</v>
       </c>
       <c r="F36" t="n">
-        <v>68393.2632</v>
+        <v>5263.157894736843</v>
       </c>
       <c r="G36" t="n">
-        <v>-311378.9248</v>
+        <v>18.96</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D37" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E37" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F37" t="n">
-        <v>3290.9308</v>
+        <v>78.5988</v>
       </c>
       <c r="G37" t="n">
-        <v>-311378.9248</v>
+        <v>18.94</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D38" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="E38" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F38" t="n">
-        <v>8255.2577</v>
+        <v>2000</v>
       </c>
       <c r="G38" t="n">
-        <v>-311378.9248</v>
+        <v>18.88</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="C39" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="D39" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="E39" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="F39" t="n">
-        <v>2035.7068</v>
+        <v>30</v>
       </c>
       <c r="G39" t="n">
-        <v>-309343.2180000001</v>
+        <v>18.88</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="C40" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="D40" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="E40" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="F40" t="n">
-        <v>3882</v>
+        <v>1942.1658</v>
       </c>
       <c r="G40" t="n">
-        <v>-305461.2180000001</v>
+        <v>18.86</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="C41" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D41" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="E41" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="F41" t="n">
-        <v>520.8333333333334</v>
+        <v>62</v>
       </c>
       <c r="G41" t="n">
-        <v>-305461.2180000001</v>
+        <v>18.84</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="C42" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D42" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="E42" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F42" t="n">
-        <v>16365</v>
+        <v>14015</v>
       </c>
       <c r="G42" t="n">
-        <v>-305461.2180000001</v>
+        <v>18.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="C43" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D43" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="E43" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F43" t="n">
-        <v>17902.99296666666</v>
+        <v>142539.7363</v>
       </c>
       <c r="G43" t="n">
-        <v>-305461.2180000001</v>
+        <v>18.84000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,98 +1943,113 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="C44" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D44" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="E44" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F44" t="n">
-        <v>21140.52283333333</v>
+        <v>908.0145</v>
       </c>
       <c r="G44" t="n">
-        <v>-305461.2180000001</v>
+        <v>18.8</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K44" t="n">
+        <v>18.9</v>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="C45" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D45" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="E45" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F45" t="n">
-        <v>4975</v>
+        <v>26943.5929</v>
       </c>
       <c r="G45" t="n">
-        <v>-305461.2180000001</v>
+        <v>18.78000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="C46" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="F46" t="n">
-        <v>3559</v>
+        <v>118835.3467052632</v>
       </c>
       <c r="G46" t="n">
-        <v>-305461.2180000001</v>
+        <v>18.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,33 +2058,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C47" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D47" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E47" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F47" t="n">
-        <v>5232</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>-305461.2180000001</v>
+        <v>18.88</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2100,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C48" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="D48" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="E48" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F48" t="n">
-        <v>21576.08376666667</v>
+        <v>102</v>
       </c>
       <c r="G48" t="n">
-        <v>-283885.1342333334</v>
+        <v>18.92000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2142,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C49" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="D49" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="E49" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F49" t="n">
-        <v>25401.7744</v>
+        <v>788</v>
       </c>
       <c r="G49" t="n">
-        <v>-283885.1342333334</v>
+        <v>19</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,33 +2184,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="C50" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="D50" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="E50" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="F50" t="n">
-        <v>134997.6838</v>
+        <v>8472.057699999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-283885.1342333334</v>
+        <v>19.02</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,33 +2226,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="C51" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="D51" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="E51" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="F51" t="n">
-        <v>28669.768</v>
+        <v>1025.1726</v>
       </c>
       <c r="G51" t="n">
-        <v>-283885.1342333334</v>
+        <v>18.98</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2268,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="C52" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="D52" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="E52" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="F52" t="n">
-        <v>28082.8458</v>
+        <v>3844.7058</v>
       </c>
       <c r="G52" t="n">
-        <v>-255802.2884333334</v>
+        <v>18.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,33 +2310,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="C53" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D53" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="E53" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="F53" t="n">
-        <v>4000</v>
+        <v>1875.753</v>
       </c>
       <c r="G53" t="n">
-        <v>-259802.2884333334</v>
+        <v>18.86</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,33 +2352,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="C54" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>19.7</v>
+        <v>19</v>
       </c>
       <c r="E54" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F54" t="n">
-        <v>3035.641</v>
+        <v>5623.3371</v>
       </c>
       <c r="G54" t="n">
-        <v>-259802.2884333334</v>
+        <v>18.84</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,33 +2394,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="C55" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E55" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F55" t="n">
-        <v>12331</v>
+        <v>3784</v>
       </c>
       <c r="G55" t="n">
-        <v>-272133.2884333334</v>
+        <v>18.88</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2436,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C56" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>19.7</v>
+        <v>19</v>
       </c>
       <c r="E56" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F56" t="n">
-        <v>114891.587051269</v>
+        <v>12796.8723</v>
       </c>
       <c r="G56" t="n">
-        <v>-157241.7013820644</v>
+        <v>18.92000000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2478,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C57" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D57" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E57" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>14300</v>
       </c>
       <c r="G57" t="n">
-        <v>-157231.7013820644</v>
+        <v>19.02</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,21 +2520,28 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C58" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D58" t="n">
         <v>19.3</v>
@@ -2405,10 +2550,10 @@
         <v>19.2</v>
       </c>
       <c r="F58" t="n">
-        <v>5786</v>
+        <v>15</v>
       </c>
       <c r="G58" t="n">
-        <v>-163017.7013820644</v>
+        <v>19.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,33 +2562,40 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="C59" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="D59" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="E59" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="F59" t="n">
-        <v>197.7948717948718</v>
+        <v>11753.0335</v>
       </c>
       <c r="G59" t="n">
-        <v>-162819.9065102695</v>
+        <v>19.12</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,33 +2604,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C60" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="D60" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="E60" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="F60" t="n">
-        <v>117</v>
+        <v>11753.0336</v>
       </c>
       <c r="G60" t="n">
-        <v>-162936.9065102695</v>
+        <v>19.14</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,11 +2646,18 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2510,10 +2676,10 @@
         <v>19.3</v>
       </c>
       <c r="F61" t="n">
-        <v>291.5059</v>
+        <v>593</v>
       </c>
       <c r="G61" t="n">
-        <v>-162936.9065102695</v>
+        <v>19.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,33 +2688,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C62" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="D62" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="E62" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="F62" t="n">
-        <v>131.6312</v>
+        <v>27000</v>
       </c>
       <c r="G62" t="n">
-        <v>-162936.9065102695</v>
+        <v>19.18</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,11 +2730,18 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2580,10 +2760,10 @@
         <v>19.3</v>
       </c>
       <c r="F63" t="n">
-        <v>540</v>
+        <v>16000</v>
       </c>
       <c r="G63" t="n">
-        <v>-162936.9065102695</v>
+        <v>19.18</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,11 +2772,18 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2606,19 +2793,19 @@
         <v>19.4</v>
       </c>
       <c r="C64" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D64" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E64" t="n">
         <v>19.4</v>
       </c>
       <c r="F64" t="n">
-        <v>918</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-162018.9065102695</v>
+        <v>19.24</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,33 +2814,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C65" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D65" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E65" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F65" t="n">
-        <v>3824.1351</v>
+        <v>11200</v>
       </c>
       <c r="G65" t="n">
-        <v>-165843.0416102695</v>
+        <v>19.28</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,11 +2856,18 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2676,19 +2877,19 @@
         <v>19.3</v>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D66" t="n">
         <v>19.3</v>
       </c>
       <c r="E66" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="F66" t="n">
-        <v>2039</v>
+        <v>887.7976</v>
       </c>
       <c r="G66" t="n">
-        <v>-167882.0416102695</v>
+        <v>19.28</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,33 +2898,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C67" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D67" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E67" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="F67" t="n">
-        <v>58128.3053</v>
+        <v>51000</v>
       </c>
       <c r="G67" t="n">
-        <v>-167882.0416102695</v>
+        <v>19.32</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,33 +2940,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D68" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E68" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="F68" t="n">
-        <v>14598.3146</v>
+        <v>20200</v>
       </c>
       <c r="G68" t="n">
-        <v>-167882.0416102695</v>
+        <v>19.32</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,33 +2982,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C69" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D69" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E69" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F69" t="n">
-        <v>834</v>
+        <v>21513.1869</v>
       </c>
       <c r="G69" t="n">
-        <v>-167048.0416102695</v>
+        <v>19.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +3024,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C70" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="D70" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="E70" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F70" t="n">
-        <v>11365.3623</v>
+        <v>24994.0155</v>
       </c>
       <c r="G70" t="n">
-        <v>-155682.6793102695</v>
+        <v>19.34</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3066,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="C71" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="D71" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="E71" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="F71" t="n">
-        <v>520.8333</v>
+        <v>2000</v>
       </c>
       <c r="G71" t="n">
-        <v>-155161.8460102695</v>
+        <v>19.38</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +3108,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="C72" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="D72" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="E72" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="F72" t="n">
-        <v>10237</v>
+        <v>2000</v>
       </c>
       <c r="G72" t="n">
-        <v>-165398.8460102695</v>
+        <v>19.42</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3150,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="D73" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="E73" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="F73" t="n">
-        <v>181063.9994833333</v>
+        <v>64326.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>-346462.8454936028</v>
+        <v>19.46</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,33 +3192,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="D74" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="E74" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="F74" t="n">
-        <v>36558.0574</v>
+        <v>33372.7686</v>
       </c>
       <c r="G74" t="n">
-        <v>-346462.8454936028</v>
+        <v>19.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3234,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="D75" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="E75" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="F75" t="n">
-        <v>219561.6842</v>
+        <v>115</v>
       </c>
       <c r="G75" t="n">
-        <v>-346462.8454936028</v>
+        <v>19.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,33 +3276,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="C76" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="D76" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="E76" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="F76" t="n">
-        <v>11213</v>
+        <v>110637.7619</v>
       </c>
       <c r="G76" t="n">
-        <v>-357675.8454936028</v>
+        <v>19.54</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,33 +3318,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="C77" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="D77" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="E77" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="F77" t="n">
-        <v>1992</v>
+        <v>15331.2195</v>
       </c>
       <c r="G77" t="n">
-        <v>-357675.8454936028</v>
+        <v>19.56</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,33 +3360,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="D78" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="E78" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="F78" t="n">
-        <v>5263.157894736843</v>
+        <v>1585.6172</v>
       </c>
       <c r="G78" t="n">
-        <v>-352412.6875988659</v>
+        <v>19.58</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,33 +3402,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="C79" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="D79" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="E79" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="F79" t="n">
-        <v>78.5988</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>-352491.2863988659</v>
+        <v>19.62</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,33 +3444,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="C80" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D80" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="E80" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F80" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="G80" t="n">
-        <v>-354491.2863988659</v>
+        <v>19.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3486,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="C81" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="D81" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="E81" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>472.5389</v>
       </c>
       <c r="G81" t="n">
-        <v>-354461.2863988659</v>
+        <v>19.54</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,168 +3528,174 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="C82" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="D82" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="E82" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="F82" t="n">
-        <v>1942.1658</v>
+        <v>16783.9397</v>
       </c>
       <c r="G82" t="n">
-        <v>-356403.4521988659</v>
+        <v>19.5</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>18.9</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>18.9</v>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="C83" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="D83" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="E83" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="F83" t="n">
-        <v>62</v>
+        <v>30.5987</v>
       </c>
       <c r="G83" t="n">
-        <v>-356341.4521988659</v>
+        <v>19.46</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>18.9</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="C84" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D84" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="E84" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F84" t="n">
-        <v>14015</v>
+        <v>26000</v>
       </c>
       <c r="G84" t="n">
-        <v>-370356.4521988659</v>
+        <v>19.4</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>18.9</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>18.9</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="C85" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="D85" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="E85" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="F85" t="n">
-        <v>142539.7363</v>
+        <v>13924.8549</v>
       </c>
       <c r="G85" t="n">
-        <v>-227816.715898866</v>
+        <v>19.38</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>18.9</v>
       </c>
@@ -3395,28 +3707,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="C86" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D86" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="E86" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F86" t="n">
-        <v>908.0145</v>
+        <v>13931.7569</v>
       </c>
       <c r="G86" t="n">
-        <v>-228724.7303988659</v>
+        <v>19.38</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3436,38 +3749,37 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="C87" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="D87" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="E87" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="F87" t="n">
-        <v>26943.5929</v>
+        <v>402.5278</v>
       </c>
       <c r="G87" t="n">
-        <v>-228724.7303988659</v>
+        <v>19.36</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>18.9</v>
       </c>
@@ -3479,28 +3791,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="C88" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="D88" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="E88" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="F88" t="n">
-        <v>118835.3467052632</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>-109889.3836936027</v>
+        <v>19.36</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3520,28 +3833,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C89" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D89" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E89" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>25639.1388</v>
       </c>
       <c r="G89" t="n">
-        <v>-109879.3836936027</v>
+        <v>19.32</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3561,38 +3875,37 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C90" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D90" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E90" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F90" t="n">
-        <v>102</v>
+        <v>16800</v>
       </c>
       <c r="G90" t="n">
-        <v>-109879.3836936027</v>
+        <v>19.3</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>18.9</v>
       </c>
@@ -3604,6 +3917,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3622,10 +3936,10 @@
         <v>19.1</v>
       </c>
       <c r="F91" t="n">
-        <v>788</v>
+        <v>20240.7198</v>
       </c>
       <c r="G91" t="n">
-        <v>-109879.3836936027</v>
+        <v>19.24</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3645,28 +3959,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="C92" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="D92" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="E92" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="F92" t="n">
-        <v>8472.057699999999</v>
+        <v>909.2365</v>
       </c>
       <c r="G92" t="n">
-        <v>-118351.4413936027</v>
+        <v>19.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3686,38 +4001,37 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="C93" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="D93" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="E93" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="F93" t="n">
-        <v>1025.1726</v>
+        <v>486.2063</v>
       </c>
       <c r="G93" t="n">
-        <v>-118351.4413936027</v>
+        <v>19.14</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>18.9</v>
       </c>
@@ -3729,38 +4043,37 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="C94" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="D94" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="E94" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="F94" t="n">
-        <v>3844.7058</v>
+        <v>167619.2631</v>
       </c>
       <c r="G94" t="n">
-        <v>-122196.1471936027</v>
+        <v>19.1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>18.9</v>
       </c>
@@ -3772,28 +4085,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D95" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="E95" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F95" t="n">
-        <v>1875.753</v>
+        <v>1630.5</v>
       </c>
       <c r="G95" t="n">
-        <v>-120320.3941936027</v>
+        <v>19.06</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3813,6 +4127,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3831,10 +4146,10 @@
         <v>19</v>
       </c>
       <c r="F96" t="n">
-        <v>5623.3371</v>
+        <v>33727.6717</v>
       </c>
       <c r="G96" t="n">
-        <v>-114697.0570936027</v>
+        <v>19.04</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3854,28 +4169,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D97" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E97" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F97" t="n">
-        <v>3784</v>
+        <v>32.4201</v>
       </c>
       <c r="G97" t="n">
-        <v>-114697.0570936027</v>
+        <v>19.00000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3895,28 +4211,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C98" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D98" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E98" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F98" t="n">
-        <v>12796.8723</v>
+        <v>25200</v>
       </c>
       <c r="G98" t="n">
-        <v>-114697.0570936027</v>
+        <v>19.02</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3936,13 +4253,14 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C99" t="n">
         <v>19.2</v>
@@ -3951,13 +4269,13 @@
         <v>19.2</v>
       </c>
       <c r="E99" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F99" t="n">
-        <v>14300</v>
+        <v>15105</v>
       </c>
       <c r="G99" t="n">
-        <v>-100397.0570936027</v>
+        <v>19.06000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3977,28 +4295,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C100" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D100" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E100" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F100" t="n">
-        <v>15</v>
+        <v>26000</v>
       </c>
       <c r="G100" t="n">
-        <v>-100382.0570936027</v>
+        <v>19.14</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4018,28 +4337,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="C101" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="D101" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="E101" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="F101" t="n">
-        <v>11753.0335</v>
+        <v>35121</v>
       </c>
       <c r="G101" t="n">
-        <v>-112135.0905936027</v>
+        <v>19.22000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4059,28 +4379,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="C102" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="D102" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="E102" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="F102" t="n">
-        <v>11753.0336</v>
+        <v>6177</v>
       </c>
       <c r="G102" t="n">
-        <v>-112135.0905936027</v>
+        <v>19.34</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4100,28 +4421,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C103" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D103" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E103" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F103" t="n">
-        <v>593</v>
+        <v>52720.4138</v>
       </c>
       <c r="G103" t="n">
-        <v>-111542.0905936027</v>
+        <v>19.38</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4141,28 +4463,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="C104" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="D104" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="E104" t="n">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="F104" t="n">
-        <v>27000</v>
+        <v>7328.5714</v>
       </c>
       <c r="G104" t="n">
-        <v>-138542.0905936027</v>
+        <v>19.48</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4182,28 +4505,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="C105" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="D105" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="E105" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="F105" t="n">
-        <v>16000</v>
+        <v>73000</v>
       </c>
       <c r="G105" t="n">
-        <v>-122542.0905936027</v>
+        <v>19.56</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4223,28 +4547,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>19.4</v>
+        <v>19.9</v>
       </c>
       <c r="C106" t="n">
-        <v>19.4</v>
+        <v>19.9</v>
       </c>
       <c r="D106" t="n">
-        <v>19.4</v>
+        <v>19.9</v>
       </c>
       <c r="E106" t="n">
-        <v>19.4</v>
+        <v>19.9</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>7178.1909</v>
       </c>
       <c r="G106" t="n">
-        <v>-122532.0905936027</v>
+        <v>19.66</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4264,28 +4589,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="C107" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="D107" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="E107" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="F107" t="n">
-        <v>11200</v>
+        <v>1851.1</v>
       </c>
       <c r="G107" t="n">
-        <v>-133732.0905936027</v>
+        <v>19.76</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4305,34 +4631,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="C108" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="D108" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="E108" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="F108" t="n">
-        <v>887.7976</v>
+        <v>33907.8674</v>
       </c>
       <c r="G108" t="n">
-        <v>-133732.0905936027</v>
+        <v>19.88</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
@@ -4340,11 +4667,14 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>1.053201058201058</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1.053475935828877</v>
       </c>
     </row>
     <row r="109">
@@ -4352,432 +4682,382 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="C109" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="D109" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="E109" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="F109" t="n">
-        <v>51000</v>
+        <v>71932.19620000001</v>
       </c>
       <c r="G109" t="n">
-        <v>-133732.0905936027</v>
+        <v>19.92</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="C110" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="D110" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="E110" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="F110" t="n">
-        <v>20200</v>
+        <v>146134.4284</v>
       </c>
       <c r="G110" t="n">
-        <v>-133732.0905936027</v>
+        <v>19.92</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="D111" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="E111" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="F111" t="n">
-        <v>21513.1869</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-133732.0905936027</v>
+        <v>19.94</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="C112" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="D112" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="E112" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="F112" t="n">
-        <v>24994.0155</v>
+        <v>25800</v>
       </c>
       <c r="G112" t="n">
-        <v>-108738.0750936027</v>
+        <v>19.88</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="C113" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="D113" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="E113" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>870.5657</v>
       </c>
       <c r="G113" t="n">
-        <v>-108738.0750936027</v>
+        <v>19.84</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="C114" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="D114" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="E114" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="F114" t="n">
-        <v>2000</v>
+        <v>41414.1903</v>
       </c>
       <c r="G114" t="n">
-        <v>-108738.0750936027</v>
+        <v>19.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="C115" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="D115" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="E115" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="F115" t="n">
-        <v>64326.9999</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>-108738.0750936027</v>
+        <v>19.82000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C116" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D116" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E116" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F116" t="n">
-        <v>33372.7686</v>
+        <v>398.4721</v>
       </c>
       <c r="G116" t="n">
-        <v>-108738.0750936027</v>
+        <v>19.74000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C117" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D117" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E117" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F117" t="n">
-        <v>115</v>
+        <v>9601.5278</v>
       </c>
       <c r="G117" t="n">
-        <v>-108738.0750936027</v>
+        <v>19.72000000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C118" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D118" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E118" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="F118" t="n">
-        <v>110637.7619</v>
+        <v>0.0001</v>
       </c>
       <c r="G118" t="n">
-        <v>1899.686806397265</v>
+        <v>19.68000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C119" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D119" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E119" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F119" t="n">
-        <v>15331.2195</v>
+        <v>472.0937</v>
       </c>
       <c r="G119" t="n">
-        <v>-13431.53269360273</v>
+        <v>19.64000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4786,24 +5066,19 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="C120" t="n">
         <v>19.6</v>
@@ -4812,13 +5087,13 @@
         <v>19.6</v>
       </c>
       <c r="E120" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="F120" t="n">
-        <v>1585.6172</v>
+        <v>572.0937</v>
       </c>
       <c r="G120" t="n">
-        <v>-13431.53269360273</v>
+        <v>19.58000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4827,39 +5102,34 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C121" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D121" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E121" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>9153.469300000001</v>
       </c>
       <c r="G121" t="n">
-        <v>-13421.53269360273</v>
+        <v>19.58000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4868,17 +5138,12 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4897,10 +5162,10 @@
         <v>19.4</v>
       </c>
       <c r="F122" t="n">
-        <v>7000</v>
+        <v>2414.3789</v>
       </c>
       <c r="G122" t="n">
-        <v>-20421.53269360273</v>
+        <v>19.54000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4909,39 +5174,34 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C123" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="D123" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="E123" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F123" t="n">
-        <v>472.5389</v>
+        <v>461.5879</v>
       </c>
       <c r="G123" t="n">
-        <v>-20421.53269360273</v>
+        <v>19.44000000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4950,39 +5210,34 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="C124" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D124" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E124" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="F124" t="n">
-        <v>16783.9397</v>
+        <v>4066</v>
       </c>
       <c r="G124" t="n">
-        <v>-20421.53269360273</v>
+        <v>19.38000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4991,39 +5246,34 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C125" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="D125" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="E125" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F125" t="n">
-        <v>30.5987</v>
+        <v>2375.4504</v>
       </c>
       <c r="G125" t="n">
-        <v>-20421.53269360273</v>
+        <v>19.28000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5032,39 +5282,34 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="C126" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D126" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E126" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="F126" t="n">
-        <v>26000</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>-20421.53269360273</v>
+        <v>19.20000000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5073,39 +5318,34 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C127" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D127" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E127" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F127" t="n">
-        <v>13924.8549</v>
+        <v>398.7911</v>
       </c>
       <c r="G127" t="n">
-        <v>-34346.38759360273</v>
+        <v>19.12000000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5114,39 +5354,34 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C128" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D128" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E128" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F128" t="n">
-        <v>13931.7569</v>
+        <v>3013.8399</v>
       </c>
       <c r="G128" t="n">
-        <v>-20414.63069360273</v>
+        <v>19.16000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5155,39 +5390,34 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C129" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D129" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E129" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F129" t="n">
-        <v>402.5278</v>
+        <v>1000</v>
       </c>
       <c r="G129" t="n">
-        <v>-20817.15849360273</v>
+        <v>19.12000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5196,39 +5426,34 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C130" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D130" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E130" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F130" t="n">
         <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>-20807.15849360273</v>
+        <v>19.16000000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5237,39 +5462,34 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="C131" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D131" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E131" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F131" t="n">
-        <v>25639.1388</v>
+        <v>2269.5304</v>
       </c>
       <c r="G131" t="n">
-        <v>-46446.29729360274</v>
+        <v>19.12000000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5278,39 +5498,34 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="C132" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D132" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E132" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F132" t="n">
-        <v>16800</v>
+        <v>3491.6555</v>
       </c>
       <c r="G132" t="n">
-        <v>-46446.29729360274</v>
+        <v>19.18000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5319,39 +5534,34 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="C133" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="D133" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="E133" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="F133" t="n">
-        <v>20240.7198</v>
+        <v>1337.6697</v>
       </c>
       <c r="G133" t="n">
-        <v>-66687.01709360274</v>
+        <v>19.10000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5360,39 +5570,34 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C134" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D134" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E134" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F134" t="n">
-        <v>909.2365</v>
+        <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>-66687.01709360274</v>
+        <v>19.16000000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5401,39 +5606,34 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="C135" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="D135" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="E135" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="F135" t="n">
-        <v>486.2063</v>
+        <v>50482.6954</v>
       </c>
       <c r="G135" t="n">
-        <v>-66687.01709360274</v>
+        <v>19.06000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5442,17 +5642,12 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5462,19 +5657,19 @@
         <v>19.1</v>
       </c>
       <c r="C136" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D136" t="n">
         <v>19.1</v>
       </c>
       <c r="E136" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F136" t="n">
-        <v>167619.2631</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>-234306.2801936028</v>
+        <v>19.08000000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5483,39 +5678,34 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C137" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="D137" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E137" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="F137" t="n">
-        <v>1630.5</v>
+        <v>1704.06</v>
       </c>
       <c r="G137" t="n">
-        <v>-234306.2801936028</v>
+        <v>18.98000000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5524,39 +5714,34 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="C138" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D138" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E138" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="F138" t="n">
-        <v>33727.6717</v>
+        <v>202158.5762</v>
       </c>
       <c r="G138" t="n">
-        <v>-234306.2801936028</v>
+        <v>18.98000000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5565,39 +5750,34 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="C139" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="D139" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="E139" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="F139" t="n">
-        <v>32.4201</v>
+        <v>18249.1468</v>
       </c>
       <c r="G139" t="n">
-        <v>-234338.7002936027</v>
+        <v>18.86000000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5606,39 +5786,34 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="C140" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="D140" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="E140" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="F140" t="n">
-        <v>25200</v>
+        <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>-209138.7002936027</v>
+        <v>18.86000000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5647,39 +5822,34 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="C141" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D141" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="E141" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="F141" t="n">
-        <v>15105</v>
+        <v>801</v>
       </c>
       <c r="G141" t="n">
-        <v>-209138.7002936027</v>
+        <v>18.82000000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5688,39 +5858,34 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C142" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="D142" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="E142" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="F142" t="n">
-        <v>26000</v>
+        <v>8739.2063</v>
       </c>
       <c r="G142" t="n">
-        <v>-183138.7002936027</v>
+        <v>18.84000000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5729,39 +5894,34 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="C143" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="D143" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="E143" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="F143" t="n">
-        <v>35121</v>
+        <v>422.1784</v>
       </c>
       <c r="G143" t="n">
-        <v>-183138.7002936027</v>
+        <v>18.82000000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5770,39 +5930,34 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="C144" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="D144" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="E144" t="n">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="F144" t="n">
-        <v>6177</v>
+        <v>3522.8859</v>
       </c>
       <c r="G144" t="n">
-        <v>-176961.7002936027</v>
+        <v>18.82000000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5811,39 +5966,34 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="C145" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="D145" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="E145" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="F145" t="n">
-        <v>52720.4138</v>
+        <v>3172</v>
       </c>
       <c r="G145" t="n">
-        <v>-229682.1140936028</v>
+        <v>18.80000000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5852,39 +6002,34 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="C146" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="D146" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="E146" t="n">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="F146" t="n">
-        <v>7328.5714</v>
+        <v>7253.7046</v>
       </c>
       <c r="G146" t="n">
-        <v>-222353.5426936028</v>
+        <v>18.76000000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5893,39 +6038,34 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="C147" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="D147" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="E147" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="F147" t="n">
-        <v>73000</v>
+        <v>2701.3978</v>
       </c>
       <c r="G147" t="n">
-        <v>-149353.5426936028</v>
+        <v>18.72000000000002</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5934,39 +6074,34 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="C148" t="n">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="D148" t="n">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="E148" t="n">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="F148" t="n">
-        <v>7178.1909</v>
+        <v>15468.1419</v>
       </c>
       <c r="G148" t="n">
-        <v>-142175.3517936028</v>
+        <v>18.70000000000002</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5975,86 +6110,76 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="C149" t="n">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="D149" t="n">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="E149" t="n">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="F149" t="n">
-        <v>1851.1</v>
+        <v>2354.1818</v>
       </c>
       <c r="G149" t="n">
-        <v>-140324.2517936028</v>
+        <v>18.70000000000002</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>1.053201058201058</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="C150" t="n">
-        <v>20</v>
+        <v>18.6</v>
       </c>
       <c r="D150" t="n">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="E150" t="n">
-        <v>20</v>
+        <v>18.6</v>
       </c>
       <c r="F150" t="n">
-        <v>33907.8674</v>
+        <v>41600</v>
       </c>
       <c r="G150" t="n">
-        <v>-140324.2517936028</v>
+        <v>18.68000000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -6062,34 +6187,35 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="C151" t="n">
-        <v>19.9</v>
+        <v>18.5</v>
       </c>
       <c r="D151" t="n">
-        <v>19.9</v>
+        <v>18.5</v>
       </c>
       <c r="E151" t="n">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="F151" t="n">
-        <v>71932.19620000001</v>
+        <v>7160.2454</v>
       </c>
       <c r="G151" t="n">
-        <v>-212256.4479936028</v>
+        <v>18.64000000000001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -6097,34 +6223,35 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="C152" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="D152" t="n">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="E152" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="F152" t="n">
-        <v>146134.4284</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>-358390.8763936028</v>
+        <v>18.64000000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -6132,98 +6259,113 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="C153" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="D153" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="E153" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="F153" t="n">
-        <v>10</v>
+        <v>1846.4722</v>
       </c>
       <c r="G153" t="n">
-        <v>-358380.8763936028</v>
+        <v>18.60000000000002</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K153" t="n">
+        <v>18.7</v>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="C154" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="D154" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="E154" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="F154" t="n">
-        <v>25800</v>
+        <v>10</v>
       </c>
       <c r="G154" t="n">
-        <v>-384180.8763936028</v>
+        <v>18.60000000000002</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K154" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="C155" t="n">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="D155" t="n">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="E155" t="n">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="F155" t="n">
-        <v>870.5657</v>
+        <v>5884.826</v>
       </c>
       <c r="G155" t="n">
-        <v>-383310.3106936028</v>
+        <v>18.58000000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6232,33 +6374,40 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>19.7</v>
+        <v>18.4</v>
       </c>
       <c r="C156" t="n">
-        <v>19.7</v>
+        <v>18.4</v>
       </c>
       <c r="D156" t="n">
-        <v>19.7</v>
+        <v>18.4</v>
       </c>
       <c r="E156" t="n">
-        <v>19.7</v>
+        <v>18.4</v>
       </c>
       <c r="F156" t="n">
-        <v>41414.1903</v>
+        <v>9316.303099999999</v>
       </c>
       <c r="G156" t="n">
-        <v>-424724.5009936029</v>
+        <v>18.56000000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6272,28 +6421,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>19.9</v>
+        <v>18.6</v>
       </c>
       <c r="C157" t="n">
-        <v>19.9</v>
+        <v>18.6</v>
       </c>
       <c r="D157" t="n">
-        <v>19.9</v>
+        <v>18.6</v>
       </c>
       <c r="E157" t="n">
-        <v>19.9</v>
+        <v>18.6</v>
       </c>
       <c r="F157" t="n">
         <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>-424714.5009936029</v>
+        <v>18.54000000000001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6307,28 +6457,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>19.6</v>
+        <v>18.3</v>
       </c>
       <c r="C158" t="n">
-        <v>19.6</v>
+        <v>18.3</v>
       </c>
       <c r="D158" t="n">
-        <v>19.6</v>
+        <v>18.3</v>
       </c>
       <c r="E158" t="n">
-        <v>19.6</v>
+        <v>18.3</v>
       </c>
       <c r="F158" t="n">
-        <v>398.4721</v>
+        <v>48338.3259</v>
       </c>
       <c r="G158" t="n">
-        <v>-425112.9730936029</v>
+        <v>18.50000000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6342,28 +6493,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>19.6</v>
+        <v>18.3</v>
       </c>
       <c r="C159" t="n">
-        <v>19.6</v>
+        <v>18.2</v>
       </c>
       <c r="D159" t="n">
-        <v>19.6</v>
+        <v>18.3</v>
       </c>
       <c r="E159" t="n">
-        <v>19.6</v>
+        <v>18.2</v>
       </c>
       <c r="F159" t="n">
-        <v>9601.5278</v>
+        <v>26144.2621</v>
       </c>
       <c r="G159" t="n">
-        <v>-425112.9730936029</v>
+        <v>18.40000000000001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6377,1671 +6529,135 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>19.6</v>
+        <v>18.2</v>
       </c>
       <c r="C160" t="n">
-        <v>19.6</v>
+        <v>18.2</v>
       </c>
       <c r="D160" t="n">
-        <v>19.6</v>
+        <v>18.2</v>
       </c>
       <c r="E160" t="n">
-        <v>19.6</v>
+        <v>18.2</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0001</v>
+        <v>1728.7692</v>
       </c>
       <c r="G160" t="n">
-        <v>-425112.9730936029</v>
+        <v>18.34000000000001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K160" t="n">
+        <v>18.2</v>
+      </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="C161" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="D161" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="E161" t="n">
-        <v>19.5</v>
+        <v>18.4</v>
       </c>
       <c r="F161" t="n">
-        <v>472.0937</v>
+        <v>24737.5376</v>
       </c>
       <c r="G161" t="n">
-        <v>-425585.0667936029</v>
+        <v>18.36000000000001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K161" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>19.4</v>
+        <v>18.5</v>
       </c>
       <c r="C162" t="n">
-        <v>19.6</v>
+        <v>18.5</v>
       </c>
       <c r="D162" t="n">
-        <v>19.6</v>
+        <v>18.5</v>
       </c>
       <c r="E162" t="n">
-        <v>19.4</v>
+        <v>18.5</v>
       </c>
       <c r="F162" t="n">
-        <v>572.0937</v>
+        <v>3683.7667</v>
       </c>
       <c r="G162" t="n">
-        <v>-425012.9730936029</v>
+        <v>18.34000000000001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K162" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="C163" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D163" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E163" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="F163" t="n">
-        <v>9153.469300000001</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-425012.9730936029</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C164" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D164" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E164" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2414.3789</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-427427.3519936029</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E165" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F165" t="n">
-        <v>461.5879</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-427888.9398936029</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C166" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D166" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E166" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F166" t="n">
-        <v>4066</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-423822.9398936029</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E167" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2375.4504</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-426198.3902936028</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C168" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D168" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E168" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F168" t="n">
-        <v>10</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-426188.3902936028</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>19</v>
-      </c>
-      <c r="C169" t="n">
-        <v>19</v>
-      </c>
-      <c r="D169" t="n">
-        <v>19</v>
-      </c>
-      <c r="E169" t="n">
-        <v>19</v>
-      </c>
-      <c r="F169" t="n">
-        <v>398.7911</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-426587.1813936028</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D170" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E170" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F170" t="n">
-        <v>3013.8399</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-423573.3414936028</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>19</v>
-      </c>
-      <c r="C171" t="n">
-        <v>19</v>
-      </c>
-      <c r="D171" t="n">
-        <v>19</v>
-      </c>
-      <c r="E171" t="n">
-        <v>19</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-424573.3414936028</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C172" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D172" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E172" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F172" t="n">
-        <v>10</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-424563.3414936028</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>19</v>
-      </c>
-      <c r="C173" t="n">
-        <v>19</v>
-      </c>
-      <c r="D173" t="n">
-        <v>19</v>
-      </c>
-      <c r="E173" t="n">
-        <v>19</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2269.5304</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-426832.8718936028</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>19</v>
-      </c>
-      <c r="C174" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D174" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E174" t="n">
-        <v>19</v>
-      </c>
-      <c r="F174" t="n">
-        <v>3491.6555</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-423341.2163936028</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C175" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D175" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E175" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1337.6697</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-424678.8860936028</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D176" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E176" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F176" t="n">
-        <v>10</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-424668.8860936028</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C177" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D177" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E177" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F177" t="n">
-        <v>50482.6954</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-475151.5814936028</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C178" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D178" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E178" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F178" t="n">
-        <v>10</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-475141.5814936028</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C179" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D179" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E179" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1704.06</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-476845.6414936028</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C180" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D180" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E180" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F180" t="n">
-        <v>202158.5762</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-274687.0652936028</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C181" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F181" t="n">
-        <v>18249.1468</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-292936.2120936028</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C182" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D182" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="E182" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F182" t="n">
-        <v>10</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-292926.2120936028</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C183" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D183" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E183" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F183" t="n">
-        <v>801</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-292125.2120936028</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C184" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E184" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F184" t="n">
-        <v>8739.2063</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-292125.2120936028</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C185" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D185" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="E185" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F185" t="n">
-        <v>422.1784</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-292547.3904936028</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C186" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D186" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E186" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F186" t="n">
-        <v>3522.8859</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C187" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D187" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E187" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F187" t="n">
-        <v>3172</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C188" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D188" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E188" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F188" t="n">
-        <v>7253.7046</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C189" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D189" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E189" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F189" t="n">
-        <v>2701.3978</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C190" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D190" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E190" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F190" t="n">
-        <v>15468.1419</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C191" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D191" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E191" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2354.1818</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K191" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C192" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="D192" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E192" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F192" t="n">
-        <v>41600</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-337670.2763936028</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K192" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="C193" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D193" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E193" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F193" t="n">
-        <v>7160.2454</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-344830.5217936028</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K193" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C194" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D194" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E194" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F194" t="n">
-        <v>10</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-344820.5217936028</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K194" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="C195" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D195" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E195" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1846.4722</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-346666.9939936028</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K195" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C196" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D196" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E196" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F196" t="n">
-        <v>10</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-346656.9939936028</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="C197" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D197" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E197" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F197" t="n">
-        <v>5884.826</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-352541.8199936028</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="C198" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="D198" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="E198" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F198" t="n">
-        <v>9316.303099999999</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-361858.1230936028</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="C199" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="D199" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="E199" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F199" t="n">
-        <v>10</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-361848.1230936028</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="C200" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="D200" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="F200" t="n">
-        <v>48338.3259</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-410186.4489936028</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="C201" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D201" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="E201" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F201" t="n">
-        <v>26144.2621</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-436330.7110936028</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C202" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D202" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E202" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1728.7692</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-436330.7110936028</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="C203" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D203" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E203" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F203" t="n">
-        <v>24737.5376</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-411593.1734936028</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="C204" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D204" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E204" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F204" t="n">
-        <v>3683.7667</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-411593.1734936028</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest CMT.xlsx
+++ b/BackTest/2019-10-26 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:N233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="C2" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D2" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="F2" t="n">
-        <v>21140.52283333333</v>
+        <v>16497</v>
       </c>
       <c r="G2" t="n">
-        <v>19.20000000000001</v>
+        <v>-191782.5089</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="D3" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="E3" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="F3" t="n">
-        <v>4975</v>
+        <v>2127.6128</v>
       </c>
       <c r="G3" t="n">
-        <v>19.20000000000001</v>
+        <v>-193910.1217</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.9</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="C4" t="n">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="D4" t="n">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="E4" t="n">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="F4" t="n">
-        <v>3559</v>
+        <v>492.521</v>
       </c>
       <c r="G4" t="n">
-        <v>19.20000000000001</v>
+        <v>-193417.6007</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="C5" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="D5" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="E5" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="F5" t="n">
-        <v>5232</v>
+        <v>1585.3775</v>
       </c>
       <c r="G5" t="n">
-        <v>19.20000000000001</v>
+        <v>-195002.9782</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="C6" t="n">
-        <v>19.4</v>
+        <v>18.3</v>
       </c>
       <c r="D6" t="n">
-        <v>19.4</v>
+        <v>18.4</v>
       </c>
       <c r="E6" t="n">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="F6" t="n">
-        <v>21576.08376666667</v>
+        <v>13800</v>
       </c>
       <c r="G6" t="n">
-        <v>19.24000000000001</v>
+        <v>-208802.9782</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.4</v>
+        <v>18.5</v>
       </c>
       <c r="C7" t="n">
-        <v>19.4</v>
+        <v>18.5</v>
       </c>
       <c r="D7" t="n">
-        <v>19.4</v>
+        <v>18.5</v>
       </c>
       <c r="E7" t="n">
-        <v>19.4</v>
+        <v>18.5</v>
       </c>
       <c r="F7" t="n">
-        <v>25401.7744</v>
+        <v>465.7972</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28000000000001</v>
+        <v>-208337.181</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +690,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="C8" t="n">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="D8" t="n">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="E8" t="n">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="F8" t="n">
-        <v>134997.6838</v>
+        <v>1605.4409</v>
       </c>
       <c r="G8" t="n">
-        <v>19.32000000000001</v>
+        <v>-206731.7401</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +734,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="C9" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="D9" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="E9" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="F9" t="n">
-        <v>28669.768</v>
+        <v>13000</v>
       </c>
       <c r="G9" t="n">
-        <v>19.36000000000001</v>
+        <v>-193731.7401</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +778,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="C10" t="n">
-        <v>19.7</v>
+        <v>18.6</v>
       </c>
       <c r="D10" t="n">
-        <v>19.7</v>
+        <v>18.6</v>
       </c>
       <c r="E10" t="n">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="F10" t="n">
-        <v>28082.8458</v>
+        <v>31175.5303</v>
       </c>
       <c r="G10" t="n">
-        <v>19.46</v>
+        <v>-224907.2704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +802,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +820,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="C11" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D11" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="E11" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F11" t="n">
-        <v>4000</v>
+        <v>26685.007</v>
       </c>
       <c r="G11" t="n">
-        <v>19.42000000000001</v>
+        <v>-198222.2634</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +844,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +862,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="C12" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D12" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="E12" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F12" t="n">
-        <v>3035.641</v>
+        <v>13000</v>
       </c>
       <c r="G12" t="n">
-        <v>19.38000000000001</v>
+        <v>-198222.2634</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +886,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +904,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="C13" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="D13" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="E13" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="F13" t="n">
-        <v>12331</v>
+        <v>45019.3851</v>
       </c>
       <c r="G13" t="n">
-        <v>19.32</v>
+        <v>-153202.8783</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +928,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +946,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="C14" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D14" t="n">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="E14" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="F14" t="n">
-        <v>114891.587051269</v>
+        <v>10400</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28000000000001</v>
+        <v>-142802.8783</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +970,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +988,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="C15" t="n">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="D15" t="n">
-        <v>19.4</v>
+        <v>18.7</v>
       </c>
       <c r="E15" t="n">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>323362.9834</v>
       </c>
       <c r="G15" t="n">
-        <v>19.22000000000001</v>
+        <v>-466165.8617</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1012,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1030,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C16" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D16" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E16" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="F16" t="n">
-        <v>5786</v>
+        <v>335644.9206</v>
       </c>
       <c r="G16" t="n">
-        <v>19.22000000000001</v>
+        <v>-130520.9411</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1054,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1072,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19.5</v>
+        <v>18.8</v>
       </c>
       <c r="C17" t="n">
-        <v>19.5</v>
+        <v>18.8</v>
       </c>
       <c r="D17" t="n">
-        <v>19.5</v>
+        <v>18.8</v>
       </c>
       <c r="E17" t="n">
-        <v>19.5</v>
+        <v>18.8</v>
       </c>
       <c r="F17" t="n">
-        <v>197.7948717948718</v>
+        <v>9000</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28000000000001</v>
+        <v>-139520.9411</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1096,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1114,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="C18" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="D18" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="E18" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="F18" t="n">
-        <v>117</v>
+        <v>17881.7203</v>
       </c>
       <c r="G18" t="n">
-        <v>19.32</v>
+        <v>-139520.9411</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1138,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1156,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C19" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="D19" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E19" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="F19" t="n">
-        <v>291.5059</v>
+        <v>67427.143</v>
       </c>
       <c r="G19" t="n">
-        <v>19.34</v>
+        <v>-72093.7981</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1180,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C20" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="D20" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E20" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="F20" t="n">
-        <v>131.6312</v>
+        <v>2225</v>
       </c>
       <c r="G20" t="n">
-        <v>19.32</v>
+        <v>-72093.7981</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1222,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1240,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="C21" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="D21" t="n">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="E21" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="F21" t="n">
-        <v>540</v>
+        <v>29813.611</v>
       </c>
       <c r="G21" t="n">
-        <v>19.34</v>
+        <v>-101907.4091</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1264,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1282,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="C22" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="D22" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="E22" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="F22" t="n">
-        <v>918</v>
+        <v>4289.0628</v>
       </c>
       <c r="G22" t="n">
-        <v>19.34</v>
+        <v>-97618.3463</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1306,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1324,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="C23" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="D23" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="F23" t="n">
-        <v>3824.1351</v>
+        <v>16416.7058</v>
       </c>
       <c r="G23" t="n">
-        <v>19.3</v>
+        <v>-97618.3463</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1348,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1366,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D24" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F24" t="n">
-        <v>2039</v>
+        <v>1993.3838</v>
       </c>
       <c r="G24" t="n">
-        <v>19.24</v>
+        <v>-97618.3463</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1390,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1408,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
         <v>19</v>
       </c>
       <c r="F25" t="n">
-        <v>58128.3053</v>
+        <v>7650</v>
       </c>
       <c r="G25" t="n">
-        <v>19.18</v>
+        <v>-89968.3463</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1432,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1450,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="D26" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="F26" t="n">
-        <v>14598.3146</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="n">
-        <v>19.12</v>
+        <v>-93968.3463</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1474,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1492,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="C27" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="D27" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="E27" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="F27" t="n">
-        <v>834</v>
+        <v>23564.9788</v>
       </c>
       <c r="G27" t="n">
-        <v>19.04</v>
+        <v>-70403.36750000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1516,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1534,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="C28" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="D28" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="E28" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="F28" t="n">
-        <v>11365.3623</v>
+        <v>9903.4771</v>
       </c>
       <c r="G28" t="n">
-        <v>19.06</v>
+        <v>-80306.84460000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1558,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1576,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="C29" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="D29" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="E29" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="F29" t="n">
-        <v>520.8333</v>
+        <v>60171.2923</v>
       </c>
       <c r="G29" t="n">
-        <v>19.12</v>
+        <v>-140478.1369</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1600,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1618,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="C30" t="n">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="D30" t="n">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="E30" t="n">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="F30" t="n">
-        <v>10237</v>
+        <v>33174.3967</v>
       </c>
       <c r="G30" t="n">
-        <v>19.14</v>
+        <v>-173652.5336</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1642,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1660,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D31" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F31" t="n">
-        <v>181063.9994833333</v>
+        <v>28816</v>
       </c>
       <c r="G31" t="n">
-        <v>19.14</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1684,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1702,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="E32" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F32" t="n">
-        <v>36558.0574</v>
+        <v>1941.6791</v>
       </c>
       <c r="G32" t="n">
-        <v>19.12</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1726,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1744,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D33" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="E33" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F33" t="n">
-        <v>219561.6842</v>
+        <v>952</v>
       </c>
       <c r="G33" t="n">
-        <v>19.08000000000001</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1768,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1786,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="C34" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="D34" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="E34" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="F34" t="n">
-        <v>11213</v>
+        <v>735</v>
       </c>
       <c r="G34" t="n">
-        <v>19</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1810,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1828,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="C35" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="D35" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="E35" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="F35" t="n">
-        <v>1992</v>
+        <v>143.7525</v>
       </c>
       <c r="G35" t="n">
-        <v>18.96</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1852,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1870,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D36" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="E36" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F36" t="n">
-        <v>5263.157894736843</v>
+        <v>27582.8607</v>
       </c>
       <c r="G36" t="n">
-        <v>18.96</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1894,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1912,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="C37" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="D37" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="E37" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="F37" t="n">
-        <v>78.5988</v>
+        <v>9688.350399999999</v>
       </c>
       <c r="G37" t="n">
-        <v>18.94</v>
+        <v>-144836.5336</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,10 +1954,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C38" t="n">
         <v>18.8</v>
-      </c>
-      <c r="C38" t="n">
-        <v>18.7</v>
       </c>
       <c r="D38" t="n">
         <v>18.8</v>
@@ -1746,10 +1966,10 @@
         <v>18.7</v>
       </c>
       <c r="F38" t="n">
-        <v>2000</v>
+        <v>28728</v>
       </c>
       <c r="G38" t="n">
-        <v>18.88</v>
+        <v>-116108.5336</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1978,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1782,10 +2008,10 @@
         <v>18.9</v>
       </c>
       <c r="F39" t="n">
-        <v>30</v>
+        <v>6175.3023</v>
       </c>
       <c r="G39" t="n">
-        <v>18.88</v>
+        <v>-109933.2313</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2020,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2038,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="C40" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="E40" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>1942.1658</v>
+        <v>2552.8502</v>
       </c>
       <c r="G40" t="n">
-        <v>18.86</v>
+        <v>-107380.3811</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2062,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2080,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="C41" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="E41" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>62</v>
+        <v>5813.6158</v>
       </c>
       <c r="G41" t="n">
-        <v>18.84</v>
+        <v>-107380.3811</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2104,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2122,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="C42" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="D42" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="E42" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F42" t="n">
-        <v>14015</v>
+        <v>15693.4323</v>
       </c>
       <c r="G42" t="n">
-        <v>18.8</v>
+        <v>-91686.94880000003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2146,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2164,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="C43" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="D43" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="E43" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F43" t="n">
-        <v>142539.7363</v>
+        <v>171.806</v>
       </c>
       <c r="G43" t="n">
-        <v>18.84000000000001</v>
+        <v>-91686.94880000003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2188,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,36 +2206,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="C44" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="D44" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="E44" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F44" t="n">
-        <v>908.0145</v>
+        <v>1879</v>
       </c>
       <c r="G44" t="n">
-        <v>18.8</v>
+        <v>-89807.94880000003</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>18.9</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>18.9</v>
       </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1990,38 +2248,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="C45" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="D45" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="E45" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F45" t="n">
-        <v>26943.5929</v>
+        <v>2055.2222</v>
       </c>
       <c r="G45" t="n">
-        <v>18.78000000000001</v>
+        <v>-89807.94880000003</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>18.9</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -2034,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="C46" t="n">
         <v>19</v>
@@ -2043,13 +2299,13 @@
         <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F46" t="n">
-        <v>118835.3467052632</v>
+        <v>12457.8306</v>
       </c>
       <c r="G46" t="n">
-        <v>18.8</v>
+        <v>-102265.7794</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2076,22 +2332,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C47" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D47" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E47" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>12665</v>
       </c>
       <c r="G47" t="n">
-        <v>18.88</v>
+        <v>-89600.77940000003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2118,22 +2374,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C48" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D48" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E48" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F48" t="n">
-        <v>102</v>
+        <v>13000</v>
       </c>
       <c r="G48" t="n">
-        <v>18.92000000000001</v>
+        <v>-89600.77940000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2160,22 +2416,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C49" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D49" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E49" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F49" t="n">
-        <v>788</v>
+        <v>4166.6666</v>
       </c>
       <c r="G49" t="n">
-        <v>19</v>
+        <v>-89600.77940000003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2202,22 +2458,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="C50" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="D50" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="E50" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="F50" t="n">
-        <v>8472.057699999999</v>
+        <v>12735.1393</v>
       </c>
       <c r="G50" t="n">
-        <v>19.02</v>
+        <v>-76865.64010000003</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2244,22 +2500,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="C51" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="D51" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="E51" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="F51" t="n">
-        <v>1025.1726</v>
+        <v>1202.3589</v>
       </c>
       <c r="G51" t="n">
-        <v>18.98</v>
+        <v>-75663.28120000003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2286,22 +2542,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="C52" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D52" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="E52" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F52" t="n">
-        <v>3844.7058</v>
+        <v>1432.0618</v>
       </c>
       <c r="G52" t="n">
-        <v>18.9</v>
+        <v>-77095.34300000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2328,22 +2584,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="C53" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="D53" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="E53" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F53" t="n">
-        <v>1875.753</v>
+        <v>9000</v>
       </c>
       <c r="G53" t="n">
-        <v>18.86</v>
+        <v>-77095.34300000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2382,10 +2638,10 @@
         <v>19</v>
       </c>
       <c r="F54" t="n">
-        <v>5623.3371</v>
+        <v>8600</v>
       </c>
       <c r="G54" t="n">
-        <v>18.84</v>
+        <v>-85695.34300000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2412,22 +2668,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C55" t="n">
         <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E55" t="n">
         <v>19</v>
       </c>
       <c r="F55" t="n">
-        <v>3784</v>
+        <v>4534.4892</v>
       </c>
       <c r="G55" t="n">
-        <v>18.88</v>
+        <v>-85695.34300000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2454,22 +2710,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="D56" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E56" t="n">
-        <v>19</v>
+        <v>18.6</v>
       </c>
       <c r="F56" t="n">
-        <v>12796.8723</v>
+        <v>251525.791</v>
       </c>
       <c r="G56" t="n">
-        <v>18.92000000000001</v>
+        <v>-337221.134</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2496,22 +2752,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="C57" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E57" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="F57" t="n">
-        <v>14300</v>
+        <v>41402.7894</v>
       </c>
       <c r="G57" t="n">
-        <v>19.02</v>
+        <v>-295818.3446</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2538,22 +2794,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="C58" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="D58" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="E58" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F58" t="n">
-        <v>15</v>
+        <v>44646.1694</v>
       </c>
       <c r="G58" t="n">
-        <v>19.1</v>
+        <v>-340464.514</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2580,22 +2836,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="C59" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="D59" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="E59" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="F59" t="n">
-        <v>11753.0335</v>
+        <v>398.2842</v>
       </c>
       <c r="G59" t="n">
-        <v>19.12</v>
+        <v>-340066.2298</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2625,19 +2881,19 @@
         <v>19.1</v>
       </c>
       <c r="C60" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="D60" t="n">
         <v>19.1</v>
       </c>
       <c r="E60" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="F60" t="n">
-        <v>11753.0336</v>
+        <v>43328.2536</v>
       </c>
       <c r="G60" t="n">
-        <v>19.14</v>
+        <v>-383394.4834</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2664,22 +2920,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="C61" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="D61" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E61" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="F61" t="n">
-        <v>593</v>
+        <v>9150</v>
       </c>
       <c r="G61" t="n">
-        <v>19.2</v>
+        <v>-374244.4834</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2706,22 +2962,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C62" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
         <v>19.1</v>
       </c>
       <c r="E62" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F62" t="n">
-        <v>27000</v>
+        <v>131248.8218</v>
       </c>
       <c r="G62" t="n">
-        <v>19.18</v>
+        <v>-242995.6616</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2748,22 +3004,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E63" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F63" t="n">
-        <v>16000</v>
+        <v>4015</v>
       </c>
       <c r="G63" t="n">
-        <v>19.18</v>
+        <v>-242995.6616</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2790,22 +3046,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="C64" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D64" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E64" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="F64" t="n">
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>19.24</v>
+        <v>-242985.6616</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2832,22 +3088,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E65" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F65" t="n">
-        <v>11200</v>
+        <v>68393.2632</v>
       </c>
       <c r="G65" t="n">
-        <v>19.28</v>
+        <v>-311378.9248</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2874,22 +3130,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C66" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E66" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F66" t="n">
-        <v>887.7976</v>
+        <v>3290.9308</v>
       </c>
       <c r="G66" t="n">
-        <v>19.28</v>
+        <v>-311378.9248</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2916,22 +3172,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="C67" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E67" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F67" t="n">
-        <v>51000</v>
+        <v>8255.2577</v>
       </c>
       <c r="G67" t="n">
-        <v>19.32</v>
+        <v>-311378.9248</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2958,22 +3214,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C68" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="D68" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="E68" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="F68" t="n">
-        <v>20200</v>
+        <v>2035.7068</v>
       </c>
       <c r="G68" t="n">
-        <v>19.32</v>
+        <v>-309343.2180000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3000,22 +3256,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C69" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D69" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E69" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="F69" t="n">
-        <v>21513.1869</v>
+        <v>3882</v>
       </c>
       <c r="G69" t="n">
-        <v>19.3</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3042,22 +3298,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C70" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="D70" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E70" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F70" t="n">
-        <v>24994.0155</v>
+        <v>520.8333333333334</v>
       </c>
       <c r="G70" t="n">
-        <v>19.34</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3084,22 +3340,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="C71" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="D71" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E71" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="F71" t="n">
-        <v>2000</v>
+        <v>16365</v>
       </c>
       <c r="G71" t="n">
-        <v>19.38</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3126,22 +3382,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="C72" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="D72" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E72" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="F72" t="n">
-        <v>2000</v>
+        <v>17902.99296666666</v>
       </c>
       <c r="G72" t="n">
-        <v>19.42</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3168,22 +3424,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="C73" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="D73" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E73" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="F73" t="n">
-        <v>64326.9999</v>
+        <v>21140.52283333333</v>
       </c>
       <c r="G73" t="n">
-        <v>19.46</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3210,22 +3466,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="C74" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="D74" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E74" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="F74" t="n">
-        <v>33372.7686</v>
+        <v>4975</v>
       </c>
       <c r="G74" t="n">
-        <v>19.5</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3252,22 +3508,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="C75" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="D75" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E75" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="F75" t="n">
-        <v>115</v>
+        <v>3559</v>
       </c>
       <c r="G75" t="n">
-        <v>19.5</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3294,22 +3550,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="C76" t="n">
-        <v>19.7</v>
+        <v>19.2</v>
       </c>
       <c r="D76" t="n">
-        <v>19.7</v>
+        <v>19.2</v>
       </c>
       <c r="E76" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="F76" t="n">
-        <v>110637.7619</v>
+        <v>5232</v>
       </c>
       <c r="G76" t="n">
-        <v>19.54</v>
+        <v>-305461.2180000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3336,22 +3592,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="C77" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="D77" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="E77" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="F77" t="n">
-        <v>15331.2195</v>
+        <v>21576.08376666667</v>
       </c>
       <c r="G77" t="n">
-        <v>19.56</v>
+        <v>-283885.1342333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3378,22 +3634,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="C78" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="D78" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="E78" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="F78" t="n">
-        <v>1585.6172</v>
+        <v>25401.7744</v>
       </c>
       <c r="G78" t="n">
-        <v>19.58</v>
+        <v>-283885.1342333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3420,22 +3676,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="C79" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="D79" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="E79" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>134997.6838</v>
       </c>
       <c r="G79" t="n">
-        <v>19.62</v>
+        <v>-283885.1342333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3474,10 +3730,10 @@
         <v>19.4</v>
       </c>
       <c r="F80" t="n">
-        <v>7000</v>
+        <v>28669.768</v>
       </c>
       <c r="G80" t="n">
-        <v>19.6</v>
+        <v>-283885.1342333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3507,19 +3763,19 @@
         <v>19.4</v>
       </c>
       <c r="C81" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="D81" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="E81" t="n">
         <v>19.4</v>
       </c>
       <c r="F81" t="n">
-        <v>472.5389</v>
+        <v>28082.8458</v>
       </c>
       <c r="G81" t="n">
-        <v>19.54</v>
+        <v>-255802.2884333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3546,22 +3802,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="C82" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D82" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E82" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="F82" t="n">
-        <v>16783.9397</v>
+        <v>4000</v>
       </c>
       <c r="G82" t="n">
-        <v>19.5</v>
+        <v>-259802.2884333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3588,22 +3844,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="C83" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D83" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="E83" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="F83" t="n">
-        <v>30.5987</v>
+        <v>3035.641</v>
       </c>
       <c r="G83" t="n">
-        <v>19.46</v>
+        <v>-259802.2884333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3630,22 +3886,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="C84" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="D84" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E84" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F84" t="n">
-        <v>26000</v>
+        <v>12331</v>
       </c>
       <c r="G84" t="n">
-        <v>19.4</v>
+        <v>-272133.2884333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3675,19 +3931,19 @@
         <v>19.3</v>
       </c>
       <c r="C85" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D85" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="E85" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="F85" t="n">
-        <v>13924.8549</v>
+        <v>114891.587051269</v>
       </c>
       <c r="G85" t="n">
-        <v>19.38</v>
+        <v>-157241.7013820644</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3726,10 +3982,10 @@
         <v>19.4</v>
       </c>
       <c r="F86" t="n">
-        <v>13931.7569</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>19.38</v>
+        <v>-157231.7013820644</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3759,19 +4015,19 @@
         <v>19.3</v>
       </c>
       <c r="C87" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D87" t="n">
         <v>19.3</v>
       </c>
       <c r="E87" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F87" t="n">
-        <v>402.5278</v>
+        <v>5786</v>
       </c>
       <c r="G87" t="n">
-        <v>19.36</v>
+        <v>-163017.7013820644</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3798,22 +4054,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C88" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D88" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E88" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>197.7948717948718</v>
       </c>
       <c r="G88" t="n">
-        <v>19.36</v>
+        <v>-162819.9065102695</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3840,22 +4096,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C89" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D89" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E89" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F89" t="n">
-        <v>25639.1388</v>
+        <v>117</v>
       </c>
       <c r="G89" t="n">
-        <v>19.32</v>
+        <v>-162936.9065102695</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3882,22 +4138,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C90" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D90" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E90" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F90" t="n">
-        <v>16800</v>
+        <v>291.5059</v>
       </c>
       <c r="G90" t="n">
-        <v>19.3</v>
+        <v>-162936.9065102695</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3924,22 +4180,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C91" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D91" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E91" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F91" t="n">
-        <v>20240.7198</v>
+        <v>131.6312</v>
       </c>
       <c r="G91" t="n">
-        <v>19.24</v>
+        <v>-162936.9065102695</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3966,22 +4222,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C92" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D92" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E92" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F92" t="n">
-        <v>909.2365</v>
+        <v>540</v>
       </c>
       <c r="G92" t="n">
-        <v>19.2</v>
+        <v>-162936.9065102695</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4008,22 +4264,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="C93" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="D93" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="E93" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="F93" t="n">
-        <v>486.2063</v>
+        <v>918</v>
       </c>
       <c r="G93" t="n">
-        <v>19.14</v>
+        <v>-162018.9065102695</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4053,19 +4309,19 @@
         <v>19.1</v>
       </c>
       <c r="C94" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D94" t="n">
         <v>19.1</v>
       </c>
       <c r="E94" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F94" t="n">
-        <v>167619.2631</v>
+        <v>3824.1351</v>
       </c>
       <c r="G94" t="n">
-        <v>19.1</v>
+        <v>-165843.0416102695</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4092,22 +4348,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="C95" t="n">
         <v>19</v>
       </c>
       <c r="D95" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="E95" t="n">
         <v>19</v>
       </c>
       <c r="F95" t="n">
-        <v>1630.5</v>
+        <v>2039</v>
       </c>
       <c r="G95" t="n">
-        <v>19.06</v>
+        <v>-167882.0416102695</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4134,22 +4390,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C96" t="n">
         <v>19</v>
       </c>
       <c r="D96" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E96" t="n">
         <v>19</v>
       </c>
       <c r="F96" t="n">
-        <v>33727.6717</v>
+        <v>58128.3053</v>
       </c>
       <c r="G96" t="n">
-        <v>19.04</v>
+        <v>-167882.0416102695</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4179,19 +4435,19 @@
         <v>19.1</v>
       </c>
       <c r="C97" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D97" t="n">
         <v>19.1</v>
       </c>
       <c r="E97" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F97" t="n">
-        <v>32.4201</v>
+        <v>14598.3146</v>
       </c>
       <c r="G97" t="n">
-        <v>19.00000000000001</v>
+        <v>-167882.0416102695</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4221,19 +4477,19 @@
         <v>19.1</v>
       </c>
       <c r="C98" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D98" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E98" t="n">
         <v>19.1</v>
       </c>
       <c r="F98" t="n">
-        <v>25200</v>
+        <v>834</v>
       </c>
       <c r="G98" t="n">
-        <v>19.02</v>
+        <v>-167048.0416102695</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4260,7 +4516,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C99" t="n">
         <v>19.2</v>
@@ -4269,13 +4525,13 @@
         <v>19.2</v>
       </c>
       <c r="E99" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F99" t="n">
-        <v>15105</v>
+        <v>11365.3623</v>
       </c>
       <c r="G99" t="n">
-        <v>19.06000000000001</v>
+        <v>-155682.6793102695</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4305,19 +4561,19 @@
         <v>19.3</v>
       </c>
       <c r="C100" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D100" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E100" t="n">
         <v>19.3</v>
       </c>
       <c r="F100" t="n">
-        <v>26000</v>
+        <v>520.8333</v>
       </c>
       <c r="G100" t="n">
-        <v>19.14</v>
+        <v>-155161.8460102695</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4344,22 +4600,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C101" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="D101" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="E101" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F101" t="n">
-        <v>35121</v>
+        <v>10237</v>
       </c>
       <c r="G101" t="n">
-        <v>19.22000000000001</v>
+        <v>-165398.8460102695</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4386,22 +4642,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="C102" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="D102" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E102" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="F102" t="n">
-        <v>6177</v>
+        <v>181063.9994833333</v>
       </c>
       <c r="G102" t="n">
-        <v>19.34</v>
+        <v>-346462.8454936028</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4428,22 +4684,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="C103" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="E103" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="F103" t="n">
-        <v>52720.4138</v>
+        <v>36558.0574</v>
       </c>
       <c r="G103" t="n">
-        <v>19.38</v>
+        <v>-346462.8454936028</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4470,22 +4726,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="C104" t="n">
-        <v>19.7</v>
+        <v>19</v>
       </c>
       <c r="D104" t="n">
-        <v>19.7</v>
+        <v>19</v>
       </c>
       <c r="E104" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="F104" t="n">
-        <v>7328.5714</v>
+        <v>219561.6842</v>
       </c>
       <c r="G104" t="n">
-        <v>19.48</v>
+        <v>-346462.8454936028</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4512,22 +4768,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="C105" t="n">
-        <v>19.8</v>
+        <v>18.9</v>
       </c>
       <c r="D105" t="n">
-        <v>19.8</v>
+        <v>18.9</v>
       </c>
       <c r="E105" t="n">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="F105" t="n">
-        <v>73000</v>
+        <v>11213</v>
       </c>
       <c r="G105" t="n">
-        <v>19.56</v>
+        <v>-357675.8454936028</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4554,22 +4810,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="C106" t="n">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="D106" t="n">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="E106" t="n">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="F106" t="n">
-        <v>7178.1909</v>
+        <v>1992</v>
       </c>
       <c r="G106" t="n">
-        <v>19.66</v>
+        <v>-357675.8454936028</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4596,22 +4852,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F107" t="n">
-        <v>1851.1</v>
+        <v>5263.157894736843</v>
       </c>
       <c r="G107" t="n">
-        <v>19.76</v>
+        <v>-352412.6875988659</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4638,28 +4894,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="C108" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="D108" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="E108" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="F108" t="n">
-        <v>33907.8674</v>
+        <v>78.5988</v>
       </c>
       <c r="G108" t="n">
-        <v>19.88</v>
+        <v>-352491.2863988659</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
@@ -4667,47 +4923,51 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>1.053201058201058</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1.053475935828877</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19.8</v>
+        <v>18.8</v>
       </c>
       <c r="C109" t="n">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="D109" t="n">
-        <v>19.9</v>
+        <v>18.8</v>
       </c>
       <c r="E109" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="F109" t="n">
-        <v>71932.19620000001</v>
+        <v>2000</v>
       </c>
       <c r="G109" t="n">
-        <v>19.92</v>
+        <v>-354491.2863988659</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4718,32 +4978,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="C110" t="n">
-        <v>19.8</v>
+        <v>18.9</v>
       </c>
       <c r="D110" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="E110" t="n">
-        <v>19.8</v>
+        <v>18.9</v>
       </c>
       <c r="F110" t="n">
-        <v>146134.4284</v>
+        <v>30</v>
       </c>
       <c r="G110" t="n">
-        <v>19.92</v>
+        <v>-354461.2863988659</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4754,32 +5020,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="C111" t="n">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="D111" t="n">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="E111" t="n">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>1942.1658</v>
       </c>
       <c r="G111" t="n">
-        <v>19.94</v>
+        <v>-356403.4521988659</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4790,32 +5062,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>19.8</v>
+        <v>18.9</v>
       </c>
       <c r="C112" t="n">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="D112" t="n">
-        <v>19.8</v>
+        <v>18.9</v>
       </c>
       <c r="E112" t="n">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="F112" t="n">
-        <v>25800</v>
+        <v>62</v>
       </c>
       <c r="G112" t="n">
-        <v>19.88</v>
+        <v>-356341.4521988659</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4826,32 +5104,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>19.8</v>
+        <v>18.8</v>
       </c>
       <c r="C113" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="D113" t="n">
-        <v>19.8</v>
+        <v>18.8</v>
       </c>
       <c r="E113" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="F113" t="n">
-        <v>870.5657</v>
+        <v>14015</v>
       </c>
       <c r="G113" t="n">
-        <v>19.84</v>
+        <v>-370356.4521988659</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4862,32 +5146,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="C114" t="n">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="D114" t="n">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="E114" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="F114" t="n">
-        <v>41414.1903</v>
+        <v>142539.7363</v>
       </c>
       <c r="G114" t="n">
-        <v>19.8</v>
+        <v>-227816.715898866</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4898,32 +5188,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="C115" t="n">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="D115" t="n">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="E115" t="n">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>908.0145</v>
       </c>
       <c r="G115" t="n">
-        <v>19.82000000000001</v>
+        <v>-228724.7303988659</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4934,32 +5230,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="C116" t="n">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="D116" t="n">
-        <v>19.6</v>
+        <v>18.8</v>
       </c>
       <c r="E116" t="n">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="F116" t="n">
-        <v>398.4721</v>
+        <v>26943.5929</v>
       </c>
       <c r="G116" t="n">
-        <v>19.74000000000001</v>
+        <v>-228724.7303988659</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4970,32 +5272,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>19.6</v>
+        <v>18.9</v>
       </c>
       <c r="C117" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="D117" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="E117" t="n">
-        <v>19.6</v>
+        <v>18.9</v>
       </c>
       <c r="F117" t="n">
-        <v>9601.5278</v>
+        <v>118835.3467052632</v>
       </c>
       <c r="G117" t="n">
-        <v>19.72000000000001</v>
+        <v>-109889.3836936027</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5006,32 +5314,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="C118" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="D118" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="E118" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0001</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>19.68000000000001</v>
+        <v>-109879.3836936027</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5042,22 +5356,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="C119" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="D119" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="E119" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="F119" t="n">
-        <v>472.0937</v>
+        <v>102</v>
       </c>
       <c r="G119" t="n">
-        <v>19.64000000000001</v>
+        <v>-109879.3836936027</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5066,8 +5380,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5078,22 +5398,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="C120" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="D120" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="E120" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="F120" t="n">
-        <v>572.0937</v>
+        <v>788</v>
       </c>
       <c r="G120" t="n">
-        <v>19.58000000000001</v>
+        <v>-109879.3836936027</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5102,8 +5422,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5114,22 +5440,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>19.6</v>
+        <v>18.8</v>
       </c>
       <c r="C121" t="n">
-        <v>19.6</v>
+        <v>18.8</v>
       </c>
       <c r="D121" t="n">
-        <v>19.6</v>
+        <v>18.8</v>
       </c>
       <c r="E121" t="n">
-        <v>19.6</v>
+        <v>18.8</v>
       </c>
       <c r="F121" t="n">
-        <v>9153.469300000001</v>
+        <v>8472.057699999999</v>
       </c>
       <c r="G121" t="n">
-        <v>19.58000000000001</v>
+        <v>-118351.4413936027</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5138,8 +5464,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5150,22 +5482,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="C122" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="D122" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="E122" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="F122" t="n">
-        <v>2414.3789</v>
+        <v>1025.1726</v>
       </c>
       <c r="G122" t="n">
-        <v>19.54000000000001</v>
+        <v>-118351.4413936027</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5174,8 +5506,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5186,22 +5524,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="C123" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="D123" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="E123" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="F123" t="n">
-        <v>461.5879</v>
+        <v>3844.7058</v>
       </c>
       <c r="G123" t="n">
-        <v>19.44000000000001</v>
+        <v>-122196.1471936027</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5210,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5222,22 +5566,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="C124" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="D124" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="E124" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="F124" t="n">
-        <v>4066</v>
+        <v>1875.753</v>
       </c>
       <c r="G124" t="n">
-        <v>19.38000000000001</v>
+        <v>-120320.3941936027</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5246,8 +5590,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5258,22 +5608,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C125" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D125" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E125" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F125" t="n">
-        <v>2375.4504</v>
+        <v>5623.3371</v>
       </c>
       <c r="G125" t="n">
-        <v>19.28000000000001</v>
+        <v>-114697.0570936027</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5282,8 +5632,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5294,22 +5650,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="C126" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D126" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E126" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>3784</v>
       </c>
       <c r="G126" t="n">
-        <v>19.20000000000001</v>
+        <v>-114697.0570936027</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5318,8 +5674,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5342,10 +5704,10 @@
         <v>19</v>
       </c>
       <c r="F127" t="n">
-        <v>398.7911</v>
+        <v>12796.8723</v>
       </c>
       <c r="G127" t="n">
-        <v>19.12000000000001</v>
+        <v>-114697.0570936027</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5354,8 +5716,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5369,19 +5737,19 @@
         <v>19.1</v>
       </c>
       <c r="C128" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D128" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E128" t="n">
         <v>19.1</v>
       </c>
       <c r="F128" t="n">
-        <v>3013.8399</v>
+        <v>14300</v>
       </c>
       <c r="G128" t="n">
-        <v>19.16000000000001</v>
+        <v>-100397.0570936027</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5390,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5402,22 +5776,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="C129" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D129" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="E129" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="F129" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="G129" t="n">
-        <v>19.12000000000001</v>
+        <v>-100382.0570936027</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5426,8 +5800,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5438,22 +5818,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="C130" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="D130" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="E130" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>11753.0335</v>
       </c>
       <c r="G130" t="n">
-        <v>19.16000000000001</v>
+        <v>-112135.0905936027</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5462,8 +5842,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5474,22 +5860,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C131" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D131" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E131" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F131" t="n">
-        <v>2269.5304</v>
+        <v>11753.0336</v>
       </c>
       <c r="G131" t="n">
-        <v>19.12000000000001</v>
+        <v>-112135.0905936027</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5498,8 +5884,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5510,7 +5902,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="C132" t="n">
         <v>19.3</v>
@@ -5519,13 +5911,13 @@
         <v>19.3</v>
       </c>
       <c r="E132" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="F132" t="n">
-        <v>3491.6555</v>
+        <v>593</v>
       </c>
       <c r="G132" t="n">
-        <v>19.18000000000001</v>
+        <v>-111542.0905936027</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5534,8 +5926,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5546,22 +5944,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="C133" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="D133" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="E133" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="F133" t="n">
-        <v>1337.6697</v>
+        <v>27000</v>
       </c>
       <c r="G133" t="n">
-        <v>19.10000000000001</v>
+        <v>-138542.0905936027</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5570,8 +5968,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5594,10 +5998,10 @@
         <v>19.3</v>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>16000</v>
       </c>
       <c r="G134" t="n">
-        <v>19.16000000000001</v>
+        <v>-122542.0905936027</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5606,8 +6010,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5618,22 +6028,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="C135" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="D135" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="E135" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="F135" t="n">
-        <v>50482.6954</v>
+        <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>19.06000000000001</v>
+        <v>-122532.0905936027</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5642,8 +6052,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5654,22 +6070,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C136" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D136" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E136" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>11200</v>
       </c>
       <c r="G136" t="n">
-        <v>19.08000000000001</v>
+        <v>-133732.0905936027</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5678,8 +6094,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5690,22 +6112,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="C137" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="D137" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="E137" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="F137" t="n">
-        <v>1704.06</v>
+        <v>887.7976</v>
       </c>
       <c r="G137" t="n">
-        <v>18.98000000000001</v>
+        <v>-133732.0905936027</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5714,8 +6136,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5726,22 +6154,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="C138" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="D138" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="E138" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="F138" t="n">
-        <v>202158.5762</v>
+        <v>51000</v>
       </c>
       <c r="G138" t="n">
-        <v>18.98000000000001</v>
+        <v>-133732.0905936027</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5750,8 +6178,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5762,22 +6196,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="C139" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="D139" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="E139" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="F139" t="n">
-        <v>18249.1468</v>
+        <v>20200</v>
       </c>
       <c r="G139" t="n">
-        <v>18.86000000000001</v>
+        <v>-133732.0905936027</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5786,8 +6220,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5798,22 +6238,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="C140" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="D140" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="E140" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>21513.1869</v>
       </c>
       <c r="G140" t="n">
-        <v>18.86000000000001</v>
+        <v>-133732.0905936027</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5822,8 +6262,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5834,22 +6280,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="C141" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="D141" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="E141" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="F141" t="n">
-        <v>801</v>
+        <v>24994.0155</v>
       </c>
       <c r="G141" t="n">
-        <v>18.82000000000001</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5858,8 +6304,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5870,22 +6322,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="C142" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="D142" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="E142" t="n">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="F142" t="n">
-        <v>8739.2063</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="n">
-        <v>18.84000000000001</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5894,8 +6346,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5906,22 +6364,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="C143" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="D143" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="E143" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="F143" t="n">
-        <v>422.1784</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="n">
-        <v>18.82000000000001</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5930,8 +6388,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5942,22 +6406,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="C144" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="D144" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="E144" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="F144" t="n">
-        <v>3522.8859</v>
+        <v>64326.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>18.82000000000001</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5966,8 +6430,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5978,22 +6448,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="C145" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="D145" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="E145" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="F145" t="n">
-        <v>3172</v>
+        <v>33372.7686</v>
       </c>
       <c r="G145" t="n">
-        <v>18.80000000000001</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6002,8 +6472,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6014,22 +6490,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="C146" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="D146" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="E146" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="F146" t="n">
-        <v>7253.7046</v>
+        <v>115</v>
       </c>
       <c r="G146" t="n">
-        <v>18.76000000000001</v>
+        <v>-108738.0750936027</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6038,8 +6514,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6050,22 +6532,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="C147" t="n">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
       <c r="D147" t="n">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
       <c r="E147" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F147" t="n">
-        <v>2701.3978</v>
+        <v>110637.7619</v>
       </c>
       <c r="G147" t="n">
-        <v>18.72000000000002</v>
+        <v>1899.686806397265</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6074,8 +6556,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6086,22 +6574,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="C148" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="D148" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="E148" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="F148" t="n">
-        <v>15468.1419</v>
+        <v>15331.2195</v>
       </c>
       <c r="G148" t="n">
-        <v>18.70000000000002</v>
+        <v>-13431.53269360273</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6110,8 +6598,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6122,22 +6616,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="C149" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="D149" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="E149" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="F149" t="n">
-        <v>2354.1818</v>
+        <v>1585.6172</v>
       </c>
       <c r="G149" t="n">
-        <v>18.70000000000002</v>
+        <v>-13431.53269360273</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6146,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6158,22 +6658,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
       <c r="C150" t="n">
-        <v>18.6</v>
+        <v>19.7</v>
       </c>
       <c r="D150" t="n">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
       <c r="E150" t="n">
-        <v>18.6</v>
+        <v>19.7</v>
       </c>
       <c r="F150" t="n">
-        <v>41600</v>
+        <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>18.68000000000001</v>
+        <v>-13421.53269360273</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6182,8 +6682,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6194,22 +6700,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="C151" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="D151" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="E151" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="F151" t="n">
-        <v>7160.2454</v>
+        <v>7000</v>
       </c>
       <c r="G151" t="n">
-        <v>18.64000000000001</v>
+        <v>-20421.53269360273</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6218,8 +6724,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6230,22 +6742,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="C152" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D152" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="E152" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>472.5389</v>
       </c>
       <c r="G152" t="n">
-        <v>18.64000000000001</v>
+        <v>-20421.53269360273</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6254,8 +6766,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6266,36 +6784,38 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="C153" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="D153" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="E153" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="F153" t="n">
-        <v>1846.4722</v>
+        <v>16783.9397</v>
       </c>
       <c r="G153" t="n">
-        <v>18.60000000000002</v>
+        <v>-20421.53269360273</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L153" t="inlineStr"/>
+        <v>18.9</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6306,38 +6826,36 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="C154" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="D154" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="E154" t="n">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="F154" t="n">
-        <v>10</v>
+        <v>30.5987</v>
       </c>
       <c r="G154" t="n">
-        <v>18.60000000000002</v>
+        <v>-20421.53269360273</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M154" t="n">
@@ -6350,22 +6868,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="C155" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="D155" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="E155" t="n">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="F155" t="n">
-        <v>5884.826</v>
+        <v>26000</v>
       </c>
       <c r="G155" t="n">
-        <v>18.58000000000001</v>
+        <v>-20421.53269360273</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6375,11 +6893,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -6392,22 +6910,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>18.4</v>
+        <v>19.3</v>
       </c>
       <c r="C156" t="n">
-        <v>18.4</v>
+        <v>19.3</v>
       </c>
       <c r="D156" t="n">
-        <v>18.4</v>
+        <v>19.3</v>
       </c>
       <c r="E156" t="n">
-        <v>18.4</v>
+        <v>19.3</v>
       </c>
       <c r="F156" t="n">
-        <v>9316.303099999999</v>
+        <v>13924.8549</v>
       </c>
       <c r="G156" t="n">
-        <v>18.56000000000001</v>
+        <v>-34346.38759360273</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6416,8 +6934,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6428,22 +6952,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>18.6</v>
+        <v>19.4</v>
       </c>
       <c r="C157" t="n">
-        <v>18.6</v>
+        <v>19.4</v>
       </c>
       <c r="D157" t="n">
-        <v>18.6</v>
+        <v>19.4</v>
       </c>
       <c r="E157" t="n">
-        <v>18.6</v>
+        <v>19.4</v>
       </c>
       <c r="F157" t="n">
-        <v>10</v>
+        <v>13931.7569</v>
       </c>
       <c r="G157" t="n">
-        <v>18.54000000000001</v>
+        <v>-20414.63069360273</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6452,8 +6976,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6464,22 +6994,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="C158" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="D158" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="E158" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="F158" t="n">
-        <v>48338.3259</v>
+        <v>402.5278</v>
       </c>
       <c r="G158" t="n">
-        <v>18.50000000000001</v>
+        <v>-20817.15849360273</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6488,8 +7018,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6500,22 +7036,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>18.3</v>
+        <v>19.4</v>
       </c>
       <c r="C159" t="n">
-        <v>18.2</v>
+        <v>19.4</v>
       </c>
       <c r="D159" t="n">
-        <v>18.3</v>
+        <v>19.4</v>
       </c>
       <c r="E159" t="n">
-        <v>18.2</v>
+        <v>19.4</v>
       </c>
       <c r="F159" t="n">
-        <v>26144.2621</v>
+        <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>18.40000000000001</v>
+        <v>-20807.15849360273</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6524,8 +7060,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6536,36 +7078,38 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>18.2</v>
+        <v>19.2</v>
       </c>
       <c r="C160" t="n">
-        <v>18.2</v>
+        <v>19.2</v>
       </c>
       <c r="D160" t="n">
-        <v>18.2</v>
+        <v>19.2</v>
       </c>
       <c r="E160" t="n">
-        <v>18.2</v>
+        <v>19.2</v>
       </c>
       <c r="F160" t="n">
-        <v>1728.7692</v>
+        <v>25639.1388</v>
       </c>
       <c r="G160" t="n">
-        <v>18.34000000000001</v>
+        <v>-46446.29729360274</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L160" t="inlineStr"/>
+        <v>18.9</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6576,38 +7120,36 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="C161" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="D161" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="E161" t="n">
-        <v>18.4</v>
+        <v>19.2</v>
       </c>
       <c r="F161" t="n">
-        <v>24737.5376</v>
+        <v>16800</v>
       </c>
       <c r="G161" t="n">
-        <v>18.36000000000001</v>
+        <v>-46446.29729360274</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>18.2</v>
+        <v>18.9</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M161" t="n">
@@ -6620,44 +7162,2812 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>20240.7198</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-66687.01709360274</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>909.2365</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-66687.01709360274</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>486.2063</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-66687.01709360274</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>19</v>
+      </c>
+      <c r="D165" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>19</v>
+      </c>
+      <c r="F165" t="n">
+        <v>167619.2631</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-234306.2801936028</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>19</v>
+      </c>
+      <c r="C166" t="n">
+        <v>19</v>
+      </c>
+      <c r="D166" t="n">
+        <v>19</v>
+      </c>
+      <c r="E166" t="n">
+        <v>19</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1630.5</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-234306.2801936028</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>19</v>
+      </c>
+      <c r="C167" t="n">
+        <v>19</v>
+      </c>
+      <c r="D167" t="n">
+        <v>19</v>
+      </c>
+      <c r="E167" t="n">
+        <v>19</v>
+      </c>
+      <c r="F167" t="n">
+        <v>33727.6717</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-234306.2801936028</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>32.4201</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-234338.7002936027</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>25200</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-209138.7002936027</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>15105</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-209138.7002936027</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>26000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-183138.7002936027</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>35121</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-183138.7002936027</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C173" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6177</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-176961.7002936027</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C174" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E174" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>52720.4138</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-229682.1140936028</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>7328.5714</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-222353.5426936028</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D176" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E176" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>73000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-149353.5426936028</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>7178.1909</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-142175.3517936028</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1.047910052910053</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>20</v>
+      </c>
+      <c r="C178" t="n">
+        <v>20</v>
+      </c>
+      <c r="D178" t="n">
+        <v>20</v>
+      </c>
+      <c r="E178" t="n">
+        <v>20</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1851.1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-140324.2517936028</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>20</v>
+      </c>
+      <c r="C179" t="n">
+        <v>20</v>
+      </c>
+      <c r="D179" t="n">
+        <v>20</v>
+      </c>
+      <c r="E179" t="n">
+        <v>20</v>
+      </c>
+      <c r="F179" t="n">
+        <v>33907.8674</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-140324.2517936028</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>71932.19620000001</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-212256.4479936028</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C181" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D181" t="n">
+        <v>20</v>
+      </c>
+      <c r="E181" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>146134.4284</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-358390.8763936028</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>20</v>
+      </c>
+      <c r="C182" t="n">
+        <v>20</v>
+      </c>
+      <c r="D182" t="n">
+        <v>20</v>
+      </c>
+      <c r="E182" t="n">
+        <v>20</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-358380.8763936028</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>25800</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-384180.8763936028</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D184" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>870.5657</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-383310.3106936028</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C185" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D185" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E185" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F185" t="n">
+        <v>41414.1903</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-424724.5009936029</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C186" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D186" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F186" t="n">
+        <v>10</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-424714.5009936029</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>398.4721</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-425112.9730936029</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>9601.5278</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-425112.9730936029</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C189" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-425112.9730936029</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>472.0937</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-425585.0667936029</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C191" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E191" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F191" t="n">
+        <v>572.0937</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-425012.9730936029</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E192" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F192" t="n">
+        <v>9153.469300000001</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-425012.9730936029</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C193" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2414.3789</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-427427.3519936029</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>461.5879</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-427888.9398936029</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>4066</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-423822.9398936029</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2375.4504</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-426198.3902936028</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>10</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-426188.3902936028</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>19</v>
+      </c>
+      <c r="C198" t="n">
+        <v>19</v>
+      </c>
+      <c r="D198" t="n">
+        <v>19</v>
+      </c>
+      <c r="E198" t="n">
+        <v>19</v>
+      </c>
+      <c r="F198" t="n">
+        <v>398.7911</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-426587.1813936028</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E199" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3013.8399</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-423573.3414936028</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>19</v>
+      </c>
+      <c r="C200" t="n">
+        <v>19</v>
+      </c>
+      <c r="D200" t="n">
+        <v>19</v>
+      </c>
+      <c r="E200" t="n">
+        <v>19</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-424573.3414936028</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C201" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D201" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E201" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F201" t="n">
+        <v>10</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-424563.3414936028</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>19</v>
+      </c>
+      <c r="C202" t="n">
+        <v>19</v>
+      </c>
+      <c r="D202" t="n">
+        <v>19</v>
+      </c>
+      <c r="E202" t="n">
+        <v>19</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2269.5304</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-426832.8718936028</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>19</v>
+      </c>
+      <c r="C203" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D203" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E203" t="n">
+        <v>19</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3491.6555</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-423341.2163936028</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C204" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D204" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E204" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1337.6697</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-424678.8860936028</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C205" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-424668.8860936028</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C206" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D206" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E206" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F206" t="n">
+        <v>50482.6954</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-475151.5814936028</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E207" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>10</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-475141.5814936028</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C208" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D208" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E208" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1704.06</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-476845.6414936028</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C209" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D209" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E209" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F209" t="n">
+        <v>202158.5762</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-274687.0652936028</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C210" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D210" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E210" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F210" t="n">
+        <v>18249.1468</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-292936.2120936028</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C211" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D211" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E211" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F211" t="n">
+        <v>10</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-292926.2120936028</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C212" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D212" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E212" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F212" t="n">
+        <v>801</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-292125.2120936028</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C213" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D213" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E213" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F213" t="n">
+        <v>8739.2063</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-292125.2120936028</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C214" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D214" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E214" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F214" t="n">
+        <v>422.1784</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-292547.3904936028</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C215" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D215" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E215" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3522.8859</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C216" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D216" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E216" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3172</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C217" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D217" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E217" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F217" t="n">
+        <v>7253.7046</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C218" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D218" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E218" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2701.3978</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K218" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C219" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D219" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E219" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F219" t="n">
+        <v>15468.1419</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K219" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C220" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D220" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E220" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2354.1818</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-296070.2763936028</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K220" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C221" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E221" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F221" t="n">
+        <v>41600</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-337670.2763936028</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K221" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
         <v>18.5</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C222" t="n">
         <v>18.5</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D222" t="n">
         <v>18.5</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E222" t="n">
         <v>18.5</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F222" t="n">
+        <v>7160.2454</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-344830.5217936028</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K222" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C223" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D223" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E223" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F223" t="n">
+        <v>10</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-344820.5217936028</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K223" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C224" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D224" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E224" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1846.4722</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-346666.9939936028</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K224" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C225" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D225" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E225" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F225" t="n">
+        <v>10</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-346656.9939936028</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K225" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C226" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D226" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E226" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F226" t="n">
+        <v>5884.826</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-352541.8199936028</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K226" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C227" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D227" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="E227" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>9316.303099999999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-361858.1230936028</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K227" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C228" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D228" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E228" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F228" t="n">
+        <v>10</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-361848.1230936028</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K228" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C229" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E229" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F229" t="n">
+        <v>48338.3259</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-410186.4489936028</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K229" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C230" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D230" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E230" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26144.2621</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-436330.7110936028</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="K230" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1728.7692</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-436330.7110936028</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K231" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C232" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E232" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F232" t="n">
+        <v>24737.5376</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-411593.1734936028</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K232" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C233" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E233" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F233" t="n">
         <v>3683.7667</v>
       </c>
-      <c r="G162" t="n">
-        <v>18.34000000000001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
+      <c r="G233" t="n">
+        <v>-411593.1734936028</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
         <v>18.5</v>
       </c>
-      <c r="K162" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest CMT.xlsx
+++ b/BackTest/2019-10-26 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N233"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-191782.5089</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>-193910.1217</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>-193417.6007</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>-195002.9782</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +583,15 @@
         <v>-208802.9782</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +616,19 @@
         <v>-208337.181</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="J7" t="n">
         <v>18.3</v>
       </c>
-      <c r="K7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +653,21 @@
         <v>-206731.7401</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>18.3</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +692,21 @@
         <v>-193731.7401</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>18.3</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,24 +731,19 @@
         <v>-224907.2704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>18.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -838,24 +768,23 @@
         <v>-198222.2634</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>18.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,24 +809,23 @@
         <v>-198222.2634</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>18.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -922,24 +850,19 @@
         <v>-153202.8783</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>18.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -966,22 +889,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1008,22 +928,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1050,22 +967,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1092,22 +1006,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1134,22 +1045,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1176,22 +1084,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1218,22 +1123,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1260,22 +1162,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1302,22 +1201,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1344,22 +1240,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1386,22 +1279,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1428,22 +1318,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1470,22 +1357,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1512,22 +1396,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1554,22 +1435,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1596,22 +1474,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1638,22 +1513,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1680,22 +1552,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1720,24 +1589,23 @@
         <v>-144836.5336</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1762,24 +1630,23 @@
         <v>-144836.5336</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1804,24 +1671,23 @@
         <v>-144836.5336</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1846,24 +1712,23 @@
         <v>-144836.5336</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1888,24 +1753,23 @@
         <v>-144836.5336</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1932,22 +1796,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1972,24 +1833,23 @@
         <v>-116108.5336</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>18.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2014,24 +1874,23 @@
         <v>-109933.2313</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>18.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2056,24 +1915,23 @@
         <v>-107380.3811</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>18.9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2100,22 +1958,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2142,22 +1997,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2184,22 +2036,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2226,22 +2075,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2268,22 +2114,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2310,22 +2153,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2352,22 +2192,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2392,24 +2229,23 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
+        <v>19.2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2436,22 +2272,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2476,24 +2309,23 @@
         <v>-76865.64010000003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
+        <v>19.2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2520,22 +2352,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2562,22 +2391,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2604,22 +2430,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2644,24 +2467,21 @@
         <v>-85695.34300000002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.011042780748663</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2688,22 +2508,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2730,22 +2541,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2772,22 +2574,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2814,22 +2607,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2856,22 +2640,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2896,24 +2671,15 @@
         <v>-383394.4834</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2940,22 +2706,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2980,24 +2737,15 @@
         <v>-242995.6616</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3024,22 +2772,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3066,22 +2805,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3108,22 +2838,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3150,22 +2871,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3192,22 +2904,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3234,22 +2937,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3276,22 +2970,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3318,22 +3003,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3360,22 +3036,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3402,22 +3069,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3444,22 +3102,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3486,22 +3135,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3528,22 +3168,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3570,22 +3201,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3612,22 +3234,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3654,22 +3267,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3696,22 +3300,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3738,22 +3333,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3780,22 +3366,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3822,22 +3399,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3864,22 +3432,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3906,22 +3465,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3948,22 +3498,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3988,24 +3529,15 @@
         <v>-157231.7013820644</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4032,22 +3564,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4072,24 +3595,15 @@
         <v>-162819.9065102695</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4114,24 +3628,15 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4156,24 +3661,15 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4198,24 +3694,15 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4240,24 +3727,15 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4282,24 +3760,15 @@
         <v>-162018.9065102695</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4326,22 +3795,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4368,22 +3828,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4410,22 +3861,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4452,22 +3894,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4494,22 +3927,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4536,22 +3960,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4578,22 +3993,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4620,22 +4026,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4662,22 +4059,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4704,22 +4092,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4746,22 +4125,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4788,22 +4158,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4830,22 +4191,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4872,22 +4224,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4914,22 +4257,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4956,22 +4290,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4998,22 +4323,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5038,24 +4354,19 @@
         <v>-356403.4521988659</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>18.9</v>
+      </c>
+      <c r="J111" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5082,22 +4393,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5124,22 +4432,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5166,22 +4471,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5208,22 +4510,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5250,22 +4549,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5292,22 +4588,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5334,22 +4627,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5376,22 +4666,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5418,22 +4705,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5460,22 +4744,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5502,22 +4783,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5544,22 +4822,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5586,22 +4861,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5628,22 +4900,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5670,22 +4939,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5712,22 +4978,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5754,22 +5017,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5796,22 +5056,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5838,22 +5095,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5880,22 +5134,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5922,22 +5173,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5964,22 +5212,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6006,22 +5251,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6048,22 +5290,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6090,22 +5329,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6132,22 +5368,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6174,22 +5407,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6216,22 +5446,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6258,22 +5485,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6300,22 +5524,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6342,22 +5563,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6384,22 +5602,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6426,22 +5641,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6468,22 +5680,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6508,24 +5717,21 @@
         <v>-108738.0750936027</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1.026746031746032</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6550,24 +5756,15 @@
         <v>1899.686806397265</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6592,24 +5789,15 @@
         <v>-13431.53269360273</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6634,24 +5822,15 @@
         <v>-13431.53269360273</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6676,24 +5855,15 @@
         <v>-13421.53269360273</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6718,24 +5888,15 @@
         <v>-20421.53269360273</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6760,24 +5921,15 @@
         <v>-20421.53269360273</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6804,22 +5956,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6846,22 +5989,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6888,22 +6022,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6930,22 +6055,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6972,22 +6088,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7014,22 +6121,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7056,22 +6154,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7098,22 +6187,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7140,22 +6220,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7182,22 +6253,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7224,22 +6286,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7266,22 +6319,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7308,22 +6352,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7350,22 +6385,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7390,24 +6416,15 @@
         <v>-234306.2801936028</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7434,22 +6451,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7474,24 +6482,15 @@
         <v>-209138.7002936027</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7516,24 +6515,15 @@
         <v>-209138.7002936027</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7560,22 +6550,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7602,22 +6583,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7644,22 +6616,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7684,24 +6647,15 @@
         <v>-229682.1140936028</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7726,24 +6680,15 @@
         <v>-222353.5426936028</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7770,22 +6715,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7810,24 +6746,15 @@
         <v>-142175.3517936028</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1.047910052910053</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7852,18 +6779,15 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7888,18 +6812,15 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7924,18 +6845,15 @@
         <v>-212256.4479936028</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7960,18 +6878,15 @@
         <v>-358390.8763936028</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7996,18 +6911,15 @@
         <v>-358380.8763936028</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8032,18 +6944,15 @@
         <v>-384180.8763936028</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8068,18 +6977,15 @@
         <v>-383310.3106936028</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8106,16 +7012,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8140,18 +7043,15 @@
         <v>-424714.5009936029</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8178,16 +7078,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8212,18 +7109,15 @@
         <v>-425112.9730936029</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8248,18 +7142,15 @@
         <v>-425112.9730936029</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8284,18 +7175,15 @@
         <v>-425585.0667936029</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8320,18 +7208,15 @@
         <v>-425012.9730936029</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8358,16 +7243,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8394,16 +7276,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8428,18 +7307,15 @@
         <v>-427888.9398936029</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8466,16 +7342,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8502,16 +7375,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8538,16 +7408,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8572,18 +7439,15 @@
         <v>-426587.1813936028</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8608,18 +7472,15 @@
         <v>-423573.3414936028</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8646,16 +7507,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8680,18 +7538,15 @@
         <v>-424563.3414936028</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8716,18 +7571,15 @@
         <v>-426832.8718936028</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8754,16 +7606,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8790,16 +7639,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8826,16 +7672,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8860,18 +7703,15 @@
         <v>-475151.5814936028</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8898,16 +7738,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8934,16 +7771,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8970,16 +7804,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9006,16 +7837,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9042,16 +7870,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9078,16 +7903,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9114,16 +7936,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9150,16 +7969,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9186,16 +8002,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9222,16 +8035,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9258,16 +8068,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9292,22 +8099,15 @@
         <v>-296070.2763936028</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K218" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9332,26 +8132,15 @@
         <v>-296070.2763936028</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K219" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9376,26 +8165,15 @@
         <v>-296070.2763936028</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K220" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9420,26 +8198,15 @@
         <v>-337670.2763936028</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K221" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9464,26 +8231,15 @@
         <v>-344830.5217936028</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K222" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9508,26 +8264,15 @@
         <v>-344820.5217936028</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K223" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9552,26 +8297,15 @@
         <v>-346666.9939936028</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K224" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9596,26 +8330,15 @@
         <v>-346656.9939936028</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K225" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9640,26 +8363,15 @@
         <v>-352541.8199936028</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K226" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9684,26 +8396,15 @@
         <v>-361858.1230936028</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K227" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9728,26 +8429,15 @@
         <v>-361848.1230936028</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K228" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9772,26 +8462,15 @@
         <v>-410186.4489936028</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K229" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9816,26 +8495,15 @@
         <v>-436330.7110936028</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K230" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9860,26 +8528,15 @@
         <v>-436330.7110936028</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K231" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9904,26 +8561,15 @@
         <v>-411593.1734936028</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K232" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9948,28 +8594,17 @@
         <v>-411593.1734936028</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K233" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest CMT.xlsx
+++ b/BackTest/2019-10-26 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-191782.5089</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -616,14 +616,10 @@
         <v>-208337.181</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -656,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -695,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -731,14 +715,10 @@
         <v>-224907.2704</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>18.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -768,19 +748,11 @@
         <v>-198222.2634</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -809,19 +781,11 @@
         <v>-198222.2634</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -850,14 +814,10 @@
         <v>-153202.8783</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>18.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -890,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -929,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -968,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1007,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1046,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1085,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1124,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1163,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1202,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1241,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1280,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1319,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1358,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1397,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1436,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1475,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1514,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1553,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1589,19 +1441,11 @@
         <v>-144836.5336</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1630,19 +1474,11 @@
         <v>-144836.5336</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1671,19 +1507,11 @@
         <v>-144836.5336</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1712,19 +1540,11 @@
         <v>-144836.5336</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1753,19 +1573,11 @@
         <v>-144836.5336</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1797,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1833,19 +1639,11 @@
         <v>-116108.5336</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1874,19 +1672,11 @@
         <v>-109933.2313</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1915,19 +1705,11 @@
         <v>-107380.3811</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J40" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1959,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1998,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2037,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2076,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2115,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2154,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2193,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2229,19 +1969,11 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2273,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2309,19 +2035,11 @@
         <v>-76865.64010000003</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2353,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2392,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2431,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2467,19 +2167,13 @@
         <v>-85695.34300000002</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>1.011042780748663</v>
+        <v>1</v>
       </c>
       <c r="M54" t="inlineStr"/>
     </row>
@@ -2671,7 +2365,7 @@
         <v>-383394.4834</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2737,7 +2431,7 @@
         <v>-242995.6616</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3529,7 +3223,7 @@
         <v>-157231.7013820644</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3595,7 +3289,7 @@
         <v>-162819.9065102695</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3628,7 +3322,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3661,7 +3355,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3694,7 +3388,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3727,7 +3421,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3760,7 +3454,7 @@
         <v>-162018.9065102695</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4354,14 +4048,10 @@
         <v>-356403.4521988659</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J111" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4394,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4433,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4472,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4511,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4550,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4589,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4628,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4667,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4706,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4745,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4784,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4823,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4862,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4901,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4940,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4979,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5018,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5057,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5096,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5135,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5174,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5213,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5252,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5291,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5330,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5369,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5408,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5447,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5486,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5525,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5564,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5603,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5642,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5681,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5717,19 +5203,13 @@
         <v>-108738.0750936027</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>1.026746031746032</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
     </row>
@@ -5756,7 +5236,7 @@
         <v>1899.686806397265</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5789,7 +5269,7 @@
         <v>-13431.53269360273</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5822,7 +5302,7 @@
         <v>-13431.53269360273</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5855,7 +5335,7 @@
         <v>-13421.53269360273</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5888,7 +5368,7 @@
         <v>-20421.53269360273</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5921,7 +5401,7 @@
         <v>-20421.53269360273</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6416,7 +5896,7 @@
         <v>-234306.2801936028</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6482,7 +5962,7 @@
         <v>-209138.7002936027</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6515,7 +5995,7 @@
         <v>-209138.7002936027</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6647,7 +6127,7 @@
         <v>-229682.1140936028</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6680,7 +6160,7 @@
         <v>-222353.5426936028</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6713,7 +6193,7 @@
         <v>-149353.5426936028</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6746,7 +6226,7 @@
         <v>-142175.3517936028</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6779,7 +6259,7 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6812,7 +6292,7 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6845,7 +6325,7 @@
         <v>-212256.4479936028</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6878,7 +6358,7 @@
         <v>-358390.8763936028</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6911,7 +6391,7 @@
         <v>-358380.8763936028</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6944,7 +6424,7 @@
         <v>-384180.8763936028</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6977,7 +6457,7 @@
         <v>-383310.3106936028</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7010,7 +6490,7 @@
         <v>-424724.5009936029</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7043,7 +6523,7 @@
         <v>-424714.5009936029</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7076,7 +6556,7 @@
         <v>-425112.9730936029</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7109,7 +6589,7 @@
         <v>-425112.9730936029</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7142,7 +6622,7 @@
         <v>-425112.9730936029</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7175,7 +6655,7 @@
         <v>-425585.0667936029</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7208,7 +6688,7 @@
         <v>-425012.9730936029</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7241,7 +6721,7 @@
         <v>-425012.9730936029</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7274,7 +6754,7 @@
         <v>-427427.3519936029</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7307,7 +6787,7 @@
         <v>-427888.9398936029</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7340,7 +6820,7 @@
         <v>-423822.9398936029</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7439,7 +6919,7 @@
         <v>-426587.1813936028</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7472,7 +6952,7 @@
         <v>-423573.3414936028</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7538,7 +7018,7 @@
         <v>-424563.3414936028</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7571,7 +7051,7 @@
         <v>-426832.8718936028</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7703,7 +7183,7 @@
         <v>-475151.5814936028</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8429,10 +7909,14 @@
         <v>-361848.1230936028</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J228" t="n">
+        <v>18.4</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
@@ -8462,11 +7946,19 @@
         <v>-410186.4489936028</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J229" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8495,11 +7987,19 @@
         <v>-436330.7110936028</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J230" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8528,11 +8028,19 @@
         <v>-436330.7110936028</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8561,11 +8069,19 @@
         <v>-411593.1734936028</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8594,17 +8110,25 @@
         <v>-411593.1734936028</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J233" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
       <c r="M233" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest CMT.xlsx
+++ b/BackTest/2019-10-26 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>-91686.94880000003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-89807.94880000003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-89807.94880000003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-102265.7794</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-76865.64010000003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-75663.28120000003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-77095.34300000002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-77095.34300000002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-85695.34300000002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-85695.34300000002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-337221.134</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-295818.3446</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-305461.2180000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-255802.2884333334</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-259802.2884333334</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-259802.2884333334</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-272133.2884333334</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-157241.7013820644</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-157231.7013820644</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-163017.7013820644</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-162819.9065102695</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-229682.1140936028</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-222353.5426936028</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-149353.5426936028</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-142175.3517936028</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-212256.4479936028</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-358390.8763936028</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-358380.8763936028</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-384180.8763936028</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-383310.3106936028</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-424724.5009936029</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-424714.5009936029</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-425112.9730936029</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-425112.9730936029</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-425112.9730936029</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-425585.0667936029</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-425012.9730936029</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-425012.9730936029</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-427427.3519936029</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-427888.9398936029</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-423822.9398936029</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7909,14 +7909,10 @@
         <v>-361848.1230936028</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J228" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
@@ -7946,142 +7942,122 @@
         <v>-410186.4489936028</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C230" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D230" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E230" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26144.2621</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-436330.7110936028</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1728.7692</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-436330.7110936028</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C232" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E232" t="n">
         <v>18.4</v>
       </c>
-      <c r="K229" t="inlineStr">
+      <c r="F232" t="n">
+        <v>24737.5376</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-411593.1734936028</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="C230" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D230" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="E230" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F230" t="n">
-        <v>26144.2621</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-436330.7110936028</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J230" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C231" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D231" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E231" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1728.7692</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-436330.7110936028</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J231" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="C232" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D232" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E232" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F232" t="n">
-        <v>24737.5376</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-411593.1734936028</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J232" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8110,17 +8086,15 @@
         <v>-411593.1734936028</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L233" t="n">
@@ -8129,6 +8103,6 @@
       <c r="M233" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest CMT.xlsx
+++ b/BackTest/2019-10-26 BackTest CMT.xlsx
@@ -1804,7 +1804,7 @@
         <v>-91686.94880000003</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-89807.94880000003</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-89807.94880000003</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-102265.7794</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-76865.64010000003</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-75663.28120000003</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-77095.34300000002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-77095.34300000002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-85695.34300000002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-85695.34300000002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-337221.134</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-295818.3446</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-305461.2180000001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-255802.2884333334</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-259802.2884333334</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-259802.2884333334</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-272133.2884333334</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-157241.7013820644</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-157231.7013820644</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-163017.7013820644</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-162819.9065102695</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-212256.4479936028</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-358390.8763936028</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7909,10 +7909,14 @@
         <v>-361848.1230936028</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J228" t="n">
+        <v>18.4</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
@@ -7945,8 +7949,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +7985,19 @@
         <v>-436330.7110936028</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J230" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8014,9 +8032,13 @@
         <v>18.2</v>
       </c>
       <c r="J231" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
+        <v>18.4</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8051,11 +8073,11 @@
         <v>18.2</v>
       </c>
       <c r="J232" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8086,15 +8108,17 @@
         <v>-411593.1734936028</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J233" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L233" t="n">

--- a/BackTest/2019-10-26 BackTest CMT.xlsx
+++ b/BackTest/2019-10-26 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M233"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>16497</v>
       </c>
       <c r="G2" t="n">
-        <v>-191782.5089</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2127.6128</v>
       </c>
       <c r="G3" t="n">
-        <v>-193910.1217</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>492.521</v>
       </c>
       <c r="G4" t="n">
-        <v>-193417.6007</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1585.3775</v>
       </c>
       <c r="G5" t="n">
-        <v>-195002.9782</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>13800</v>
       </c>
       <c r="G6" t="n">
-        <v>-208802.9782</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>465.7972</v>
       </c>
       <c r="G7" t="n">
-        <v>-208337.181</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1605.4409</v>
       </c>
       <c r="G8" t="n">
-        <v>-206731.7401</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>13000</v>
       </c>
       <c r="G9" t="n">
-        <v>-193731.7401</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>31175.5303</v>
       </c>
       <c r="G10" t="n">
-        <v>-224907.2704</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>26685.007</v>
       </c>
       <c r="G11" t="n">
-        <v>-198222.2634</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>13000</v>
       </c>
       <c r="G12" t="n">
-        <v>-198222.2634</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>45019.3851</v>
       </c>
       <c r="G13" t="n">
-        <v>-153202.8783</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>10400</v>
       </c>
       <c r="G14" t="n">
-        <v>-142802.8783</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>323362.9834</v>
       </c>
       <c r="G15" t="n">
-        <v>-466165.8617</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>335644.9206</v>
       </c>
       <c r="G16" t="n">
-        <v>-130520.9411</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>9000</v>
       </c>
       <c r="G17" t="n">
-        <v>-139520.9411</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>17881.7203</v>
       </c>
       <c r="G18" t="n">
-        <v>-139520.9411</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>67427.143</v>
       </c>
       <c r="G19" t="n">
-        <v>-72093.7981</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2225</v>
       </c>
       <c r="G20" t="n">
-        <v>-72093.7981</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>29813.611</v>
       </c>
       <c r="G21" t="n">
-        <v>-101907.4091</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>4289.0628</v>
       </c>
       <c r="G22" t="n">
-        <v>-97618.3463</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>16416.7058</v>
       </c>
       <c r="G23" t="n">
-        <v>-97618.3463</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1993.3838</v>
       </c>
       <c r="G24" t="n">
-        <v>-97618.3463</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>7650</v>
       </c>
       <c r="G25" t="n">
-        <v>-89968.3463</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>4000</v>
       </c>
       <c r="G26" t="n">
-        <v>-93968.3463</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>23564.9788</v>
       </c>
       <c r="G27" t="n">
-        <v>-70403.36750000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>9903.4771</v>
       </c>
       <c r="G28" t="n">
-        <v>-80306.84460000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>60171.2923</v>
       </c>
       <c r="G29" t="n">
-        <v>-140478.1369</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>33174.3967</v>
       </c>
       <c r="G30" t="n">
-        <v>-173652.5336</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>28816</v>
       </c>
       <c r="G31" t="n">
-        <v>-144836.5336</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1941.6791</v>
       </c>
       <c r="G32" t="n">
-        <v>-144836.5336</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>952</v>
       </c>
       <c r="G33" t="n">
-        <v>-144836.5336</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>735</v>
       </c>
       <c r="G34" t="n">
-        <v>-144836.5336</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>143.7525</v>
       </c>
       <c r="G35" t="n">
-        <v>-144836.5336</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>27582.8607</v>
       </c>
       <c r="G36" t="n">
-        <v>-144836.5336</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>9688.350399999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-144836.5336</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>28728</v>
       </c>
       <c r="G38" t="n">
-        <v>-116108.5336</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>6175.3023</v>
       </c>
       <c r="G39" t="n">
-        <v>-109933.2313</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>2552.8502</v>
       </c>
       <c r="G40" t="n">
-        <v>-107380.3811</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>5813.6158</v>
       </c>
       <c r="G41" t="n">
-        <v>-107380.3811</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>15693.4323</v>
       </c>
       <c r="G42" t="n">
-        <v>-91686.94880000003</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>171.806</v>
       </c>
       <c r="G43" t="n">
-        <v>-91686.94880000003</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1879</v>
       </c>
       <c r="G44" t="n">
-        <v>-89807.94880000003</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2055.2222</v>
       </c>
       <c r="G45" t="n">
-        <v>-89807.94880000003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>12457.8306</v>
       </c>
       <c r="G46" t="n">
-        <v>-102265.7794</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>12665</v>
       </c>
       <c r="G47" t="n">
-        <v>-89600.77940000003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>13000</v>
       </c>
       <c r="G48" t="n">
-        <v>-89600.77940000003</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>4166.6666</v>
       </c>
       <c r="G49" t="n">
-        <v>-89600.77940000003</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>12735.1393</v>
       </c>
       <c r="G50" t="n">
-        <v>-76865.64010000003</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1202.3589</v>
       </c>
       <c r="G51" t="n">
-        <v>-75663.28120000003</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1432.0618</v>
       </c>
       <c r="G52" t="n">
-        <v>-77095.34300000002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>9000</v>
       </c>
       <c r="G53" t="n">
-        <v>-77095.34300000002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>8600</v>
       </c>
       <c r="G54" t="n">
-        <v>-85695.34300000002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>4534.4892</v>
       </c>
       <c r="G55" t="n">
-        <v>-85695.34300000002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>251525.791</v>
       </c>
       <c r="G56" t="n">
-        <v>-337221.134</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>41402.7894</v>
       </c>
       <c r="G57" t="n">
-        <v>-295818.3446</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>44646.1694</v>
       </c>
       <c r="G58" t="n">
-        <v>-340464.514</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>398.2842</v>
       </c>
       <c r="G59" t="n">
-        <v>-340066.2298</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>43328.2536</v>
       </c>
       <c r="G60" t="n">
-        <v>-383394.4834</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>9150</v>
       </c>
       <c r="G61" t="n">
-        <v>-374244.4834</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>131248.8218</v>
       </c>
       <c r="G62" t="n">
-        <v>-242995.6616</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>4015</v>
       </c>
       <c r="G63" t="n">
-        <v>-242995.6616</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-242985.6616</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>68393.2632</v>
       </c>
       <c r="G65" t="n">
-        <v>-311378.9248</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3290.9308</v>
       </c>
       <c r="G66" t="n">
-        <v>-311378.9248</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>8255.2577</v>
       </c>
       <c r="G67" t="n">
-        <v>-311378.9248</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>2035.7068</v>
       </c>
       <c r="G68" t="n">
-        <v>-309343.2180000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>3882</v>
       </c>
       <c r="G69" t="n">
-        <v>-305461.2180000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>520.8333333333334</v>
       </c>
       <c r="G70" t="n">
-        <v>-305461.2180000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>16365</v>
       </c>
       <c r="G71" t="n">
-        <v>-305461.2180000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>17902.99296666666</v>
       </c>
       <c r="G72" t="n">
-        <v>-305461.2180000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>21140.52283333333</v>
       </c>
       <c r="G73" t="n">
-        <v>-305461.2180000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>4975</v>
       </c>
       <c r="G74" t="n">
-        <v>-305461.2180000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>3559</v>
       </c>
       <c r="G75" t="n">
-        <v>-305461.2180000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>5232</v>
       </c>
       <c r="G76" t="n">
-        <v>-305461.2180000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>21576.08376666667</v>
       </c>
       <c r="G77" t="n">
-        <v>-283885.1342333334</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>25401.7744</v>
       </c>
       <c r="G78" t="n">
-        <v>-283885.1342333334</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>134997.6838</v>
       </c>
       <c r="G79" t="n">
-        <v>-283885.1342333334</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>28669.768</v>
       </c>
       <c r="G80" t="n">
-        <v>-283885.1342333334</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>28082.8458</v>
       </c>
       <c r="G81" t="n">
-        <v>-255802.2884333334</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>4000</v>
       </c>
       <c r="G82" t="n">
-        <v>-259802.2884333334</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>3035.641</v>
       </c>
       <c r="G83" t="n">
-        <v>-259802.2884333334</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>12331</v>
       </c>
       <c r="G84" t="n">
-        <v>-272133.2884333334</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>114891.587051269</v>
       </c>
       <c r="G85" t="n">
-        <v>-157241.7013820644</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-157231.7013820644</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>5786</v>
       </c>
       <c r="G87" t="n">
-        <v>-163017.7013820644</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>197.7948717948718</v>
       </c>
       <c r="G88" t="n">
-        <v>-162819.9065102695</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>117</v>
       </c>
       <c r="G89" t="n">
-        <v>-162936.9065102695</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>291.5059</v>
       </c>
       <c r="G90" t="n">
-        <v>-162936.9065102695</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>131.6312</v>
       </c>
       <c r="G91" t="n">
-        <v>-162936.9065102695</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>540</v>
       </c>
       <c r="G92" t="n">
-        <v>-162936.9065102695</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>918</v>
       </c>
       <c r="G93" t="n">
-        <v>-162018.9065102695</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>3824.1351</v>
       </c>
       <c r="G94" t="n">
-        <v>-165843.0416102695</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>2039</v>
       </c>
       <c r="G95" t="n">
-        <v>-167882.0416102695</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>58128.3053</v>
       </c>
       <c r="G96" t="n">
-        <v>-167882.0416102695</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>14598.3146</v>
       </c>
       <c r="G97" t="n">
-        <v>-167882.0416102695</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>834</v>
       </c>
       <c r="G98" t="n">
-        <v>-167048.0416102695</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>11365.3623</v>
       </c>
       <c r="G99" t="n">
-        <v>-155682.6793102695</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>520.8333</v>
       </c>
       <c r="G100" t="n">
-        <v>-155161.8460102695</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>10237</v>
       </c>
       <c r="G101" t="n">
-        <v>-165398.8460102695</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>181063.9994833333</v>
       </c>
       <c r="G102" t="n">
-        <v>-346462.8454936028</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>36558.0574</v>
       </c>
       <c r="G103" t="n">
-        <v>-346462.8454936028</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>219561.6842</v>
       </c>
       <c r="G104" t="n">
-        <v>-346462.8454936028</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>11213</v>
       </c>
       <c r="G105" t="n">
-        <v>-357675.8454936028</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>1992</v>
       </c>
       <c r="G106" t="n">
-        <v>-357675.8454936028</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>5263.157894736843</v>
       </c>
       <c r="G107" t="n">
-        <v>-352412.6875988659</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>78.5988</v>
       </c>
       <c r="G108" t="n">
-        <v>-352491.2863988659</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>2000</v>
       </c>
       <c r="G109" t="n">
-        <v>-354491.2863988659</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>30</v>
       </c>
       <c r="G110" t="n">
-        <v>-354461.2863988659</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>1942.1658</v>
       </c>
       <c r="G111" t="n">
-        <v>-356403.4521988659</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>62</v>
       </c>
       <c r="G112" t="n">
-        <v>-356341.4521988659</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>14015</v>
       </c>
       <c r="G113" t="n">
-        <v>-370356.4521988659</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>142539.7363</v>
       </c>
       <c r="G114" t="n">
-        <v>-227816.715898866</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>908.0145</v>
       </c>
       <c r="G115" t="n">
-        <v>-228724.7303988659</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>26943.5929</v>
       </c>
       <c r="G116" t="n">
-        <v>-228724.7303988659</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>118835.3467052632</v>
       </c>
       <c r="G117" t="n">
-        <v>-109889.3836936027</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>-109879.3836936027</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>102</v>
       </c>
       <c r="G119" t="n">
-        <v>-109879.3836936027</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>788</v>
       </c>
       <c r="G120" t="n">
-        <v>-109879.3836936027</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>8472.057699999999</v>
       </c>
       <c r="G121" t="n">
-        <v>-118351.4413936027</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>1025.1726</v>
       </c>
       <c r="G122" t="n">
-        <v>-118351.4413936027</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>3844.7058</v>
       </c>
       <c r="G123" t="n">
-        <v>-122196.1471936027</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1875.753</v>
       </c>
       <c r="G124" t="n">
-        <v>-120320.3941936027</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>5623.3371</v>
       </c>
       <c r="G125" t="n">
-        <v>-114697.0570936027</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>3784</v>
       </c>
       <c r="G126" t="n">
-        <v>-114697.0570936027</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>12796.8723</v>
       </c>
       <c r="G127" t="n">
-        <v>-114697.0570936027</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>14300</v>
       </c>
       <c r="G128" t="n">
-        <v>-100397.0570936027</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>15</v>
       </c>
       <c r="G129" t="n">
-        <v>-100382.0570936027</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>11753.0335</v>
       </c>
       <c r="G130" t="n">
-        <v>-112135.0905936027</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>11753.0336</v>
       </c>
       <c r="G131" t="n">
-        <v>-112135.0905936027</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>593</v>
       </c>
       <c r="G132" t="n">
-        <v>-111542.0905936027</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>27000</v>
       </c>
       <c r="G133" t="n">
-        <v>-138542.0905936027</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>16000</v>
       </c>
       <c r="G134" t="n">
-        <v>-122542.0905936027</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>-122532.0905936027</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>11200</v>
       </c>
       <c r="G136" t="n">
-        <v>-133732.0905936027</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>887.7976</v>
       </c>
       <c r="G137" t="n">
-        <v>-133732.0905936027</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>51000</v>
       </c>
       <c r="G138" t="n">
-        <v>-133732.0905936027</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>20200</v>
       </c>
       <c r="G139" t="n">
-        <v>-133732.0905936027</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>21513.1869</v>
       </c>
       <c r="G140" t="n">
-        <v>-133732.0905936027</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>24994.0155</v>
       </c>
       <c r="G141" t="n">
-        <v>-108738.0750936027</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>2000</v>
       </c>
       <c r="G142" t="n">
-        <v>-108738.0750936027</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>2000</v>
       </c>
       <c r="G143" t="n">
-        <v>-108738.0750936027</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>64326.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>-108738.0750936027</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>33372.7686</v>
       </c>
       <c r="G145" t="n">
-        <v>-108738.0750936027</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>115</v>
       </c>
       <c r="G146" t="n">
-        <v>-108738.0750936027</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>110637.7619</v>
       </c>
       <c r="G147" t="n">
-        <v>1899.686806397265</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>15331.2195</v>
       </c>
       <c r="G148" t="n">
-        <v>-13431.53269360273</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>1585.6172</v>
       </c>
       <c r="G149" t="n">
-        <v>-13431.53269360273</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>-13421.53269360273</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>7000</v>
       </c>
       <c r="G151" t="n">
-        <v>-20421.53269360273</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>472.5389</v>
       </c>
       <c r="G152" t="n">
-        <v>-20421.53269360273</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>16783.9397</v>
       </c>
       <c r="G153" t="n">
-        <v>-20421.53269360273</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>30.5987</v>
       </c>
       <c r="G154" t="n">
-        <v>-20421.53269360273</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>26000</v>
       </c>
       <c r="G155" t="n">
-        <v>-20421.53269360273</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>13924.8549</v>
       </c>
       <c r="G156" t="n">
-        <v>-34346.38759360273</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>13931.7569</v>
       </c>
       <c r="G157" t="n">
-        <v>-20414.63069360273</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>402.5278</v>
       </c>
       <c r="G158" t="n">
-        <v>-20817.15849360273</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>-20807.15849360273</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>25639.1388</v>
       </c>
       <c r="G160" t="n">
-        <v>-46446.29729360274</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>16800</v>
       </c>
       <c r="G161" t="n">
-        <v>-46446.29729360274</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>20240.7198</v>
       </c>
       <c r="G162" t="n">
-        <v>-66687.01709360274</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>909.2365</v>
       </c>
       <c r="G163" t="n">
-        <v>-66687.01709360274</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>486.2063</v>
       </c>
       <c r="G164" t="n">
-        <v>-66687.01709360274</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>167619.2631</v>
       </c>
       <c r="G165" t="n">
-        <v>-234306.2801936028</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>1630.5</v>
       </c>
       <c r="G166" t="n">
-        <v>-234306.2801936028</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>33727.6717</v>
       </c>
       <c r="G167" t="n">
-        <v>-234306.2801936028</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>32.4201</v>
       </c>
       <c r="G168" t="n">
-        <v>-234338.7002936027</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>25200</v>
       </c>
       <c r="G169" t="n">
-        <v>-209138.7002936027</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>15105</v>
       </c>
       <c r="G170" t="n">
-        <v>-209138.7002936027</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>26000</v>
       </c>
       <c r="G171" t="n">
-        <v>-183138.7002936027</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>35121</v>
       </c>
       <c r="G172" t="n">
-        <v>-183138.7002936027</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>6177</v>
       </c>
       <c r="G173" t="n">
-        <v>-176961.7002936027</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>52720.4138</v>
       </c>
       <c r="G174" t="n">
-        <v>-229682.1140936028</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>7328.5714</v>
       </c>
       <c r="G175" t="n">
-        <v>-222353.5426936028</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>73000</v>
       </c>
       <c r="G176" t="n">
-        <v>-149353.5426936028</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>7178.1909</v>
       </c>
       <c r="G177" t="n">
-        <v>-142175.3517936028</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>1851.1</v>
       </c>
       <c r="G178" t="n">
-        <v>-140324.2517936028</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>33907.8674</v>
       </c>
       <c r="G179" t="n">
-        <v>-140324.2517936028</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>71932.19620000001</v>
       </c>
       <c r="G180" t="n">
-        <v>-212256.4479936028</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>146134.4284</v>
       </c>
       <c r="G181" t="n">
-        <v>-358390.8763936028</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>-358380.8763936028</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>25800</v>
       </c>
       <c r="G183" t="n">
-        <v>-384180.8763936028</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>870.5657</v>
       </c>
       <c r="G184" t="n">
-        <v>-383310.3106936028</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>41414.1903</v>
       </c>
       <c r="G185" t="n">
-        <v>-424724.5009936029</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>10</v>
       </c>
       <c r="G186" t="n">
-        <v>-424714.5009936029</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>398.4721</v>
       </c>
       <c r="G187" t="n">
-        <v>-425112.9730936029</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>9601.5278</v>
       </c>
       <c r="G188" t="n">
-        <v>-425112.9730936029</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>0.0001</v>
       </c>
       <c r="G189" t="n">
-        <v>-425112.9730936029</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>472.0937</v>
       </c>
       <c r="G190" t="n">
-        <v>-425585.0667936029</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>572.0937</v>
       </c>
       <c r="G191" t="n">
-        <v>-425012.9730936029</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>9153.469300000001</v>
       </c>
       <c r="G192" t="n">
-        <v>-425012.9730936029</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>2414.3789</v>
       </c>
       <c r="G193" t="n">
-        <v>-427427.3519936029</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>461.5879</v>
       </c>
       <c r="G194" t="n">
-        <v>-427888.9398936029</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>4066</v>
       </c>
       <c r="G195" t="n">
-        <v>-423822.9398936029</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>2375.4504</v>
       </c>
       <c r="G196" t="n">
-        <v>-426198.3902936028</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>10</v>
       </c>
       <c r="G197" t="n">
-        <v>-426188.3902936028</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>398.7911</v>
       </c>
       <c r="G198" t="n">
-        <v>-426587.1813936028</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>3013.8399</v>
       </c>
       <c r="G199" t="n">
-        <v>-423573.3414936028</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>1000</v>
       </c>
       <c r="G200" t="n">
-        <v>-424573.3414936028</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>10</v>
       </c>
       <c r="G201" t="n">
-        <v>-424563.3414936028</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>2269.5304</v>
       </c>
       <c r="G202" t="n">
-        <v>-426832.8718936028</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>3491.6555</v>
       </c>
       <c r="G203" t="n">
-        <v>-423341.2163936028</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>1337.6697</v>
       </c>
       <c r="G204" t="n">
-        <v>-424678.8860936028</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>10</v>
       </c>
       <c r="G205" t="n">
-        <v>-424668.8860936028</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>50482.6954</v>
       </c>
       <c r="G206" t="n">
-        <v>-475151.5814936028</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>10</v>
       </c>
       <c r="G207" t="n">
-        <v>-475141.5814936028</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>1704.06</v>
       </c>
       <c r="G208" t="n">
-        <v>-476845.6414936028</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>202158.5762</v>
       </c>
       <c r="G209" t="n">
-        <v>-274687.0652936028</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>18249.1468</v>
       </c>
       <c r="G210" t="n">
-        <v>-292936.2120936028</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>10</v>
       </c>
       <c r="G211" t="n">
-        <v>-292926.2120936028</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>801</v>
       </c>
       <c r="G212" t="n">
-        <v>-292125.2120936028</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>8739.2063</v>
       </c>
       <c r="G213" t="n">
-        <v>-292125.2120936028</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>422.1784</v>
       </c>
       <c r="G214" t="n">
-        <v>-292547.3904936028</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>3522.8859</v>
       </c>
       <c r="G215" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>3172</v>
       </c>
       <c r="G216" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>7253.7046</v>
       </c>
       <c r="G217" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>2701.3978</v>
       </c>
       <c r="G218" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>15468.1419</v>
       </c>
       <c r="G219" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>2354.1818</v>
       </c>
       <c r="G220" t="n">
-        <v>-296070.2763936028</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>41600</v>
       </c>
       <c r="G221" t="n">
-        <v>-337670.2763936028</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>7160.2454</v>
       </c>
       <c r="G222" t="n">
-        <v>-344830.5217936028</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>10</v>
       </c>
       <c r="G223" t="n">
-        <v>-344820.5217936028</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>1846.4722</v>
       </c>
       <c r="G224" t="n">
-        <v>-346666.9939936028</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>10</v>
       </c>
       <c r="G225" t="n">
-        <v>-346656.9939936028</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>5884.826</v>
       </c>
       <c r="G226" t="n">
-        <v>-352541.8199936028</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>9316.303099999999</v>
       </c>
       <c r="G227" t="n">
-        <v>-361858.1230936028</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,22 +7223,15 @@
         <v>10</v>
       </c>
       <c r="G228" t="n">
-        <v>-361848.1230936028</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J228" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7943,24 +7253,15 @@
         <v>48338.3259</v>
       </c>
       <c r="G229" t="n">
-        <v>-410186.4489936028</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7982,26 +7283,21 @@
         <v>26144.2621</v>
       </c>
       <c r="G230" t="n">
-        <v>-436330.7110936028</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
         <v>18.3</v>
       </c>
-      <c r="J230" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8023,26 +7319,21 @@
         <v>1728.7692</v>
       </c>
       <c r="G231" t="n">
-        <v>-436330.7110936028</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
         <v>18.2</v>
       </c>
-      <c r="J231" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K231" t="inlineStr">
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8064,26 +7355,21 @@
         <v>24737.5376</v>
       </c>
       <c r="G232" t="n">
-        <v>-411593.1734936028</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
         <v>18.2</v>
       </c>
-      <c r="J232" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K232" t="inlineStr">
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8105,26 +7391,21 @@
         <v>3683.7667</v>
       </c>
       <c r="G233" t="n">
-        <v>-411593.1734936028</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
         <v>18.5</v>
       </c>
-      <c r="J233" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K233" t="inlineStr">
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
